--- a/xlsx/goal_tracking.xlsx
+++ b/xlsx/goal_tracking.xlsx
@@ -1,31 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALESSANDRO\Documents\GitHub\tiebreak_wc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldi\Documents\GitHub\tiebreak_wc\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E981F185-7D66-4F20-A7C7-F867F2EF1249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2071BB39-6A66-4C72-8C1C-92F501DB52C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="wc" sheetId="1" r:id="rId1"/>
+    <sheet name="eu" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">eu!$A$143:$F$148</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="53">
   <si>
     <t>2022 FIFA World Cup - Group E</t>
   </si>
@@ -137,12 +152,60 @@
   <si>
     <t>85’ Costa R – Germany 2-4 (Fulkrug)</t>
   </si>
+  <si>
+    <t>2021 FIFA Euro Cup - Group F</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>11’ Germany – Hungary 0-1 (Szalai)</t>
+  </si>
+  <si>
+    <t>31’ Portugal – France 1-0 (Ronaldo)</t>
+  </si>
+  <si>
+    <t>Gdiff</t>
+  </si>
+  <si>
+    <t>France and Hungary draw in md2, we compare gdiff</t>
+  </si>
+  <si>
+    <t>Germany won against Portugal in md2</t>
+  </si>
+  <si>
+    <t>47’ Portugal – France 1-1 (Benzema)</t>
+  </si>
+  <si>
+    <t>Portugal won against Hungary in md1</t>
+  </si>
+  <si>
+    <t>47’ Portugal – France 2-1 (Ronaldo)</t>
+  </si>
+  <si>
+    <t>66’ Germany – Hungary 1-1 (Havertz)</t>
+  </si>
+  <si>
+    <t>France won against Germany in md1</t>
+  </si>
+  <si>
+    <t>68’ Germany – Hungary 1-2 (Schafer)</t>
+  </si>
+  <si>
+    <t>84’ Germany – Hungary 2-2 (Goretzka)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,8 +221,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,8 +279,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -320,11 +408,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -350,52 +470,77 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="20% - Accent6" xfId="2" builtinId="50"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="140">
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
+  <dxfs count="252">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
         <top/>
         <bottom style="medium">
           <color indexed="64"/>
@@ -527,23 +672,23 @@
     <dxf>
       <border outline="0">
         <bottom style="medium">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <left style="medium">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </left>
         <right style="medium">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </right>
         <top style="medium">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
         <bottom style="medium">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -579,19 +724,23 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -714,23 +863,23 @@
     <dxf>
       <border outline="0">
         <bottom style="medium">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <left style="medium">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </left>
         <right style="medium">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </right>
         <top style="medium">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
         <bottom style="medium">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -766,19 +915,23 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -901,23 +1054,23 @@
     <dxf>
       <border outline="0">
         <bottom style="medium">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <left style="medium">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </left>
         <right style="medium">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </right>
         <top style="medium">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
         <bottom style="medium">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -938,21 +1091,38 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -966,6 +1136,7 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -1088,23 +1259,23 @@
     <dxf>
       <border outline="0">
         <bottom style="medium">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <left style="medium">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </left>
         <right style="medium">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </right>
         <top style="medium">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
         <bottom style="medium">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -1140,19 +1311,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -1275,23 +1434,23 @@
     <dxf>
       <border outline="0">
         <bottom style="medium">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <left style="medium">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </left>
         <right style="medium">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </right>
         <top style="medium">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
         <bottom style="medium">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -1327,6 +1486,7 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -1340,6 +1500,7 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -1462,28 +1623,1526 @@
     <dxf>
       <border outline="0">
         <bottom style="medium">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <left style="medium">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </left>
         <right style="medium">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </right>
         <top style="medium">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
         <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2260,257 +3919,478 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37DD9F5D-BB06-4F4A-A00B-282828D54D99}" name="Table1" displayName="Table1" ref="A4:J8" totalsRowShown="0" headerRowDxfId="139" dataDxfId="137" headerRowBorderDxfId="138" tableBorderDxfId="136">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37DD9F5D-BB06-4F4A-A00B-282828D54D99}" name="Table1" displayName="Table1" ref="A4:J8" totalsRowShown="0" headerRowDxfId="251" dataDxfId="249" headerRowBorderDxfId="250" tableBorderDxfId="248">
   <autoFilter ref="A4:J8" xr:uid="{BC795D6B-2F1C-47F6-8F18-33268A9CC9F1}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{E5515606-2037-4B6A-8617-CBCDF1229F01}" name="Team" dataDxfId="135"/>
-    <tableColumn id="2" xr3:uid="{10A68795-626B-42DC-B49A-FD75B99E01BE}" name="Pld" dataDxfId="134"/>
-    <tableColumn id="3" xr3:uid="{F7E8A3F1-00A8-4BBD-B466-3D98C675F780}" name="W" dataDxfId="133"/>
-    <tableColumn id="4" xr3:uid="{B873FC21-EFFE-4BE9-A0FD-A9A6CCC1136E}" name="D" dataDxfId="132"/>
-    <tableColumn id="5" xr3:uid="{D8085B16-9001-486C-BF61-7F8FACFCD9EA}" name="L" dataDxfId="131"/>
-    <tableColumn id="6" xr3:uid="{8FC55B80-E358-4E81-A5A5-25A059389447}" name="Gf" dataDxfId="130"/>
-    <tableColumn id="7" xr3:uid="{9E0CD136-A8D7-407B-97E4-282312DD8258}" name="Ga" dataDxfId="129"/>
-    <tableColumn id="8" xr3:uid="{EAC447C9-9771-48E1-92F7-A574EA0846A3}" name="Gol diff" dataDxfId="128">
+    <tableColumn id="1" xr3:uid="{E5515606-2037-4B6A-8617-CBCDF1229F01}" name="Team" dataDxfId="247"/>
+    <tableColumn id="2" xr3:uid="{10A68795-626B-42DC-B49A-FD75B99E01BE}" name="Pld" dataDxfId="246"/>
+    <tableColumn id="3" xr3:uid="{F7E8A3F1-00A8-4BBD-B466-3D98C675F780}" name="W" dataDxfId="245"/>
+    <tableColumn id="4" xr3:uid="{B873FC21-EFFE-4BE9-A0FD-A9A6CCC1136E}" name="D" dataDxfId="244"/>
+    <tableColumn id="5" xr3:uid="{D8085B16-9001-486C-BF61-7F8FACFCD9EA}" name="L" dataDxfId="243"/>
+    <tableColumn id="6" xr3:uid="{8FC55B80-E358-4E81-A5A5-25A059389447}" name="Gf" dataDxfId="242"/>
+    <tableColumn id="7" xr3:uid="{9E0CD136-A8D7-407B-97E4-282312DD8258}" name="Ga" dataDxfId="241"/>
+    <tableColumn id="8" xr3:uid="{EAC447C9-9771-48E1-92F7-A574EA0846A3}" name="Gol diff" dataDxfId="240">
       <calculatedColumnFormula>Table1[[#This Row],[Gf]]-Table1[[#This Row],[Ga]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{349AEB50-3040-4A46-A562-63EA28D841E5}" name="Pts" dataDxfId="127">
+    <tableColumn id="9" xr3:uid="{349AEB50-3040-4A46-A562-63EA28D841E5}" name="Pts" dataDxfId="239">
       <calculatedColumnFormula>Table1[[#This Row],[W]]*3 +Table1[[#This Row],[D]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{7093C39A-0F03-42F6-B889-8F402787A1DA}" name="standing" dataDxfId="126"/>
+    <tableColumn id="10" xr3:uid="{7093C39A-0F03-42F6-B889-8F402787A1DA}" name="standing" dataDxfId="238"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{C28DF6E5-3DEC-4A83-82EB-9A37FD4EB408}" name="Table134567891011" displayName="Table134567891011" ref="A157:J161" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{C28DF6E5-3DEC-4A83-82EB-9A37FD4EB408}" name="Table134567891011" displayName="Table134567891011" ref="A157:J161" totalsRowShown="0" headerRowDxfId="125" dataDxfId="123" headerRowBorderDxfId="124" tableBorderDxfId="122">
   <autoFilter ref="A157:J161" xr:uid="{51B33392-C805-4288-B1EC-5276D016038D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A158:J161">
     <sortCondition descending="1" ref="I138:I142"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4650D630-D419-4944-AA45-ACBCD35F4677}" name="Team" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{B374D251-ECC0-4E76-9F40-036C912535B0}" name="Pld" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{D4602AFC-0F9F-4ECA-933F-F9BEFE4A94AA}" name="W" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{948CDDA7-791B-48F7-91CA-7EAE2E1C1D4F}" name="D" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{DDD34473-689A-4E23-A89D-F522904C55B1}" name="L" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{1F7496ED-1AD7-4D71-9536-F028997BDE1C}" name="Gf" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{8D620ACC-8FA7-4E4A-A403-2B9E7E427B3C}" name="Ga" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{0FCB95CC-92C3-4B68-8F51-97F207159946}" name="Gol diff" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{4650D630-D419-4944-AA45-ACBCD35F4677}" name="Team" dataDxfId="121"/>
+    <tableColumn id="2" xr3:uid="{B374D251-ECC0-4E76-9F40-036C912535B0}" name="Pld" dataDxfId="120"/>
+    <tableColumn id="3" xr3:uid="{D4602AFC-0F9F-4ECA-933F-F9BEFE4A94AA}" name="W" dataDxfId="119"/>
+    <tableColumn id="4" xr3:uid="{948CDDA7-791B-48F7-91CA-7EAE2E1C1D4F}" name="D" dataDxfId="118"/>
+    <tableColumn id="5" xr3:uid="{DDD34473-689A-4E23-A89D-F522904C55B1}" name="L" dataDxfId="117"/>
+    <tableColumn id="6" xr3:uid="{1F7496ED-1AD7-4D71-9536-F028997BDE1C}" name="Gf" dataDxfId="116"/>
+    <tableColumn id="7" xr3:uid="{8D620ACC-8FA7-4E4A-A403-2B9E7E427B3C}" name="Ga" dataDxfId="115"/>
+    <tableColumn id="8" xr3:uid="{0FCB95CC-92C3-4B68-8F51-97F207159946}" name="Gol diff" dataDxfId="114">
       <calculatedColumnFormula>Table134567891011[[#This Row],[Gf]]-Table134567891011[[#This Row],[Ga]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E3908FA1-1905-47E7-B547-823FD0C9288E}" name="Pts" dataDxfId="1">
+    <tableColumn id="9" xr3:uid="{E3908FA1-1905-47E7-B547-823FD0C9288E}" name="Pts" dataDxfId="113">
       <calculatedColumnFormula>Table134567891011[[#This Row],[W]]*3+Table134567891011[[#This Row],[D]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{A76E9F0B-4892-4292-BE7A-CCE3604FD650}" name="standing" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{A76E9F0B-4892-4292-BE7A-CCE3604FD650}" name="standing" dataDxfId="112"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5DAC64F2-482A-4F60-B2E6-57E3462A63AB}" name="Table112" displayName="Table112" ref="A4:J8" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110" headerRowBorderDxfId="108" tableBorderDxfId="109">
+  <autoFilter ref="A4:J8" xr:uid="{BC795D6B-2F1C-47F6-8F18-33268A9CC9F1}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{1C1597CE-0872-426C-A38F-F6E20E5BDA9B}" name="Team" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{D989D56A-D480-4AB9-A837-0F4B8E79619B}" name="Pld" dataDxfId="106">
+      <calculatedColumnFormula>Table112[[#This Row],[W]]+Table112[[#This Row],[D]]+Table112[[#This Row],[L]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{4B94F231-7626-46CD-B777-3355F4CDD428}" name="W" dataDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{63C5C51F-67B5-4D72-A3B3-FCBEE2E13676}" name="D" dataDxfId="104"/>
+    <tableColumn id="5" xr3:uid="{C5EA15B6-D163-4B3C-A274-04677DA8CDB6}" name="L" dataDxfId="103"/>
+    <tableColumn id="6" xr3:uid="{DF2E18D6-1895-417D-B191-7AA6291103A8}" name="Gf" dataDxfId="102"/>
+    <tableColumn id="7" xr3:uid="{1C19AB81-231F-4980-BFF9-57864953A42F}" name="Ga" dataDxfId="101"/>
+    <tableColumn id="8" xr3:uid="{8B5156C6-0B72-46D6-9FE7-A58C60C467F0}" name="Gol diff" dataDxfId="100">
+      <calculatedColumnFormula>Table112[[#This Row],[Gf]]-Table112[[#This Row],[Ga]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{354089E8-7545-441C-A838-1A4DDCA0F667}" name="Pts" dataDxfId="99">
+      <calculatedColumnFormula>Table112[[#This Row],[W]]*3 +Table112[[#This Row],[D]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{887BE387-0217-46D5-BC0E-6FB33448F771}" name="standing" dataDxfId="98"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{42D67862-79ED-479F-8F79-FE739ACC47A6}" name="Table1313" displayName="Table1313" ref="A16:J20" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96" headerRowBorderDxfId="94" tableBorderDxfId="95">
+  <autoFilter ref="A16:J20" xr:uid="{F45FC70F-D0BA-437A-947E-C9142BE306D9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:J20">
+    <sortCondition ref="J16:J20"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{680E05DB-6CD0-438F-A300-B3F86C962CC5}" name="Team" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{1BD107C3-331C-446B-A2EF-444F1A6439E9}" name="Pld" dataDxfId="92">
+      <calculatedColumnFormula>Table1313[[#This Row],[W]]+Table1313[[#This Row],[D]]+Table1313[[#This Row],[L]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{65B5B7EA-F2D9-4979-B16F-0CD75E7D02E7}" name="W" dataDxfId="91"/>
+    <tableColumn id="4" xr3:uid="{77882A3B-8990-43C7-A42B-869B8B842382}" name="D" dataDxfId="90"/>
+    <tableColumn id="5" xr3:uid="{64093928-E0CD-4E1D-8651-43388608C55D}" name="L" dataDxfId="89"/>
+    <tableColumn id="6" xr3:uid="{53F62282-2132-4A1F-97D1-50331A137421}" name="Gf" dataDxfId="88"/>
+    <tableColumn id="7" xr3:uid="{50ADC421-ED8D-41EE-B736-E96704190707}" name="Ga" dataDxfId="87"/>
+    <tableColumn id="8" xr3:uid="{BE4DEE6D-3A10-4F88-B2C8-81FF30BAFFCD}" name="Gdiff" dataDxfId="85">
+      <calculatedColumnFormula>Table1313[[#This Row],[Gf]]-Table1313[[#This Row],[Ga]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{1C50E053-B86A-4F72-8204-F3939237E64C}" name="Pts" dataDxfId="84">
+      <calculatedColumnFormula>Table1313[[#This Row],[W]]*3 +Table1313[[#This Row],[D]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{EDBE8A7B-0A76-42F5-842B-8B9E0179C4FA}" name="standing" dataDxfId="86"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{F7FC4540-FC00-4812-9477-02B7EC1A2995}" name="Table131322" displayName="Table131322" ref="A36:J40" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82" headerRowBorderDxfId="80" tableBorderDxfId="81">
+  <autoFilter ref="A36:J40" xr:uid="{F7FC4540-FC00-4812-9477-02B7EC1A2995}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A37:J40">
+    <sortCondition descending="1" ref="I36:I40"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{43D37D6D-1802-41B4-BA61-5803452403C6}" name="Team" dataDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{8948A072-78E3-4BFA-B2FA-E460FEEABA21}" name="Pld" dataDxfId="78">
+      <calculatedColumnFormula>Table131322[[#This Row],[W]]+Table131322[[#This Row],[D]]+Table131322[[#This Row],[L]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{18D78855-2E82-4F78-A2C1-6DC2691964ED}" name="W" dataDxfId="77"/>
+    <tableColumn id="4" xr3:uid="{F1433F4C-C36D-48AD-ADD2-F815342F598C}" name="D" dataDxfId="76"/>
+    <tableColumn id="5" xr3:uid="{220D8A94-11F4-4199-A185-F39754BC2353}" name="L" dataDxfId="75"/>
+    <tableColumn id="6" xr3:uid="{59266E75-A54D-4D03-997B-B797F91852E5}" name="Gf" dataDxfId="74"/>
+    <tableColumn id="7" xr3:uid="{7F91E1C0-204D-4D53-B9DE-B308187401F2}" name="Ga" dataDxfId="73"/>
+    <tableColumn id="8" xr3:uid="{12294049-750B-4C09-A3B3-73C2753AB000}" name="Gdiff" dataDxfId="72">
+      <calculatedColumnFormula>Table131322[[#This Row],[Gf]]-Table131322[[#This Row],[Ga]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{AF2429B7-023C-4C93-8C02-6E9B4FF08D25}" name="Pts" dataDxfId="71">
+      <calculatedColumnFormula>Table131322[[#This Row],[W]]*3 +Table131322[[#This Row],[D]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{85C644BF-7C53-4A08-A7B8-B44D6D3AFEF6}" name="standing" dataDxfId="70"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{22FF6538-CC86-418E-B1DE-3E36EFBA775E}" name="Table13132223" displayName="Table13132223" ref="A56:J60" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68" headerRowBorderDxfId="66" tableBorderDxfId="67">
+  <autoFilter ref="A56:J60" xr:uid="{22FF6538-CC86-418E-B1DE-3E36EFBA775E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A57:J60">
+    <sortCondition descending="1" ref="I56:I60"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{F6BB4EA8-A372-44CE-862F-170E0DBF86AD}" name="Team" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{31B5A2B8-AFA7-474B-A96D-D222A7AD65EE}" name="Pld" dataDxfId="64">
+      <calculatedColumnFormula>Table13132223[[#This Row],[W]]+Table13132223[[#This Row],[D]]+Table13132223[[#This Row],[L]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{8884AFE5-6E5B-453C-A987-20C52D5A02C9}" name="W" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{28FBA300-8692-453D-9E92-EBC45D96C0C0}" name="D" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{909058A9-CCA9-487D-A799-6C96FE67D13E}" name="L" dataDxfId="61"/>
+    <tableColumn id="6" xr3:uid="{2249E664-4753-4ED5-8CDB-7612EBF6E63E}" name="Gf" dataDxfId="60"/>
+    <tableColumn id="7" xr3:uid="{37E06E47-9E49-4796-BF4E-D8886B34F9CF}" name="Ga" dataDxfId="59"/>
+    <tableColumn id="8" xr3:uid="{8A1209D2-9A3F-4A39-ABC8-D2FDB4C06340}" name="Gdiff" dataDxfId="58">
+      <calculatedColumnFormula>Table13132223[[#This Row],[Gf]]-Table13132223[[#This Row],[Ga]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{0F05A3D5-A8C1-41DF-893B-DDBF37ECE10F}" name="Pts" dataDxfId="42">
+      <calculatedColumnFormula>Table13132223[[#This Row],[W]]*3 +Table13132223[[#This Row],[D]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{A6D6D8A3-678C-42C3-B57B-19022693F9D4}" name="standing" dataDxfId="57"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{29BF89AB-144B-4A0A-9387-A5F123012BAE}" name="Table1313222324" displayName="Table1313222324" ref="A76:J80" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55" headerRowBorderDxfId="53" tableBorderDxfId="54">
+  <autoFilter ref="A76:J80" xr:uid="{29BF89AB-144B-4A0A-9387-A5F123012BAE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A77:J80">
+    <sortCondition descending="1" ref="I76:I80"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{8EA01C16-AF42-498A-994D-8496F6203CBC}" name="Team" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{4E5F4474-38D4-4A4E-9401-6F3B144FD616}" name="Pld" dataDxfId="51">
+      <calculatedColumnFormula>Table1313222324[[#This Row],[W]]+Table1313222324[[#This Row],[D]]+Table1313222324[[#This Row],[L]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{7642B2A0-1BD7-4435-BADC-1922F8CB68BB}" name="W" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{BBF9072F-9465-4854-A352-F6DA5F075E34}" name="D" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{B73EBBCC-7426-41D2-B6F5-078406CB95D1}" name="L" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{E0A61D53-4B25-4F3F-897B-46BC5963DFF1}" name="Gf" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{AEBA596B-4A39-4B12-B3E4-335AE00D9578}" name="Ga" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{D9E7F5E3-BBB4-477E-8169-0B7632E87F46}" name="Gdiff" dataDxfId="45">
+      <calculatedColumnFormula>Table1313222324[[#This Row],[Gf]]-Table1313222324[[#This Row],[Ga]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{5767D4FF-341D-4BE8-A0B0-408235BD1244}" name="Pts" dataDxfId="44">
+      <calculatedColumnFormula>Table1313222324[[#This Row],[W]]*3 +Table1313222324[[#This Row],[D]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{336D6720-DC09-483A-8B75-8F218FF55BC5}" name="standing" dataDxfId="43"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{FCD1AF56-6E6A-4078-93BD-0AF7A4861C58}" name="Table131322232425" displayName="Table131322232425" ref="A96:J100" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40" headerRowBorderDxfId="38" tableBorderDxfId="39">
+  <autoFilter ref="A96:J100" xr:uid="{FCD1AF56-6E6A-4078-93BD-0AF7A4861C58}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A97:J100">
+    <sortCondition descending="1" ref="I96:I100"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{21568EB9-38AC-475F-AB46-A6491614F31A}" name="Team" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{01EB9FA4-70F8-42A0-93F3-266B102B166F}" name="Pld" dataDxfId="36">
+      <calculatedColumnFormula>Table131322232425[[#This Row],[W]]+Table131322232425[[#This Row],[D]]+Table131322232425[[#This Row],[L]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{9AAF6D03-6B5A-4C75-886E-32239F2914F0}" name="W" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{2E03B5A1-F116-4168-90D3-D933562D740E}" name="D" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{E38E9870-9F72-46D9-A9FB-CE0D4A056ED3}" name="L" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{4044388C-D5EE-418E-8F68-C914DC2B60F4}" name="Gf" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{49F04251-3029-4E6B-8DCD-D9B10A050C06}" name="Ga" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{7CB5569B-CD86-4A93-B7AB-8ECE8BE51BFA}" name="Gdiff" dataDxfId="30">
+      <calculatedColumnFormula>Table131322232425[[#This Row],[Gf]]-Table131322232425[[#This Row],[Ga]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{D968F557-8575-4604-A264-F61C6C597331}" name="Pts" dataDxfId="29">
+      <calculatedColumnFormula>Table131322232425[[#This Row],[W]]*3 +Table131322232425[[#This Row],[D]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{174A68FA-BF5D-4C92-B529-45E6DACC48A6}" name="standing" dataDxfId="28"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{A7593144-B244-422D-9189-96C0EA9952B7}" name="Table13132223242526" displayName="Table13132223242526" ref="A116:J120" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
+  <autoFilter ref="A116:J120" xr:uid="{A7593144-B244-422D-9189-96C0EA9952B7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A117:J120">
+    <sortCondition ref="J116:J120"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{20612054-7301-4874-A04B-ED327FC79A22}" name="Team" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{7996FA84-8099-40A2-B67A-8A4DEA941519}" name="Pld" dataDxfId="22">
+      <calculatedColumnFormula>Table13132223242526[[#This Row],[W]]+Table13132223242526[[#This Row],[D]]+Table13132223242526[[#This Row],[L]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{E3D4A02F-3CAB-4384-88E2-6A372823F42C}" name="W" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{F9614837-2FF6-4AE4-A895-FA4CA73AD33F}" name="D" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{A8C5AAFE-986C-4626-8AB5-34FA9BF352DF}" name="L" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{17A19112-5172-4948-BE39-16E9143BF488}" name="Gf" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{A544A5C0-2026-4D7B-B45D-1D2B73D3DED7}" name="Ga" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{9F9DE7AD-C5F2-4CA7-AB17-BA3607411633}" name="Gdiff" dataDxfId="16">
+      <calculatedColumnFormula>Table13132223242526[[#This Row],[Gf]]-Table13132223242526[[#This Row],[Ga]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{B3718D41-3885-4A07-A722-9F75EDBBD6DE}" name="Pts" dataDxfId="15">
+      <calculatedColumnFormula>Table13132223242526[[#This Row],[W]]*3 +Table13132223242526[[#This Row],[D]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{DB14A884-A088-4F8E-B851-BEB5BDDE1E28}" name="standing" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{1EA6E568-C5D5-4C93-B6EB-4A9940A7F7F0}" name="Table1313222324252627" displayName="Table1313222324252627" ref="A136:J140" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="A136:J140" xr:uid="{1EA6E568-C5D5-4C93-B6EB-4A9940A7F7F0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A137:J140">
+    <sortCondition descending="1" ref="I136:I140"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{D0893EB2-7319-40B5-B304-F0B25E44B2D2}" name="Team" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{C7E49AD9-256C-4443-81ED-46823797C0F2}" name="Pld" dataDxfId="7">
+      <calculatedColumnFormula>Table1313222324252627[[#This Row],[W]]+Table1313222324252627[[#This Row],[D]]+Table1313222324252627[[#This Row],[L]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{997409DA-E747-410D-AFA7-2BE3F39DA595}" name="W" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{386EBF43-8572-4D48-82E1-CAE4D773C0BA}" name="D" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{E4252821-D32C-4387-9090-3606C2DEA559}" name="L" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{DB76B39E-5324-45E0-A84D-B9228BCAD22B}" name="Gf" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{D87DDE79-AFE9-4431-A152-2D3EEC4D9442}" name="Ga" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{D6BB033B-1B3C-4636-8CB7-FE5CC3FB0AFB}" name="Gdiff" dataDxfId="1">
+      <calculatedColumnFormula>Table1313222324252627[[#This Row],[Gf]]-Table1313222324252627[[#This Row],[Ga]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{E32C3238-E5A7-4BFE-904E-127C98827E93}" name="Pts" dataDxfId="0">
+      <calculatedColumnFormula>Table1313222324252627[[#This Row],[W]]*3 +Table1313222324252627[[#This Row],[D]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{25A29D01-00FE-4BB4-AEA2-C52BDD18564E}" name="standing" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{213931E2-046B-4D50-B1BC-9EA32FBD7106}" name="Table13" displayName="Table13" ref="A13:J17" totalsRowShown="0" headerRowDxfId="125" dataDxfId="123" headerRowBorderDxfId="124" tableBorderDxfId="122">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{213931E2-046B-4D50-B1BC-9EA32FBD7106}" name="Table13" displayName="Table13" ref="A13:J17" totalsRowShown="0" headerRowDxfId="237" dataDxfId="235" headerRowBorderDxfId="236" tableBorderDxfId="234">
   <autoFilter ref="A13:J17" xr:uid="{F45FC70F-D0BA-437A-947E-C9142BE306D9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:J17">
     <sortCondition descending="1" ref="F13:F17"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{40609DCB-899A-490F-B919-F406994D67FF}" name="Team" dataDxfId="121"/>
-    <tableColumn id="2" xr3:uid="{86F70E68-869E-40CE-B55C-78702053B792}" name="Pld" dataDxfId="120"/>
-    <tableColumn id="3" xr3:uid="{8491058D-D181-4D58-BF55-64CC8008982F}" name="W" dataDxfId="119"/>
-    <tableColumn id="4" xr3:uid="{5657CFB3-3E43-475E-BC35-D56E6A3AE142}" name="D" dataDxfId="118"/>
-    <tableColumn id="5" xr3:uid="{31D07873-88A4-45C4-961F-6F24BC8BA25E}" name="L" dataDxfId="117"/>
-    <tableColumn id="6" xr3:uid="{620D0413-AE72-4EE7-BCBD-BD42D3964211}" name="Gf" dataDxfId="116"/>
-    <tableColumn id="7" xr3:uid="{3D4E7C3E-88F6-440B-9D6B-0A7569BE5458}" name="Ga" dataDxfId="115"/>
-    <tableColumn id="8" xr3:uid="{AD7BDB99-74A6-4145-9DD2-E89E84D1CABB}" name="Gol diff" dataDxfId="114">
+    <tableColumn id="1" xr3:uid="{40609DCB-899A-490F-B919-F406994D67FF}" name="Team" dataDxfId="233"/>
+    <tableColumn id="2" xr3:uid="{86F70E68-869E-40CE-B55C-78702053B792}" name="Pld" dataDxfId="232"/>
+    <tableColumn id="3" xr3:uid="{8491058D-D181-4D58-BF55-64CC8008982F}" name="W" dataDxfId="231"/>
+    <tableColumn id="4" xr3:uid="{5657CFB3-3E43-475E-BC35-D56E6A3AE142}" name="D" dataDxfId="230"/>
+    <tableColumn id="5" xr3:uid="{31D07873-88A4-45C4-961F-6F24BC8BA25E}" name="L" dataDxfId="229"/>
+    <tableColumn id="6" xr3:uid="{620D0413-AE72-4EE7-BCBD-BD42D3964211}" name="Gf" dataDxfId="228"/>
+    <tableColumn id="7" xr3:uid="{3D4E7C3E-88F6-440B-9D6B-0A7569BE5458}" name="Ga" dataDxfId="227"/>
+    <tableColumn id="8" xr3:uid="{AD7BDB99-74A6-4145-9DD2-E89E84D1CABB}" name="Gol diff" dataDxfId="226">
       <calculatedColumnFormula>Table13[[#This Row],[Gf]]-Table13[[#This Row],[Ga]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9F831F12-61E6-4DCE-8B57-7EA804884F55}" name="Pts" dataDxfId="113">
+    <tableColumn id="9" xr3:uid="{9F831F12-61E6-4DCE-8B57-7EA804884F55}" name="Pts" dataDxfId="225">
       <calculatedColumnFormula>Table13[[#This Row],[W]]*3+Table13[[#This Row],[D]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{DF1F272F-A38F-4439-A720-FEEDEC2B3D3E}" name="standing" dataDxfId="112"/>
+    <tableColumn id="10" xr3:uid="{DF1F272F-A38F-4439-A720-FEEDEC2B3D3E}" name="standing" dataDxfId="224"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BA6B27BB-F728-4459-B034-787139599CC1}" name="Table134" displayName="Table134" ref="A30:J34" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BA6B27BB-F728-4459-B034-787139599CC1}" name="Table134" displayName="Table134" ref="A30:J34" totalsRowShown="0" headerRowDxfId="223" dataDxfId="221" headerRowBorderDxfId="222" tableBorderDxfId="220">
   <autoFilter ref="A30:J34" xr:uid="{D94111E6-929E-4302-873E-C2C002DDEE39}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A31:J34">
     <sortCondition descending="1" ref="I30:I34"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{AACA4D58-2859-4B86-9C55-90D3256ABCF5}" name="Team" dataDxfId="107"/>
-    <tableColumn id="2" xr3:uid="{5ACE9E2D-6DDF-4E73-9488-58881D4CDFA5}" name="Pld" dataDxfId="106"/>
-    <tableColumn id="3" xr3:uid="{03A1DB3D-BFB7-4348-B77E-79652BB04CDE}" name="W" dataDxfId="105"/>
-    <tableColumn id="4" xr3:uid="{FC5FCFEE-CE62-4D69-977F-810688FA8FBE}" name="D" dataDxfId="104"/>
-    <tableColumn id="5" xr3:uid="{59E1B49B-A2D7-427E-83E6-FFBD50419473}" name="L" dataDxfId="103"/>
-    <tableColumn id="6" xr3:uid="{2BFA0A07-5D65-4D47-AFA8-D8D899924011}" name="Gf" dataDxfId="102"/>
-    <tableColumn id="7" xr3:uid="{C4D01548-DACC-4187-9617-38946AB705C1}" name="Ga" dataDxfId="101"/>
-    <tableColumn id="8" xr3:uid="{9FF75BA3-F499-478C-B4A1-575137BE5F49}" name="Gol diff" dataDxfId="100">
+    <tableColumn id="1" xr3:uid="{AACA4D58-2859-4B86-9C55-90D3256ABCF5}" name="Team" dataDxfId="219"/>
+    <tableColumn id="2" xr3:uid="{5ACE9E2D-6DDF-4E73-9488-58881D4CDFA5}" name="Pld" dataDxfId="218"/>
+    <tableColumn id="3" xr3:uid="{03A1DB3D-BFB7-4348-B77E-79652BB04CDE}" name="W" dataDxfId="217"/>
+    <tableColumn id="4" xr3:uid="{FC5FCFEE-CE62-4D69-977F-810688FA8FBE}" name="D" dataDxfId="216"/>
+    <tableColumn id="5" xr3:uid="{59E1B49B-A2D7-427E-83E6-FFBD50419473}" name="L" dataDxfId="215"/>
+    <tableColumn id="6" xr3:uid="{2BFA0A07-5D65-4D47-AFA8-D8D899924011}" name="Gf" dataDxfId="214"/>
+    <tableColumn id="7" xr3:uid="{C4D01548-DACC-4187-9617-38946AB705C1}" name="Ga" dataDxfId="213"/>
+    <tableColumn id="8" xr3:uid="{9FF75BA3-F499-478C-B4A1-575137BE5F49}" name="Gol diff" dataDxfId="212">
       <calculatedColumnFormula>Table134[[#This Row],[Gf]]-Table134[[#This Row],[Ga]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{38926F34-D78F-4459-B400-637CF9D07A20}" name="Pts" dataDxfId="99">
+    <tableColumn id="9" xr3:uid="{38926F34-D78F-4459-B400-637CF9D07A20}" name="Pts" dataDxfId="211">
       <calculatedColumnFormula>Table134[[#This Row],[W]]*3+Table134[[#This Row],[D]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3CBE9B7E-AF05-4073-8983-D059B176CB3E}" name="standing" dataDxfId="98"/>
+    <tableColumn id="10" xr3:uid="{3CBE9B7E-AF05-4073-8983-D059B176CB3E}" name="standing" dataDxfId="210"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{992F3B31-AC27-4AD4-B319-866DA305739C}" name="Table1345" displayName="Table1345" ref="A47:J51" totalsRowShown="0" headerRowDxfId="97" dataDxfId="95" headerRowBorderDxfId="96" tableBorderDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{992F3B31-AC27-4AD4-B319-866DA305739C}" name="Table1345" displayName="Table1345" ref="A47:J51" totalsRowShown="0" headerRowDxfId="209" dataDxfId="207" headerRowBorderDxfId="208" tableBorderDxfId="206">
   <autoFilter ref="A47:J51" xr:uid="{8D9D481B-80FF-4FFC-9FEF-56D468DEA86E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A48:J51">
     <sortCondition ref="J47:J51"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{0809FFCB-7E03-4EF1-9142-AB5EB5A59A10}" name="Team" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{C7BB9E5B-3631-4CBC-9621-9CBDA80DEC79}" name="Pld" dataDxfId="92"/>
-    <tableColumn id="3" xr3:uid="{8A4FCD39-B750-4E35-9C90-06F2DBE74B27}" name="W" dataDxfId="91"/>
-    <tableColumn id="4" xr3:uid="{184B9BED-BB71-45D3-9C06-97DA23C518D5}" name="D" dataDxfId="90"/>
-    <tableColumn id="5" xr3:uid="{1F4C8ED6-E009-420E-A19B-A2AC11D8ABDF}" name="L" dataDxfId="89"/>
-    <tableColumn id="6" xr3:uid="{6297FC45-24C2-48EC-BE37-F61ABBF986D4}" name="Gf" dataDxfId="88"/>
-    <tableColumn id="7" xr3:uid="{172E6122-396C-4D18-9DF1-A45536BA00AE}" name="Ga" dataDxfId="87"/>
-    <tableColumn id="8" xr3:uid="{2F231F29-C84E-459C-94BC-CD72FCCC70D7}" name="Gol diff" dataDxfId="86">
+    <tableColumn id="1" xr3:uid="{0809FFCB-7E03-4EF1-9142-AB5EB5A59A10}" name="Team" dataDxfId="205"/>
+    <tableColumn id="2" xr3:uid="{C7BB9E5B-3631-4CBC-9621-9CBDA80DEC79}" name="Pld" dataDxfId="204"/>
+    <tableColumn id="3" xr3:uid="{8A4FCD39-B750-4E35-9C90-06F2DBE74B27}" name="W" dataDxfId="203"/>
+    <tableColumn id="4" xr3:uid="{184B9BED-BB71-45D3-9C06-97DA23C518D5}" name="D" dataDxfId="202"/>
+    <tableColumn id="5" xr3:uid="{1F4C8ED6-E009-420E-A19B-A2AC11D8ABDF}" name="L" dataDxfId="201"/>
+    <tableColumn id="6" xr3:uid="{6297FC45-24C2-48EC-BE37-F61ABBF986D4}" name="Gf" dataDxfId="200"/>
+    <tableColumn id="7" xr3:uid="{172E6122-396C-4D18-9DF1-A45536BA00AE}" name="Ga" dataDxfId="199"/>
+    <tableColumn id="8" xr3:uid="{2F231F29-C84E-459C-94BC-CD72FCCC70D7}" name="Gol diff" dataDxfId="198">
       <calculatedColumnFormula>Table1345[[#This Row],[Gf]]-Table1345[[#This Row],[Ga]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{CAA5F8B6-CE02-47F5-BA72-B6F315676857}" name="Pts" dataDxfId="85">
+    <tableColumn id="9" xr3:uid="{CAA5F8B6-CE02-47F5-BA72-B6F315676857}" name="Pts" dataDxfId="197">
       <calculatedColumnFormula>Table1345[[#This Row],[W]]*3+Table1345[[#This Row],[D]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{78725F90-2692-4B76-AA99-3FD5E4E4E249}" name="standing" dataDxfId="84"/>
+    <tableColumn id="10" xr3:uid="{78725F90-2692-4B76-AA99-3FD5E4E4E249}" name="standing" dataDxfId="196"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ED4CB53C-A3D1-4CF4-A163-AF8F49478C9E}" name="Table13456" displayName="Table13456" ref="A64:J68" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82" headerRowBorderDxfId="80" tableBorderDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ED4CB53C-A3D1-4CF4-A163-AF8F49478C9E}" name="Table13456" displayName="Table13456" ref="A64:J68" totalsRowShown="0" headerRowDxfId="195" dataDxfId="193" headerRowBorderDxfId="194" tableBorderDxfId="192">
   <autoFilter ref="A64:J68" xr:uid="{85A02BED-98DD-4BFA-858D-898F632F9CC9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A65:J68">
     <sortCondition descending="1" ref="I64:I68"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{0E6EF2D5-407B-430C-99F7-918980E2D4A5}" name="Team" dataDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{7A623A54-EABB-4093-9830-140F1F9F3010}" name="Pld" dataDxfId="78"/>
-    <tableColumn id="3" xr3:uid="{CCF1A964-79A2-4FAA-AB50-03C4B327F628}" name="W" dataDxfId="77"/>
-    <tableColumn id="4" xr3:uid="{5AA597C6-64E3-45FA-A23F-40C68EAB3292}" name="D" dataDxfId="76"/>
-    <tableColumn id="5" xr3:uid="{E2CFB5CC-E60C-49C0-B786-4275DD07A1DB}" name="L" dataDxfId="75"/>
-    <tableColumn id="6" xr3:uid="{4CE22E1E-8561-4C60-827D-D42728B39F5D}" name="Gf" dataDxfId="74"/>
-    <tableColumn id="7" xr3:uid="{E70B4381-D450-4D46-B53A-E4DB4E0BBCB4}" name="Ga" dataDxfId="73"/>
-    <tableColumn id="8" xr3:uid="{9241A45D-6A91-4B6D-82D7-7AEC2EEE0546}" name="Gol diff" dataDxfId="72">
+    <tableColumn id="1" xr3:uid="{0E6EF2D5-407B-430C-99F7-918980E2D4A5}" name="Team" dataDxfId="191"/>
+    <tableColumn id="2" xr3:uid="{7A623A54-EABB-4093-9830-140F1F9F3010}" name="Pld" dataDxfId="190"/>
+    <tableColumn id="3" xr3:uid="{CCF1A964-79A2-4FAA-AB50-03C4B327F628}" name="W" dataDxfId="189"/>
+    <tableColumn id="4" xr3:uid="{5AA597C6-64E3-45FA-A23F-40C68EAB3292}" name="D" dataDxfId="188"/>
+    <tableColumn id="5" xr3:uid="{E2CFB5CC-E60C-49C0-B786-4275DD07A1DB}" name="L" dataDxfId="187"/>
+    <tableColumn id="6" xr3:uid="{4CE22E1E-8561-4C60-827D-D42728B39F5D}" name="Gf" dataDxfId="186"/>
+    <tableColumn id="7" xr3:uid="{E70B4381-D450-4D46-B53A-E4DB4E0BBCB4}" name="Ga" dataDxfId="185"/>
+    <tableColumn id="8" xr3:uid="{9241A45D-6A91-4B6D-82D7-7AEC2EEE0546}" name="Gol diff" dataDxfId="184">
       <calculatedColumnFormula>Table13456[[#This Row],[Gf]]-Table13456[[#This Row],[Ga]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{6608B9AA-E974-4673-AECB-E5800D03469D}" name="Pts" dataDxfId="71">
+    <tableColumn id="9" xr3:uid="{6608B9AA-E974-4673-AECB-E5800D03469D}" name="Pts" dataDxfId="183">
       <calculatedColumnFormula>Table13456[[#This Row],[W]]*3+Table13456[[#This Row],[D]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{CFDA3926-B052-4A57-92C9-6D1729E41E9D}" name="standing" dataDxfId="70"/>
+    <tableColumn id="10" xr3:uid="{CFDA3926-B052-4A57-92C9-6D1729E41E9D}" name="standing" dataDxfId="182"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{274EA4A4-943F-4626-86DB-BBC6AA392DAA}" name="Table134567" displayName="Table134567" ref="A83:J87" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68" headerRowBorderDxfId="66" tableBorderDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{274EA4A4-943F-4626-86DB-BBC6AA392DAA}" name="Table134567" displayName="Table134567" ref="A83:J87" totalsRowShown="0" headerRowDxfId="181" dataDxfId="179" headerRowBorderDxfId="180" tableBorderDxfId="178">
   <autoFilter ref="A83:J87" xr:uid="{65578200-1A94-44DB-BD8D-4043ECE21CCC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A84:J87">
     <sortCondition descending="1" ref="I83:I87"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{DC7ADC1B-3189-4199-AC6F-5A54B248F671}" name="Team" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{011E4CF5-70C9-464D-B9AA-62C4A2F91AB1}" name="Pld" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{48DD37B4-4CA5-47AF-8E3B-12F918326BB5}" name="W" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{6743486D-8A57-4E2F-B746-B5CB0B274549}" name="D" dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{6699B371-E405-490D-A70E-C1B33AB41147}" name="L" dataDxfId="61"/>
-    <tableColumn id="6" xr3:uid="{19BB3956-F3F2-4908-AF3A-F142009A9409}" name="Gf" dataDxfId="60"/>
-    <tableColumn id="7" xr3:uid="{FB8BA8D0-8109-40F3-9331-889CC1510258}" name="Ga" dataDxfId="59"/>
-    <tableColumn id="8" xr3:uid="{242C6C10-5906-40D6-A146-D82F29C7A7ED}" name="Gol diff" dataDxfId="58">
+    <tableColumn id="1" xr3:uid="{DC7ADC1B-3189-4199-AC6F-5A54B248F671}" name="Team" dataDxfId="177"/>
+    <tableColumn id="2" xr3:uid="{011E4CF5-70C9-464D-B9AA-62C4A2F91AB1}" name="Pld" dataDxfId="176"/>
+    <tableColumn id="3" xr3:uid="{48DD37B4-4CA5-47AF-8E3B-12F918326BB5}" name="W" dataDxfId="175"/>
+    <tableColumn id="4" xr3:uid="{6743486D-8A57-4E2F-B746-B5CB0B274549}" name="D" dataDxfId="174"/>
+    <tableColumn id="5" xr3:uid="{6699B371-E405-490D-A70E-C1B33AB41147}" name="L" dataDxfId="173"/>
+    <tableColumn id="6" xr3:uid="{19BB3956-F3F2-4908-AF3A-F142009A9409}" name="Gf" dataDxfId="172"/>
+    <tableColumn id="7" xr3:uid="{FB8BA8D0-8109-40F3-9331-889CC1510258}" name="Ga" dataDxfId="171"/>
+    <tableColumn id="8" xr3:uid="{242C6C10-5906-40D6-A146-D82F29C7A7ED}" name="Gol diff" dataDxfId="170">
       <calculatedColumnFormula>Table134567[[#This Row],[Gf]]-Table134567[[#This Row],[Ga]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{BC606EBC-B9F3-4AB6-96E7-12A275A481E0}" name="Pts" dataDxfId="57">
+    <tableColumn id="9" xr3:uid="{BC606EBC-B9F3-4AB6-96E7-12A275A481E0}" name="Pts" dataDxfId="169">
       <calculatedColumnFormula>Table134567[[#This Row],[W]]*3+Table134567[[#This Row],[D]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{AC98B3FC-A240-42E6-BE10-AE24DF19D9D9}" name="standing" dataDxfId="56"/>
+    <tableColumn id="10" xr3:uid="{AC98B3FC-A240-42E6-BE10-AE24DF19D9D9}" name="standing" dataDxfId="168"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7A220181-563D-4AFC-84EE-D86B04BF5ABC}" name="Table1345678" displayName="Table1345678" ref="A101:J105" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" headerRowBorderDxfId="52" tableBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7A220181-563D-4AFC-84EE-D86B04BF5ABC}" name="Table1345678" displayName="Table1345678" ref="A101:J105" totalsRowShown="0" headerRowDxfId="167" dataDxfId="165" headerRowBorderDxfId="166" tableBorderDxfId="164">
   <autoFilter ref="A101:J105" xr:uid="{1176C14F-7866-4163-B4B9-78F54400357D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A102:J105">
     <sortCondition descending="1" ref="I101:I105"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{A6B6DFF9-76A4-49D1-B70F-F6C073D49B01}" name="Team" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{19626A11-57B0-43CB-AB04-21BFF2C9B911}" name="Pld" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{4836A7D3-EE98-481F-B75E-F0784E25A81C}" name="W" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{6F80E711-160B-47F2-B39C-9713A741F98A}" name="D" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{A03521C3-D9DA-49C9-9AC6-14A9A5ADE3E5}" name="L" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{3090505B-54D3-41BE-8E18-324A0DBF2CB0}" name="Gf" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{D4015E11-21C0-463B-BB04-FBAB1219FB60}" name="Ga" dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{339260C8-9237-446E-8695-7274D2315A3C}" name="Gol diff" dataDxfId="44">
+    <tableColumn id="1" xr3:uid="{A6B6DFF9-76A4-49D1-B70F-F6C073D49B01}" name="Team" dataDxfId="163"/>
+    <tableColumn id="2" xr3:uid="{19626A11-57B0-43CB-AB04-21BFF2C9B911}" name="Pld" dataDxfId="162"/>
+    <tableColumn id="3" xr3:uid="{4836A7D3-EE98-481F-B75E-F0784E25A81C}" name="W" dataDxfId="161"/>
+    <tableColumn id="4" xr3:uid="{6F80E711-160B-47F2-B39C-9713A741F98A}" name="D" dataDxfId="160"/>
+    <tableColumn id="5" xr3:uid="{A03521C3-D9DA-49C9-9AC6-14A9A5ADE3E5}" name="L" dataDxfId="159"/>
+    <tableColumn id="6" xr3:uid="{3090505B-54D3-41BE-8E18-324A0DBF2CB0}" name="Gf" dataDxfId="158"/>
+    <tableColumn id="7" xr3:uid="{D4015E11-21C0-463B-BB04-FBAB1219FB60}" name="Ga" dataDxfId="157"/>
+    <tableColumn id="8" xr3:uid="{339260C8-9237-446E-8695-7274D2315A3C}" name="Gol diff" dataDxfId="156">
       <calculatedColumnFormula>Table1345678[[#This Row],[Gf]]-Table1345678[[#This Row],[Ga]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{5ECC5703-806D-43DB-AD97-3C6DBD0B8B88}" name="Pts" dataDxfId="43">
+    <tableColumn id="9" xr3:uid="{5ECC5703-806D-43DB-AD97-3C6DBD0B8B88}" name="Pts" dataDxfId="155">
       <calculatedColumnFormula>Table1345678[[#This Row],[W]]*3+Table1345678[[#This Row],[D]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{C1844325-637D-4158-A627-12A5FCD48AF2}" name="standing" dataDxfId="42"/>
+    <tableColumn id="10" xr3:uid="{C1844325-637D-4158-A627-12A5FCD48AF2}" name="standing" dataDxfId="154"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{426AE4FE-D527-49C0-8EEB-AF0AECD02DB9}" name="Table13456789" displayName="Table13456789" ref="A119:J123" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40" headerRowBorderDxfId="38" tableBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{426AE4FE-D527-49C0-8EEB-AF0AECD02DB9}" name="Table13456789" displayName="Table13456789" ref="A119:J123" totalsRowShown="0" headerRowDxfId="153" dataDxfId="151" headerRowBorderDxfId="152" tableBorderDxfId="150">
   <autoFilter ref="A119:J123" xr:uid="{FD43E83C-6E6B-4285-8EE0-562E9B8ACF03}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A120:J123">
     <sortCondition descending="1" ref="I119:I123"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{0528957F-C3FA-47DD-8F67-6AA20EA377F4}" name="Team" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{49CF2CC8-169B-4649-BEA7-6A04B57383B5}" name="Pld" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{5CB04D0C-A801-47EF-9965-D7E5ABF97EBF}" name="W" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{B367C2CF-E9C1-4F55-8611-E2E1D47D8FE8}" name="D" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{9AB6D479-F7CE-4D48-87FA-7690E64FF19B}" name="L" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{642FFE7D-D006-472A-96A6-F4997D95B31E}" name="Gf" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{5E8B763E-A589-4DB3-B10F-D90FCD6D310A}" name="Ga" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{DDD2BF03-5755-4A02-AE9C-1C500C23F396}" name="Gol diff" dataDxfId="30">
+    <tableColumn id="1" xr3:uid="{0528957F-C3FA-47DD-8F67-6AA20EA377F4}" name="Team" dataDxfId="149"/>
+    <tableColumn id="2" xr3:uid="{49CF2CC8-169B-4649-BEA7-6A04B57383B5}" name="Pld" dataDxfId="148"/>
+    <tableColumn id="3" xr3:uid="{5CB04D0C-A801-47EF-9965-D7E5ABF97EBF}" name="W" dataDxfId="147"/>
+    <tableColumn id="4" xr3:uid="{B367C2CF-E9C1-4F55-8611-E2E1D47D8FE8}" name="D" dataDxfId="146"/>
+    <tableColumn id="5" xr3:uid="{9AB6D479-F7CE-4D48-87FA-7690E64FF19B}" name="L" dataDxfId="145"/>
+    <tableColumn id="6" xr3:uid="{642FFE7D-D006-472A-96A6-F4997D95B31E}" name="Gf" dataDxfId="144"/>
+    <tableColumn id="7" xr3:uid="{5E8B763E-A589-4DB3-B10F-D90FCD6D310A}" name="Ga" dataDxfId="143"/>
+    <tableColumn id="8" xr3:uid="{DDD2BF03-5755-4A02-AE9C-1C500C23F396}" name="Gol diff" dataDxfId="142">
       <calculatedColumnFormula>Table13456789[[#This Row],[Gf]]-Table13456789[[#This Row],[Ga]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{5A4F9FA1-1B88-43C9-BC0C-94DD1032EBC7}" name="Pts" dataDxfId="29">
+    <tableColumn id="9" xr3:uid="{5A4F9FA1-1B88-43C9-BC0C-94DD1032EBC7}" name="Pts" dataDxfId="141">
       <calculatedColumnFormula>Table13456789[[#This Row],[W]]*3+Table13456789[[#This Row],[D]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{ACEA6582-8291-43E2-A17C-C530DFA4E342}" name="standing" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{ACEA6582-8291-43E2-A17C-C530DFA4E342}" name="standing" dataDxfId="140"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1D97256C-FA52-4474-B96B-0C7989B74B6C}" name="Table1345678910" displayName="Table1345678910" ref="A138:J142" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1D97256C-FA52-4474-B96B-0C7989B74B6C}" name="Table1345678910" displayName="Table1345678910" ref="A138:J142" totalsRowShown="0" headerRowDxfId="139" dataDxfId="137" headerRowBorderDxfId="138" tableBorderDxfId="136">
   <autoFilter ref="A138:J142" xr:uid="{0DB1C75A-57C9-48C0-9706-0E77CA5619D4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A139:J142">
     <sortCondition descending="1" ref="I138:I142"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7BCB9264-2F90-4032-86B0-DB193E224E1B}" name="Team" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{2D0DD818-FBBD-4DB4-BA9B-7FA06915592F}" name="Pld" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{6AED3B7F-1B9D-4F2D-BB6B-8DFBDBD4D26A}" name="W" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{959ACFAF-0D81-43BB-9013-F9F7413C9787}" name="D" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{BAA9EEFF-43AD-4354-A1C0-9E19BB3DEC9C}" name="L" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{3D3E85EA-D0A6-4207-97C4-56220FC600A3}" name="Gf" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{1BCC0E71-9F98-4774-925E-83671D59E9D9}" name="Ga" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{AC8A64B9-EEB0-45B1-A6E7-D2AC712156D1}" name="Gol diff" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{7BCB9264-2F90-4032-86B0-DB193E224E1B}" name="Team" dataDxfId="135"/>
+    <tableColumn id="2" xr3:uid="{2D0DD818-FBBD-4DB4-BA9B-7FA06915592F}" name="Pld" dataDxfId="134"/>
+    <tableColumn id="3" xr3:uid="{6AED3B7F-1B9D-4F2D-BB6B-8DFBDBD4D26A}" name="W" dataDxfId="133"/>
+    <tableColumn id="4" xr3:uid="{959ACFAF-0D81-43BB-9013-F9F7413C9787}" name="D" dataDxfId="132"/>
+    <tableColumn id="5" xr3:uid="{BAA9EEFF-43AD-4354-A1C0-9E19BB3DEC9C}" name="L" dataDxfId="131"/>
+    <tableColumn id="6" xr3:uid="{3D3E85EA-D0A6-4207-97C4-56220FC600A3}" name="Gf" dataDxfId="130"/>
+    <tableColumn id="7" xr3:uid="{1BCC0E71-9F98-4774-925E-83671D59E9D9}" name="Ga" dataDxfId="129"/>
+    <tableColumn id="8" xr3:uid="{AC8A64B9-EEB0-45B1-A6E7-D2AC712156D1}" name="Gol diff" dataDxfId="128">
       <calculatedColumnFormula>Table1345678910[[#This Row],[Gf]]-Table1345678910[[#This Row],[Ga]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0FCD2C89-7D9E-4631-8300-E5AA7AD351AC}" name="Pts" dataDxfId="15">
+    <tableColumn id="9" xr3:uid="{0FCD2C89-7D9E-4631-8300-E5AA7AD351AC}" name="Pts" dataDxfId="127">
       <calculatedColumnFormula>Table1345678910[[#This Row],[W]]*3+Table1345678910[[#This Row],[D]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{62329440-1E66-4EBB-BC5B-7504B31DD99C}" name="standing" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{62329440-1E66-4EBB-BC5B-7504B31DD99C}" name="standing" dataDxfId="126"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2781,27 +4661,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="F167" sqref="F167"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -2833,7 +4713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -2867,7 +4747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -2901,7 +4781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -2935,7 +4815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
@@ -2969,17 +4849,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>2</v>
       </c>
@@ -3011,7 +4891,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -3045,7 +4925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -3079,7 +4959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
@@ -3113,7 +4993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
@@ -3147,8 +5027,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>2</v>
       </c>
@@ -3168,7 +5048,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>11</v>
       </c>
@@ -3189,7 +5069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>14</v>
       </c>
@@ -3213,7 +5093,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>12</v>
       </c>
@@ -3234,7 +5114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>13</v>
       </c>
@@ -3255,26 +5135,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="13">
         <f>SUM(B21:B24)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>2</v>
       </c>
@@ -3306,7 +5186,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>11</v>
       </c>
@@ -3340,7 +5220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>14</v>
       </c>
@@ -3377,7 +5257,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>12</v>
       </c>
@@ -3411,7 +5291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>13</v>
       </c>
@@ -3445,8 +5325,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>2</v>
       </c>
@@ -3466,7 +5346,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>11</v>
       </c>
@@ -3487,7 +5367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>14</v>
       </c>
@@ -3508,7 +5388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>12</v>
       </c>
@@ -3529,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>13</v>
       </c>
@@ -3550,26 +5430,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="13">
         <f>SUM(B38:B41)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>2</v>
       </c>
@@ -3601,7 +5481,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>11</v>
       </c>
@@ -3635,7 +5515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>12</v>
       </c>
@@ -3669,7 +5549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>14</v>
       </c>
@@ -3706,7 +5586,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>13</v>
       </c>
@@ -3740,8 +5620,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="54" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>2</v>
       </c>
@@ -3761,7 +5641,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>11</v>
       </c>
@@ -3782,7 +5662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>14</v>
       </c>
@@ -3803,7 +5683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>12</v>
       </c>
@@ -3824,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>13</v>
       </c>
@@ -3845,26 +5725,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B59" s="14">
+      <c r="B59" s="13">
         <f>SUM(B55:B58)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>2</v>
       </c>
@@ -3896,7 +5776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>12</v>
       </c>
@@ -3930,7 +5810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>11</v>
       </c>
@@ -3964,7 +5844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>14</v>
       </c>
@@ -3998,7 +5878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>13</v>
       </c>
@@ -4032,8 +5912,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="71" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>2</v>
       </c>
@@ -4053,7 +5933,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>11</v>
       </c>
@@ -4074,7 +5954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>14</v>
       </c>
@@ -4098,7 +5978,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>12</v>
       </c>
@@ -4119,7 +5999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>13</v>
       </c>
@@ -4140,26 +6020,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B76" s="14">
+      <c r="B76" s="13">
         <f>SUM(B72:B75)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>2</v>
       </c>
@@ -4191,7 +6071,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>12</v>
       </c>
@@ -4221,11 +6101,11 @@
         <f>Table134567[[#This Row],[W]]*3+Table134567[[#This Row],[D]]</f>
         <v>6</v>
       </c>
-      <c r="J84" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J84" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>11</v>
       </c>
@@ -4255,11 +6135,11 @@
         <f>Table134567[[#This Row],[W]]*3+Table134567[[#This Row],[D]]</f>
         <v>4</v>
       </c>
-      <c r="J85" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J85" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>13</v>
       </c>
@@ -4293,7 +6173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>14</v>
       </c>
@@ -4327,8 +6207,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
         <v>2</v>
       </c>
@@ -4348,7 +6228,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
         <v>11</v>
       </c>
@@ -4369,7 +6249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>14</v>
       </c>
@@ -4393,7 +6273,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>12</v>
       </c>
@@ -4414,7 +6294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>13</v>
       </c>
@@ -4435,26 +6315,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B95" s="14">
+      <c r="B95" s="13">
         <f>SUM(B91:B94)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>2</v>
       </c>
@@ -4486,7 +6366,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>12</v>
       </c>
@@ -4516,11 +6396,11 @@
         <f>Table1345678[[#This Row],[W]]*3+Table1345678[[#This Row],[D]]</f>
         <v>6</v>
       </c>
-      <c r="J102" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J102" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>13</v>
       </c>
@@ -4554,7 +6434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>11</v>
       </c>
@@ -4588,7 +6468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>14</v>
       </c>
@@ -4618,12 +6498,12 @@
         <f>Table1345678[[#This Row],[W]]*3+Table1345678[[#This Row],[D]]</f>
         <v>2</v>
       </c>
-      <c r="J105" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="108" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J105" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="108" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
         <v>2</v>
       </c>
@@ -4643,7 +6523,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
         <v>11</v>
       </c>
@@ -4664,7 +6544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
         <v>14</v>
       </c>
@@ -4685,7 +6565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>12</v>
       </c>
@@ -4706,7 +6586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>13</v>
       </c>
@@ -4727,26 +6607,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B113" s="14">
+      <c r="B113" s="13">
         <f>SUM(B109:B112)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>2</v>
       </c>
@@ -4778,7 +6658,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>12</v>
       </c>
@@ -4808,11 +6688,11 @@
         <f>Table13456789[[#This Row],[W]]*3+Table13456789[[#This Row],[D]]</f>
         <v>6</v>
       </c>
-      <c r="J120" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J120" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
         <v>11</v>
       </c>
@@ -4846,7 +6726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>13</v>
       </c>
@@ -4880,7 +6760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>14</v>
       </c>
@@ -4910,12 +6790,12 @@
         <f>Table13456789[[#This Row],[W]]*3+Table13456789[[#This Row],[D]]</f>
         <v>2</v>
       </c>
-      <c r="J123" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="126" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J123" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="126" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
         <v>2</v>
       </c>
@@ -4935,7 +6815,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
         <v>11</v>
       </c>
@@ -4956,7 +6836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
         <v>14</v>
       </c>
@@ -4977,7 +6857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
         <v>12</v>
       </c>
@@ -4998,7 +6878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
         <v>13</v>
       </c>
@@ -5019,26 +6899,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B131" s="14">
+      <c r="B131" s="13">
         <f>SUM(B127:B130)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>2</v>
       </c>
@@ -5070,7 +6950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>12</v>
       </c>
@@ -5100,11 +6980,11 @@
         <f>Table1345678910[[#This Row],[W]]*3+Table1345678910[[#This Row],[D]]</f>
         <v>6</v>
       </c>
-      <c r="J139" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J139" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>11</v>
       </c>
@@ -5138,7 +7018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
         <v>14</v>
       </c>
@@ -5172,7 +7052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>13</v>
       </c>
@@ -5206,8 +7086,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="145" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="145" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="8" t="s">
         <v>2</v>
       </c>
@@ -5227,7 +7107,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>11</v>
       </c>
@@ -5248,7 +7128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>14</v>
       </c>
@@ -5269,7 +7149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>12</v>
       </c>
@@ -5290,7 +7170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>13</v>
       </c>
@@ -5311,26 +7191,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B150" s="14">
+      <c r="B150" s="13">
         <f>SUM(B146:B149)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
         <v>2</v>
       </c>
@@ -5362,7 +7242,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
         <v>12</v>
       </c>
@@ -5392,11 +7272,11 @@
         <f>Table134567891011[[#This Row],[W]]*3+Table134567891011[[#This Row],[D]]</f>
         <v>6</v>
       </c>
-      <c r="J158" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J158" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
         <v>11</v>
       </c>
@@ -5426,11 +7306,11 @@
         <f>Table134567891011[[#This Row],[W]]*3+Table134567891011[[#This Row],[D]]</f>
         <v>4</v>
       </c>
-      <c r="J159" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J159" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>14</v>
       </c>
@@ -5460,11 +7340,11 @@
         <f>Table134567891011[[#This Row],[W]]*3+Table134567891011[[#This Row],[D]]</f>
         <v>4</v>
       </c>
-      <c r="J160" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J160" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
         <v>13</v>
       </c>
@@ -5494,12 +7374,12 @@
         <f>Table134567891011[[#This Row],[W]]*3+Table134567891011[[#This Row],[D]]</f>
         <v>3</v>
       </c>
-      <c r="J161" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="164" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J161" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="164" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="8" t="s">
         <v>2</v>
       </c>
@@ -5519,7 +7399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="9" t="s">
         <v>11</v>
       </c>
@@ -5540,7 +7420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
         <v>14</v>
       </c>
@@ -5561,7 +7441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
         <v>12</v>
       </c>
@@ -5582,7 +7462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
         <v>13</v>
       </c>
@@ -5603,11 +7483,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B169" s="14">
+      <c r="B169" s="13">
         <f>SUM(B165:B168)</f>
         <v>15</v>
       </c>
@@ -5628,4 +7508,2351 @@
     <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6B9524-7474-4E0A-8662-F151FF23C2C5}">
+  <dimension ref="A1:L148"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="4">
+        <f>Table112[[#This Row],[W]]+Table112[[#This Row],[D]]+Table112[[#This Row],[L]]</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <f>Table112[[#This Row],[Gf]]-Table112[[#This Row],[Ga]]</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <f>Table112[[#This Row],[W]]*3 +Table112[[#This Row],[D]]</f>
+        <v>4</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4">
+        <f>Table112[[#This Row],[W]]+Table112[[#This Row],[D]]+Table112[[#This Row],[L]]</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3</v>
+      </c>
+      <c r="H6" s="4">
+        <f>Table112[[#This Row],[Gf]]-Table112[[#This Row],[Ga]]</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="16">
+        <f>Table112[[#This Row],[W]]*3 +Table112[[#This Row],[D]]</f>
+        <v>3</v>
+      </c>
+      <c r="J6" s="6">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="4">
+        <f>Table112[[#This Row],[W]]+Table112[[#This Row],[D]]+Table112[[#This Row],[L]]</f>
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4">
+        <v>4</v>
+      </c>
+      <c r="H7" s="4">
+        <f>Table112[[#This Row],[Gf]]-Table112[[#This Row],[Ga]]</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="16">
+        <f>Table112[[#This Row],[W]]*3 +Table112[[#This Row],[D]]</f>
+        <v>3</v>
+      </c>
+      <c r="J7" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="4">
+        <f>Table112[[#This Row],[W]]+Table112[[#This Row],[D]]+Table112[[#This Row],[L]]</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>4</v>
+      </c>
+      <c r="H8" s="4">
+        <f>Table112[[#This Row],[Gf]]-Table112[[#This Row],[Ga]]</f>
+        <v>-3</v>
+      </c>
+      <c r="I8" s="5">
+        <f>Table112[[#This Row],[W]]*3 +Table112[[#This Row],[D]]</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="4">
+        <f>Table1313[[#This Row],[W]]+Table1313[[#This Row],[D]]+Table1313[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <f>Table1313[[#This Row],[Gf]]-Table1313[[#This Row],[Ga]]</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="5">
+        <f>Table1313[[#This Row],[W]]*3 +Table1313[[#This Row],[D]]</f>
+        <v>5</v>
+      </c>
+      <c r="J17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="4">
+        <f>Table1313[[#This Row],[W]]+Table1313[[#This Row],[D]]+Table1313[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>5</v>
+      </c>
+      <c r="G18" s="4">
+        <v>4</v>
+      </c>
+      <c r="H18" s="4">
+        <f>Table1313[[#This Row],[Gf]]-Table1313[[#This Row],[Ga]]</f>
+        <v>1</v>
+      </c>
+      <c r="I18" s="16">
+        <f>Table1313[[#This Row],[W]]*3 +Table1313[[#This Row],[D]]</f>
+        <v>4</v>
+      </c>
+      <c r="J18" s="13">
+        <v>2</v>
+      </c>
+      <c r="L18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="4">
+        <f>Table1313[[#This Row],[W]]+Table1313[[#This Row],[D]]+Table1313[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C19" s="17">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="17">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4">
+        <v>4</v>
+      </c>
+      <c r="H19" s="4">
+        <f>Table1313[[#This Row],[Gf]]-Table1313[[#This Row],[Ga]]</f>
+        <v>-2</v>
+      </c>
+      <c r="I19" s="16">
+        <f>Table1313[[#This Row],[W]]*3 +Table1313[[#This Row],[D]]</f>
+        <v>4</v>
+      </c>
+      <c r="J19" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="4">
+        <f>Table1313[[#This Row],[W]]+Table1313[[#This Row],[D]]+Table1313[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="17">
+        <v>2</v>
+      </c>
+      <c r="F20" s="6">
+        <v>4</v>
+      </c>
+      <c r="G20" s="17">
+        <v>4</v>
+      </c>
+      <c r="H20" s="4">
+        <f>Table1313[[#This Row],[Gf]]-Table1313[[#This Row],[Ga]]</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <f>Table1313[[#This Row],[W]]*3 +Table1313[[#This Row],[D]]</f>
+        <v>3</v>
+      </c>
+      <c r="J20" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="11">
+        <f>SUM(C24:F24)</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="11">
+        <f t="shared" ref="B25:B27" si="0">SUM(C25:F25)</f>
+        <v>1</v>
+      </c>
+      <c r="C25" s="11">
+        <v>0</v>
+      </c>
+      <c r="D25" s="11">
+        <v>0</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0</v>
+      </c>
+      <c r="F25" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C26" s="11">
+        <v>0</v>
+      </c>
+      <c r="D26" s="17">
+        <v>1</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0</v>
+      </c>
+      <c r="F26" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C27" s="11">
+        <v>0</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0</v>
+      </c>
+      <c r="E27" s="17">
+        <v>1</v>
+      </c>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="13">
+        <f>SUM(B24:B27)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="4">
+        <f>Table131322[[#This Row],[W]]+Table131322[[#This Row],[D]]+Table131322[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C37" s="17">
+        <v>2</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+      <c r="F37" s="17">
+        <v>6</v>
+      </c>
+      <c r="G37" s="4">
+        <v>4</v>
+      </c>
+      <c r="H37" s="4">
+        <f>Table131322[[#This Row],[Gf]]-Table131322[[#This Row],[Ga]]</f>
+        <v>2</v>
+      </c>
+      <c r="I37" s="5">
+        <f>Table131322[[#This Row],[W]]*3 +Table131322[[#This Row],[D]]</f>
+        <v>6</v>
+      </c>
+      <c r="J37" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="4">
+        <f>Table131322[[#This Row],[W]]+Table131322[[#This Row],[D]]+Table131322[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+      <c r="E38" s="17">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2</v>
+      </c>
+      <c r="G38" s="17">
+        <v>2</v>
+      </c>
+      <c r="H38" s="4">
+        <f>Table131322[[#This Row],[Gf]]-Table131322[[#This Row],[Ga]]</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="16">
+        <f>Table131322[[#This Row],[W]]*3 +Table131322[[#This Row],[D]]</f>
+        <v>4</v>
+      </c>
+      <c r="J38" s="13">
+        <v>2</v>
+      </c>
+      <c r="L38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="4">
+        <f>Table131322[[#This Row],[W]]+Table131322[[#This Row],[D]]+Table131322[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+      <c r="F39" s="4">
+        <v>2</v>
+      </c>
+      <c r="G39" s="4">
+        <v>4</v>
+      </c>
+      <c r="H39" s="4">
+        <f>Table131322[[#This Row],[Gf]]-Table131322[[#This Row],[Ga]]</f>
+        <v>-2</v>
+      </c>
+      <c r="I39" s="16">
+        <f>Table131322[[#This Row],[W]]*3 +Table131322[[#This Row],[D]]</f>
+        <v>4</v>
+      </c>
+      <c r="J39" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="4">
+        <f>Table131322[[#This Row],[W]]+Table131322[[#This Row],[D]]+Table131322[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C40" s="6">
+        <v>1</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6">
+        <v>2</v>
+      </c>
+      <c r="F40" s="6">
+        <v>4</v>
+      </c>
+      <c r="G40" s="6">
+        <v>4</v>
+      </c>
+      <c r="H40" s="4">
+        <f>Table131322[[#This Row],[Gf]]-Table131322[[#This Row],[Ga]]</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="5">
+        <f>Table131322[[#This Row],[W]]*3 +Table131322[[#This Row],[D]]</f>
+        <v>3</v>
+      </c>
+      <c r="J40" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="11">
+        <f>SUM(C44:F44)</f>
+        <v>1</v>
+      </c>
+      <c r="C44" s="11">
+        <v>0</v>
+      </c>
+      <c r="D44" s="17">
+        <v>1</v>
+      </c>
+      <c r="E44" s="11">
+        <v>0</v>
+      </c>
+      <c r="F44" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="11">
+        <f t="shared" ref="B45:B47" si="1">SUM(C45:F45)</f>
+        <v>1</v>
+      </c>
+      <c r="C45" s="11">
+        <v>0</v>
+      </c>
+      <c r="D45" s="11">
+        <v>0</v>
+      </c>
+      <c r="E45" s="11">
+        <v>0</v>
+      </c>
+      <c r="F45" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C46" s="17">
+        <v>1</v>
+      </c>
+      <c r="D46" s="11">
+        <v>1</v>
+      </c>
+      <c r="E46" s="11">
+        <v>0</v>
+      </c>
+      <c r="F46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C47" s="11">
+        <v>0</v>
+      </c>
+      <c r="D47" s="11">
+        <v>0</v>
+      </c>
+      <c r="E47" s="11">
+        <v>1</v>
+      </c>
+      <c r="F47" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="13">
+        <f>SUM(B44:B47)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="4">
+        <f>Table13132223[[#This Row],[W]]+Table13132223[[#This Row],[D]]+Table13132223[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C57" s="4">
+        <v>1</v>
+      </c>
+      <c r="D57" s="17">
+        <v>2</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="18">
+        <v>3</v>
+      </c>
+      <c r="G57" s="4">
+        <v>2</v>
+      </c>
+      <c r="H57" s="4">
+        <f>Table13132223[[#This Row],[Gf]]-Table13132223[[#This Row],[Ga]]</f>
+        <v>1</v>
+      </c>
+      <c r="I57" s="4">
+        <f>Table13132223[[#This Row],[W]]*3 +Table13132223[[#This Row],[D]]</f>
+        <v>5</v>
+      </c>
+      <c r="J57" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="4">
+        <f>Table13132223[[#This Row],[W]]+Table13132223[[#This Row],[D]]+Table13132223[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C58" s="4">
+        <v>1</v>
+      </c>
+      <c r="D58" s="17">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1</v>
+      </c>
+      <c r="F58" s="19">
+        <v>6</v>
+      </c>
+      <c r="G58" s="18">
+        <v>5</v>
+      </c>
+      <c r="H58" s="4">
+        <f>Table13132223[[#This Row],[Gf]]-Table13132223[[#This Row],[Ga]]</f>
+        <v>1</v>
+      </c>
+      <c r="I58" s="16">
+        <f>Table13132223[[#This Row],[W]]*3 +Table13132223[[#This Row],[D]]</f>
+        <v>4</v>
+      </c>
+      <c r="J58" s="13">
+        <v>2</v>
+      </c>
+      <c r="L58" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" s="4">
+        <f>Table13132223[[#This Row],[W]]+Table13132223[[#This Row],[D]]+Table13132223[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C59" s="4">
+        <v>1</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4">
+        <v>1</v>
+      </c>
+      <c r="F59" s="4">
+        <v>2</v>
+      </c>
+      <c r="G59" s="4">
+        <v>4</v>
+      </c>
+      <c r="H59" s="4">
+        <f>Table13132223[[#This Row],[Gf]]-Table13132223[[#This Row],[Ga]]</f>
+        <v>-2</v>
+      </c>
+      <c r="I59" s="16">
+        <f>Table13132223[[#This Row],[W]]*3 +Table13132223[[#This Row],[D]]</f>
+        <v>4</v>
+      </c>
+      <c r="J59" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="4">
+        <f>Table13132223[[#This Row],[W]]+Table13132223[[#This Row],[D]]+Table13132223[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C60" s="6">
+        <v>1</v>
+      </c>
+      <c r="D60" s="6">
+        <v>0</v>
+      </c>
+      <c r="E60" s="6">
+        <v>2</v>
+      </c>
+      <c r="F60" s="6">
+        <v>4</v>
+      </c>
+      <c r="G60" s="6">
+        <v>4</v>
+      </c>
+      <c r="H60" s="4">
+        <f>Table13132223[[#This Row],[Gf]]-Table13132223[[#This Row],[Ga]]</f>
+        <v>0</v>
+      </c>
+      <c r="I60" s="4">
+        <f>Table13132223[[#This Row],[W]]*3 +Table13132223[[#This Row],[D]]</f>
+        <v>3</v>
+      </c>
+      <c r="J60" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="11">
+        <f>SUM(C64:F64)</f>
+        <v>2</v>
+      </c>
+      <c r="C64" s="17">
+        <v>1</v>
+      </c>
+      <c r="D64" s="11">
+        <v>1</v>
+      </c>
+      <c r="E64" s="11">
+        <v>0</v>
+      </c>
+      <c r="F64" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="11">
+        <f t="shared" ref="B65:B67" si="2">SUM(C65:F65)</f>
+        <v>1</v>
+      </c>
+      <c r="C65" s="11">
+        <v>0</v>
+      </c>
+      <c r="D65" s="11">
+        <v>0</v>
+      </c>
+      <c r="E65" s="11">
+        <v>0</v>
+      </c>
+      <c r="F65" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" s="11">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C66" s="11">
+        <v>1</v>
+      </c>
+      <c r="D66" s="17">
+        <v>2</v>
+      </c>
+      <c r="E66" s="11">
+        <v>0</v>
+      </c>
+      <c r="F66" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" s="11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C67" s="11">
+        <v>0</v>
+      </c>
+      <c r="D67" s="11">
+        <v>0</v>
+      </c>
+      <c r="E67" s="11">
+        <v>1</v>
+      </c>
+      <c r="F67" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" s="13">
+        <f>SUM(B64:B67)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B77" s="4">
+        <f>Table1313222324[[#This Row],[W]]+Table1313222324[[#This Row],[D]]+Table1313222324[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C77" s="18">
+        <v>2</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0</v>
+      </c>
+      <c r="E77" s="19">
+        <v>1</v>
+      </c>
+      <c r="F77" s="18">
+        <v>7</v>
+      </c>
+      <c r="G77" s="19">
+        <v>5</v>
+      </c>
+      <c r="H77" s="4">
+        <f>Table1313222324[[#This Row],[Gf]]-Table1313222324[[#This Row],[Ga]]</f>
+        <v>2</v>
+      </c>
+      <c r="I77" s="5">
+        <f>Table1313222324[[#This Row],[W]]*3 +Table1313222324[[#This Row],[D]]</f>
+        <v>6</v>
+      </c>
+      <c r="J77" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B78" s="4">
+        <f>Table1313222324[[#This Row],[W]]+Table1313222324[[#This Row],[D]]+Table1313222324[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C78" s="19">
+        <v>1</v>
+      </c>
+      <c r="D78" s="4">
+        <v>1</v>
+      </c>
+      <c r="E78" s="18">
+        <v>1</v>
+      </c>
+      <c r="F78" s="19">
+        <v>3</v>
+      </c>
+      <c r="G78" s="18">
+        <v>3</v>
+      </c>
+      <c r="H78" s="4">
+        <f>Table1313222324[[#This Row],[Gf]]-Table1313222324[[#This Row],[Ga]]</f>
+        <v>0</v>
+      </c>
+      <c r="I78" s="16">
+        <f>Table1313222324[[#This Row],[W]]*3 +Table1313222324[[#This Row],[D]]</f>
+        <v>4</v>
+      </c>
+      <c r="J78" s="13">
+        <v>2</v>
+      </c>
+      <c r="L78" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B79" s="4">
+        <f>Table1313222324[[#This Row],[W]]+Table1313222324[[#This Row],[D]]+Table1313222324[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C79" s="4">
+        <v>1</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1</v>
+      </c>
+      <c r="E79" s="4">
+        <v>1</v>
+      </c>
+      <c r="F79" s="4">
+        <v>2</v>
+      </c>
+      <c r="G79" s="4">
+        <v>4</v>
+      </c>
+      <c r="H79" s="4">
+        <f>Table1313222324[[#This Row],[Gf]]-Table1313222324[[#This Row],[Ga]]</f>
+        <v>-2</v>
+      </c>
+      <c r="I79" s="16">
+        <f>Table1313222324[[#This Row],[W]]*3 +Table1313222324[[#This Row],[D]]</f>
+        <v>4</v>
+      </c>
+      <c r="J79" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" s="4">
+        <f>Table1313222324[[#This Row],[W]]+Table1313222324[[#This Row],[D]]+Table1313222324[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C80" s="6">
+        <v>1</v>
+      </c>
+      <c r="D80" s="6">
+        <v>0</v>
+      </c>
+      <c r="E80" s="6">
+        <v>2</v>
+      </c>
+      <c r="F80" s="6">
+        <v>4</v>
+      </c>
+      <c r="G80" s="6">
+        <v>4</v>
+      </c>
+      <c r="H80" s="4">
+        <f>Table1313222324[[#This Row],[Gf]]-Table1313222324[[#This Row],[Ga]]</f>
+        <v>0</v>
+      </c>
+      <c r="I80" s="5">
+        <f>Table1313222324[[#This Row],[W]]*3 +Table1313222324[[#This Row],[D]]</f>
+        <v>3</v>
+      </c>
+      <c r="J80" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B84" s="11">
+        <f>SUM(C84:F84)</f>
+        <v>3</v>
+      </c>
+      <c r="C84" s="11">
+        <v>1</v>
+      </c>
+      <c r="D84" s="20">
+        <v>2</v>
+      </c>
+      <c r="E84" s="11">
+        <v>0</v>
+      </c>
+      <c r="F84" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" s="11">
+        <f t="shared" ref="B85:B87" si="3">SUM(C85:F85)</f>
+        <v>1</v>
+      </c>
+      <c r="C85" s="11">
+        <v>0</v>
+      </c>
+      <c r="D85" s="11">
+        <v>0</v>
+      </c>
+      <c r="E85" s="11">
+        <v>0</v>
+      </c>
+      <c r="F85" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B86" s="11">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C86" s="20">
+        <v>2</v>
+      </c>
+      <c r="D86" s="11">
+        <v>2</v>
+      </c>
+      <c r="E86" s="11">
+        <v>0</v>
+      </c>
+      <c r="F86" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B87" s="11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C87" s="11">
+        <v>0</v>
+      </c>
+      <c r="D87" s="11">
+        <v>0</v>
+      </c>
+      <c r="E87" s="11">
+        <v>1</v>
+      </c>
+      <c r="F87" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" s="13">
+        <f>SUM(B84:B87)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B97" s="4">
+        <f>Table131322232425[[#This Row],[W]]+Table131322232425[[#This Row],[D]]+Table131322232425[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C97" s="4">
+        <v>2</v>
+      </c>
+      <c r="D97" s="4">
+        <v>0</v>
+      </c>
+      <c r="E97" s="4">
+        <v>1</v>
+      </c>
+      <c r="F97" s="4">
+        <v>7</v>
+      </c>
+      <c r="G97" s="4">
+        <v>5</v>
+      </c>
+      <c r="H97" s="4">
+        <f>Table131322232425[[#This Row],[Gf]]-Table131322232425[[#This Row],[Ga]]</f>
+        <v>2</v>
+      </c>
+      <c r="I97" s="4">
+        <f>Table131322232425[[#This Row],[W]]*3 +Table131322232425[[#This Row],[D]]</f>
+        <v>6</v>
+      </c>
+      <c r="J97" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B98" s="4">
+        <f>Table131322232425[[#This Row],[W]]+Table131322232425[[#This Row],[D]]+Table131322232425[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C98" s="4">
+        <v>1</v>
+      </c>
+      <c r="D98" s="4">
+        <v>1</v>
+      </c>
+      <c r="E98" s="4">
+        <v>1</v>
+      </c>
+      <c r="F98" s="4">
+        <v>3</v>
+      </c>
+      <c r="G98" s="4">
+        <v>3</v>
+      </c>
+      <c r="H98" s="4">
+        <f>Table131322232425[[#This Row],[Gf]]-Table131322232425[[#This Row],[Ga]]</f>
+        <v>0</v>
+      </c>
+      <c r="I98" s="16">
+        <f>Table131322232425[[#This Row],[W]]*3 +Table131322232425[[#This Row],[D]]</f>
+        <v>4</v>
+      </c>
+      <c r="J98" s="4">
+        <v>2</v>
+      </c>
+      <c r="L98" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" s="4">
+        <f>Table131322232425[[#This Row],[W]]+Table131322232425[[#This Row],[D]]+Table131322232425[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C99" s="4">
+        <v>1</v>
+      </c>
+      <c r="D99" s="17">
+        <v>1</v>
+      </c>
+      <c r="E99" s="4">
+        <v>1</v>
+      </c>
+      <c r="F99" s="18">
+        <v>5</v>
+      </c>
+      <c r="G99" s="19">
+        <v>4</v>
+      </c>
+      <c r="H99" s="4">
+        <f>Table131322232425[[#This Row],[Gf]]-Table131322232425[[#This Row],[Ga]]</f>
+        <v>1</v>
+      </c>
+      <c r="I99" s="16">
+        <f>Table131322232425[[#This Row],[W]]*3 +Table131322232425[[#This Row],[D]]</f>
+        <v>4</v>
+      </c>
+      <c r="J99" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B100" s="4">
+        <f>Table131322232425[[#This Row],[W]]+Table131322232425[[#This Row],[D]]+Table131322232425[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C100" s="4">
+        <v>0</v>
+      </c>
+      <c r="D100" s="17">
+        <v>2</v>
+      </c>
+      <c r="E100" s="4">
+        <v>1</v>
+      </c>
+      <c r="F100" s="19">
+        <v>2</v>
+      </c>
+      <c r="G100" s="18">
+        <v>5</v>
+      </c>
+      <c r="H100" s="4">
+        <f>Table131322232425[[#This Row],[Gf]]-Table131322232425[[#This Row],[Ga]]</f>
+        <v>-3</v>
+      </c>
+      <c r="I100" s="4">
+        <f>Table131322232425[[#This Row],[W]]*3 +Table131322232425[[#This Row],[D]]</f>
+        <v>2</v>
+      </c>
+      <c r="J100" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="103" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F103" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B104" s="11">
+        <f>SUM(C104:F104)</f>
+        <v>3</v>
+      </c>
+      <c r="C104" s="11">
+        <v>1</v>
+      </c>
+      <c r="D104" s="11">
+        <v>2</v>
+      </c>
+      <c r="E104" s="11">
+        <v>0</v>
+      </c>
+      <c r="F104" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105" s="11">
+        <f t="shared" ref="B105:B107" si="4">SUM(C105:F105)</f>
+        <v>2</v>
+      </c>
+      <c r="C105" s="11">
+        <v>0</v>
+      </c>
+      <c r="D105" s="11">
+        <v>0</v>
+      </c>
+      <c r="E105" s="17">
+        <v>1</v>
+      </c>
+      <c r="F105" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B106" s="11">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C106" s="11">
+        <v>2</v>
+      </c>
+      <c r="D106" s="11">
+        <v>2</v>
+      </c>
+      <c r="E106" s="11">
+        <v>0</v>
+      </c>
+      <c r="F106" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B107" s="11">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C107" s="11">
+        <v>0</v>
+      </c>
+      <c r="D107" s="11">
+        <v>0</v>
+      </c>
+      <c r="E107" s="11">
+        <v>1</v>
+      </c>
+      <c r="F107" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B108" s="13">
+        <f>SUM(B104:B107)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I116" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B117" s="4">
+        <f>Table13132223242526[[#This Row],[W]]+Table13132223242526[[#This Row],[D]]+Table13132223242526[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C117" s="4">
+        <v>2</v>
+      </c>
+      <c r="D117" s="4">
+        <v>0</v>
+      </c>
+      <c r="E117" s="4">
+        <v>1</v>
+      </c>
+      <c r="F117" s="4">
+        <v>7</v>
+      </c>
+      <c r="G117" s="4">
+        <v>5</v>
+      </c>
+      <c r="H117" s="4">
+        <f>Table13132223242526[[#This Row],[Gf]]-Table13132223242526[[#This Row],[Ga]]</f>
+        <v>2</v>
+      </c>
+      <c r="I117" s="4">
+        <f>Table13132223242526[[#This Row],[W]]*3 +Table13132223242526[[#This Row],[D]]</f>
+        <v>6</v>
+      </c>
+      <c r="J117" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B118" s="4">
+        <f>Table13132223242526[[#This Row],[W]]+Table13132223242526[[#This Row],[D]]+Table13132223242526[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C118" s="4">
+        <v>1</v>
+      </c>
+      <c r="D118" s="4">
+        <v>1</v>
+      </c>
+      <c r="E118" s="4">
+        <v>1</v>
+      </c>
+      <c r="F118" s="4">
+        <v>3</v>
+      </c>
+      <c r="G118" s="4">
+        <v>3</v>
+      </c>
+      <c r="H118" s="4">
+        <f>Table13132223242526[[#This Row],[Gf]]-Table13132223242526[[#This Row],[Ga]]</f>
+        <v>0</v>
+      </c>
+      <c r="I118" s="16">
+        <f>Table13132223242526[[#This Row],[W]]*3 +Table13132223242526[[#This Row],[D]]</f>
+        <v>4</v>
+      </c>
+      <c r="J118" s="4">
+        <v>2</v>
+      </c>
+      <c r="L118" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B119" s="4">
+        <f>Table13132223242526[[#This Row],[W]]+Table13132223242526[[#This Row],[D]]+Table13132223242526[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C119" s="18">
+        <v>1</v>
+      </c>
+      <c r="D119" s="4">
+        <v>1</v>
+      </c>
+      <c r="E119" s="19">
+        <v>1</v>
+      </c>
+      <c r="F119" s="18">
+        <v>3</v>
+      </c>
+      <c r="G119" s="19">
+        <v>5</v>
+      </c>
+      <c r="H119" s="4">
+        <f>Table13132223242526[[#This Row],[Gf]]-Table13132223242526[[#This Row],[Ga]]</f>
+        <v>-2</v>
+      </c>
+      <c r="I119" s="16">
+        <f>Table13132223242526[[#This Row],[W]]*3 +Table13132223242526[[#This Row],[D]]</f>
+        <v>4</v>
+      </c>
+      <c r="J119" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B120" s="4">
+        <f>Table13132223242526[[#This Row],[W]]+Table13132223242526[[#This Row],[D]]+Table13132223242526[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C120" s="19">
+        <v>1</v>
+      </c>
+      <c r="D120" s="4">
+        <v>0</v>
+      </c>
+      <c r="E120" s="18">
+        <v>2</v>
+      </c>
+      <c r="F120" s="19">
+        <v>5</v>
+      </c>
+      <c r="G120" s="18">
+        <v>5</v>
+      </c>
+      <c r="H120" s="4">
+        <f>Table13132223242526[[#This Row],[Gf]]-Table13132223242526[[#This Row],[Ga]]</f>
+        <v>0</v>
+      </c>
+      <c r="I120" s="4">
+        <f>Table13132223242526[[#This Row],[W]]*3 +Table13132223242526[[#This Row],[D]]</f>
+        <v>3</v>
+      </c>
+      <c r="J120" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F123" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B124" s="11">
+        <f>SUM(C124:F124)</f>
+        <v>3</v>
+      </c>
+      <c r="C124" s="11">
+        <v>1</v>
+      </c>
+      <c r="D124" s="11">
+        <v>2</v>
+      </c>
+      <c r="E124" s="11">
+        <v>0</v>
+      </c>
+      <c r="F124" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B125" s="11">
+        <f t="shared" ref="B125:B127" si="5">SUM(C125:F125)</f>
+        <v>3</v>
+      </c>
+      <c r="C125" s="11">
+        <v>0</v>
+      </c>
+      <c r="D125" s="11">
+        <v>0</v>
+      </c>
+      <c r="E125" s="11">
+        <v>1</v>
+      </c>
+      <c r="F125" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B126" s="11">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="C126" s="11">
+        <v>2</v>
+      </c>
+      <c r="D126" s="11">
+        <v>2</v>
+      </c>
+      <c r="E126" s="11">
+        <v>0</v>
+      </c>
+      <c r="F126" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B127" s="11">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="C127" s="11">
+        <v>0</v>
+      </c>
+      <c r="D127" s="11">
+        <v>0</v>
+      </c>
+      <c r="E127" s="17">
+        <v>2</v>
+      </c>
+      <c r="F127" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B128" s="13">
+        <f>SUM(B124:B127)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I136" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B137" s="4">
+        <f>Table1313222324252627[[#This Row],[W]]+Table1313222324252627[[#This Row],[D]]+Table1313222324252627[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C137" s="4">
+        <v>2</v>
+      </c>
+      <c r="D137" s="4">
+        <v>0</v>
+      </c>
+      <c r="E137" s="4">
+        <v>1</v>
+      </c>
+      <c r="F137" s="4">
+        <v>7</v>
+      </c>
+      <c r="G137" s="4">
+        <v>5</v>
+      </c>
+      <c r="H137" s="4">
+        <f>Table1313222324252627[[#This Row],[Gf]]-Table1313222324252627[[#This Row],[Ga]]</f>
+        <v>2</v>
+      </c>
+      <c r="I137" s="4">
+        <f>Table1313222324252627[[#This Row],[W]]*3 +Table1313222324252627[[#This Row],[D]]</f>
+        <v>6</v>
+      </c>
+      <c r="J137" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B138" s="4">
+        <f>Table1313222324252627[[#This Row],[W]]+Table1313222324252627[[#This Row],[D]]+Table1313222324252627[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C138" s="4">
+        <v>1</v>
+      </c>
+      <c r="D138" s="4">
+        <v>1</v>
+      </c>
+      <c r="E138" s="4">
+        <v>1</v>
+      </c>
+      <c r="F138" s="4">
+        <v>3</v>
+      </c>
+      <c r="G138" s="4">
+        <v>3</v>
+      </c>
+      <c r="H138" s="4">
+        <f>Table1313222324252627[[#This Row],[Gf]]-Table1313222324252627[[#This Row],[Ga]]</f>
+        <v>0</v>
+      </c>
+      <c r="I138" s="16">
+        <f>Table1313222324252627[[#This Row],[W]]*3 +Table1313222324252627[[#This Row],[D]]</f>
+        <v>4</v>
+      </c>
+      <c r="J138" s="4">
+        <v>2</v>
+      </c>
+      <c r="L138" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B139" s="4">
+        <f>Table1313222324252627[[#This Row],[W]]+Table1313222324252627[[#This Row],[D]]+Table1313222324252627[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C139" s="4">
+        <v>1</v>
+      </c>
+      <c r="D139" s="17">
+        <v>1</v>
+      </c>
+      <c r="E139" s="4">
+        <v>1</v>
+      </c>
+      <c r="F139" s="17">
+        <v>5</v>
+      </c>
+      <c r="G139" s="4">
+        <v>5</v>
+      </c>
+      <c r="H139" s="4">
+        <f>Table1313222324252627[[#This Row],[Gf]]-Table1313222324252627[[#This Row],[Ga]]</f>
+        <v>0</v>
+      </c>
+      <c r="I139" s="16">
+        <f>Table1313222324252627[[#This Row],[W]]*3 +Table1313222324252627[[#This Row],[D]]</f>
+        <v>4</v>
+      </c>
+      <c r="J139" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B140" s="4">
+        <f>Table1313222324252627[[#This Row],[W]]+Table1313222324252627[[#This Row],[D]]+Table1313222324252627[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C140" s="4">
+        <v>0</v>
+      </c>
+      <c r="D140" s="17">
+        <v>2</v>
+      </c>
+      <c r="E140" s="4">
+        <v>1</v>
+      </c>
+      <c r="F140" s="4">
+        <v>3</v>
+      </c>
+      <c r="G140" s="4">
+        <v>6</v>
+      </c>
+      <c r="H140" s="4">
+        <f>Table1313222324252627[[#This Row],[Gf]]-Table1313222324252627[[#This Row],[Ga]]</f>
+        <v>-3</v>
+      </c>
+      <c r="I140" s="4">
+        <f>Table1313222324252627[[#This Row],[W]]*3 +Table1313222324252627[[#This Row],[D]]</f>
+        <v>2</v>
+      </c>
+      <c r="J140" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E143" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F143" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B144" s="11">
+        <f>SUM(C144:F144)</f>
+        <v>3</v>
+      </c>
+      <c r="C144" s="11">
+        <v>1</v>
+      </c>
+      <c r="D144" s="11">
+        <v>2</v>
+      </c>
+      <c r="E144" s="11">
+        <v>0</v>
+      </c>
+      <c r="F144" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B145" s="11">
+        <f>SUM(C145:F145)</f>
+        <v>4</v>
+      </c>
+      <c r="C145" s="11">
+        <v>0</v>
+      </c>
+      <c r="D145" s="11">
+        <v>0</v>
+      </c>
+      <c r="E145" s="22">
+        <v>2</v>
+      </c>
+      <c r="F145" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B146" s="11">
+        <f>SUM(C146:F146)</f>
+        <v>4</v>
+      </c>
+      <c r="C146" s="11">
+        <v>2</v>
+      </c>
+      <c r="D146" s="11">
+        <v>2</v>
+      </c>
+      <c r="E146" s="11">
+        <v>0</v>
+      </c>
+      <c r="F146" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B147" s="11">
+        <f>SUM(C147:F147)</f>
+        <v>4</v>
+      </c>
+      <c r="C147" s="11">
+        <v>0</v>
+      </c>
+      <c r="D147" s="11">
+        <v>0</v>
+      </c>
+      <c r="E147" s="11">
+        <v>2</v>
+      </c>
+      <c r="F147" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B148" s="13">
+        <f>SUM(B144:B147)</f>
+        <v>15</v>
+      </c>
+      <c r="C148" s="15"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="15"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A143:F148" xr:uid="{EA6B9524-7474-4E0A-8662-F151FF23C2C5}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="8">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/xlsx/goal_tracking.xlsx
+++ b/xlsx/goal_tracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldi\Documents\GitHub\tiebreak_wc\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2071BB39-6A66-4C72-8C1C-92F501DB52C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC745BF-889B-41C5-AFE0-7BEE4E90C1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wc" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="54">
   <si>
     <t>2022 FIFA World Cup - Group E</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>84’ Germany – Hungary 2-2 (Goretzka)</t>
+  </si>
+  <si>
+    <t>considering before matchday 3 standing</t>
   </si>
 </sst>
 </file>
@@ -444,7 +447,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -488,7 +491,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -501,13 +503,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -518,6 +520,21 @@
   </cellStyles>
   <dxfs count="252">
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -652,28 +669,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -696,6 +691,13 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
@@ -858,13 +860,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -887,6 +882,13 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
@@ -1049,13 +1051,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1078,6 +1073,13 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
@@ -1091,28 +1093,26 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top/>
         <bottom style="medium">
           <color indexed="64"/>
@@ -1126,141 +1126,120 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1283,6 +1262,13 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
@@ -1327,115 +1313,124 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1458,6 +1453,13 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
@@ -1618,13 +1620,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1647,6 +1642,13 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
@@ -1660,6 +1662,21 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1792,28 +1809,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1836,6 +1831,13 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
@@ -1994,13 +1996,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2021,6 +2016,13 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3968,7 +3970,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5DAC64F2-482A-4F60-B2E6-57E3462A63AB}" name="Table112" displayName="Table112" ref="A4:J8" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110" headerRowBorderDxfId="108" tableBorderDxfId="109">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5DAC64F2-482A-4F60-B2E6-57E3462A63AB}" name="Table112" displayName="Table112" ref="A4:J8" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108">
   <autoFilter ref="A4:J8" xr:uid="{BC795D6B-2F1C-47F6-8F18-33268A9CC9F1}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{1C1597CE-0872-426C-A38F-F6E20E5BDA9B}" name="Team" dataDxfId="107"/>
@@ -3993,7 +3995,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{42D67862-79ED-479F-8F79-FE739ACC47A6}" name="Table1313" displayName="Table1313" ref="A16:J20" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96" headerRowBorderDxfId="94" tableBorderDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{42D67862-79ED-479F-8F79-FE739ACC47A6}" name="Table1313" displayName="Table1313" ref="A16:J20" totalsRowShown="0" headerRowDxfId="97" dataDxfId="95" headerRowBorderDxfId="96" tableBorderDxfId="94">
   <autoFilter ref="A16:J20" xr:uid="{F45FC70F-D0BA-437A-947E-C9142BE306D9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:J20">
     <sortCondition ref="J16:J20"/>
@@ -4008,20 +4010,20 @@
     <tableColumn id="5" xr3:uid="{64093928-E0CD-4E1D-8651-43388608C55D}" name="L" dataDxfId="89"/>
     <tableColumn id="6" xr3:uid="{53F62282-2132-4A1F-97D1-50331A137421}" name="Gf" dataDxfId="88"/>
     <tableColumn id="7" xr3:uid="{50ADC421-ED8D-41EE-B736-E96704190707}" name="Ga" dataDxfId="87"/>
-    <tableColumn id="8" xr3:uid="{BE4DEE6D-3A10-4F88-B2C8-81FF30BAFFCD}" name="Gdiff" dataDxfId="85">
+    <tableColumn id="8" xr3:uid="{BE4DEE6D-3A10-4F88-B2C8-81FF30BAFFCD}" name="Gdiff" dataDxfId="86">
       <calculatedColumnFormula>Table1313[[#This Row],[Gf]]-Table1313[[#This Row],[Ga]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1C50E053-B86A-4F72-8204-F3939237E64C}" name="Pts" dataDxfId="84">
+    <tableColumn id="9" xr3:uid="{1C50E053-B86A-4F72-8204-F3939237E64C}" name="Pts" dataDxfId="85">
       <calculatedColumnFormula>Table1313[[#This Row],[W]]*3 +Table1313[[#This Row],[D]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{EDBE8A7B-0A76-42F5-842B-8B9E0179C4FA}" name="standing" dataDxfId="86"/>
+    <tableColumn id="10" xr3:uid="{EDBE8A7B-0A76-42F5-842B-8B9E0179C4FA}" name="standing" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{F7FC4540-FC00-4812-9477-02B7EC1A2995}" name="Table131322" displayName="Table131322" ref="A36:J40" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82" headerRowBorderDxfId="80" tableBorderDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{F7FC4540-FC00-4812-9477-02B7EC1A2995}" name="Table131322" displayName="Table131322" ref="A36:J40" totalsRowShown="0" headerRowDxfId="83" dataDxfId="81" headerRowBorderDxfId="82" tableBorderDxfId="80">
   <autoFilter ref="A36:J40" xr:uid="{F7FC4540-FC00-4812-9477-02B7EC1A2995}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A37:J40">
     <sortCondition descending="1" ref="I36:I40"/>
@@ -4049,7 +4051,7 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{22FF6538-CC86-418E-B1DE-3E36EFBA775E}" name="Table13132223" displayName="Table13132223" ref="A56:J60" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68" headerRowBorderDxfId="66" tableBorderDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{22FF6538-CC86-418E-B1DE-3E36EFBA775E}" name="Table13132223" displayName="Table13132223" ref="A56:J60" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68" tableBorderDxfId="66">
   <autoFilter ref="A56:J60" xr:uid="{22FF6538-CC86-418E-B1DE-3E36EFBA775E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A57:J60">
     <sortCondition descending="1" ref="I56:I60"/>
@@ -4067,45 +4069,45 @@
     <tableColumn id="8" xr3:uid="{8A1209D2-9A3F-4A39-ABC8-D2FDB4C06340}" name="Gdiff" dataDxfId="58">
       <calculatedColumnFormula>Table13132223[[#This Row],[Gf]]-Table13132223[[#This Row],[Ga]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0F05A3D5-A8C1-41DF-893B-DDBF37ECE10F}" name="Pts" dataDxfId="42">
+    <tableColumn id="9" xr3:uid="{0F05A3D5-A8C1-41DF-893B-DDBF37ECE10F}" name="Pts" dataDxfId="57">
       <calculatedColumnFormula>Table13132223[[#This Row],[W]]*3 +Table13132223[[#This Row],[D]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{A6D6D8A3-678C-42C3-B57B-19022693F9D4}" name="standing" dataDxfId="57"/>
+    <tableColumn id="10" xr3:uid="{A6D6D8A3-678C-42C3-B57B-19022693F9D4}" name="standing" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{29BF89AB-144B-4A0A-9387-A5F123012BAE}" name="Table1313222324" displayName="Table1313222324" ref="A76:J80" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55" headerRowBorderDxfId="53" tableBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{29BF89AB-144B-4A0A-9387-A5F123012BAE}" name="Table1313222324" displayName="Table1313222324" ref="A76:J80" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54" tableBorderDxfId="52">
   <autoFilter ref="A76:J80" xr:uid="{29BF89AB-144B-4A0A-9387-A5F123012BAE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A77:J80">
     <sortCondition descending="1" ref="I76:I80"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{8EA01C16-AF42-498A-994D-8496F6203CBC}" name="Team" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{4E5F4474-38D4-4A4E-9401-6F3B144FD616}" name="Pld" dataDxfId="51">
+    <tableColumn id="1" xr3:uid="{8EA01C16-AF42-498A-994D-8496F6203CBC}" name="Team" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{4E5F4474-38D4-4A4E-9401-6F3B144FD616}" name="Pld" dataDxfId="50">
       <calculatedColumnFormula>Table1313222324[[#This Row],[W]]+Table1313222324[[#This Row],[D]]+Table1313222324[[#This Row],[L]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{7642B2A0-1BD7-4435-BADC-1922F8CB68BB}" name="W" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{BBF9072F-9465-4854-A352-F6DA5F075E34}" name="D" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{B73EBBCC-7426-41D2-B6F5-078406CB95D1}" name="L" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{E0A61D53-4B25-4F3F-897B-46BC5963DFF1}" name="Gf" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{AEBA596B-4A39-4B12-B3E4-335AE00D9578}" name="Ga" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{D9E7F5E3-BBB4-477E-8169-0B7632E87F46}" name="Gdiff" dataDxfId="45">
+    <tableColumn id="3" xr3:uid="{7642B2A0-1BD7-4435-BADC-1922F8CB68BB}" name="W" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{BBF9072F-9465-4854-A352-F6DA5F075E34}" name="D" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{B73EBBCC-7426-41D2-B6F5-078406CB95D1}" name="L" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{E0A61D53-4B25-4F3F-897B-46BC5963DFF1}" name="Gf" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{AEBA596B-4A39-4B12-B3E4-335AE00D9578}" name="Ga" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{D9E7F5E3-BBB4-477E-8169-0B7632E87F46}" name="Gdiff" dataDxfId="44">
       <calculatedColumnFormula>Table1313222324[[#This Row],[Gf]]-Table1313222324[[#This Row],[Ga]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{5767D4FF-341D-4BE8-A0B0-408235BD1244}" name="Pts" dataDxfId="44">
+    <tableColumn id="9" xr3:uid="{5767D4FF-341D-4BE8-A0B0-408235BD1244}" name="Pts" dataDxfId="43">
       <calculatedColumnFormula>Table1313222324[[#This Row],[W]]*3 +Table1313222324[[#This Row],[D]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{336D6720-DC09-483A-8B75-8F218FF55BC5}" name="standing" dataDxfId="43"/>
+    <tableColumn id="10" xr3:uid="{336D6720-DC09-483A-8B75-8F218FF55BC5}" name="standing" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{FCD1AF56-6E6A-4078-93BD-0AF7A4861C58}" name="Table131322232425" displayName="Table131322232425" ref="A96:J100" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40" headerRowBorderDxfId="38" tableBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{FCD1AF56-6E6A-4078-93BD-0AF7A4861C58}" name="Table131322232425" displayName="Table131322232425" ref="A96:J100" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38">
   <autoFilter ref="A96:J100" xr:uid="{FCD1AF56-6E6A-4078-93BD-0AF7A4861C58}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A97:J100">
     <sortCondition descending="1" ref="I96:I100"/>
@@ -4133,7 +4135,7 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{A7593144-B244-422D-9189-96C0EA9952B7}" name="Table13132223242526" displayName="Table13132223242526" ref="A116:J120" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{A7593144-B244-422D-9189-96C0EA9952B7}" name="Table13132223242526" displayName="Table13132223242526" ref="A116:J120" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24">
   <autoFilter ref="A116:J120" xr:uid="{A7593144-B244-422D-9189-96C0EA9952B7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A117:J120">
     <sortCondition ref="J116:J120"/>
@@ -4161,28 +4163,28 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{1EA6E568-C5D5-4C93-B6EB-4A9940A7F7F0}" name="Table1313222324252627" displayName="Table1313222324252627" ref="A136:J140" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{1EA6E568-C5D5-4C93-B6EB-4A9940A7F7F0}" name="Table1313222324252627" displayName="Table1313222324252627" ref="A136:J140" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
   <autoFilter ref="A136:J140" xr:uid="{1EA6E568-C5D5-4C93-B6EB-4A9940A7F7F0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A137:J140">
     <sortCondition descending="1" ref="I136:I140"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{D0893EB2-7319-40B5-B304-F0B25E44B2D2}" name="Team" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{C7E49AD9-256C-4443-81ED-46823797C0F2}" name="Pld" dataDxfId="7">
+    <tableColumn id="2" xr3:uid="{C7E49AD9-256C-4443-81ED-46823797C0F2}" name="Pld" dataDxfId="8">
       <calculatedColumnFormula>Table1313222324252627[[#This Row],[W]]+Table1313222324252627[[#This Row],[D]]+Table1313222324252627[[#This Row],[L]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{997409DA-E747-410D-AFA7-2BE3F39DA595}" name="W" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{386EBF43-8572-4D48-82E1-CAE4D773C0BA}" name="D" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{E4252821-D32C-4387-9090-3606C2DEA559}" name="L" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{DB76B39E-5324-45E0-A84D-B9228BCAD22B}" name="Gf" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{D87DDE79-AFE9-4431-A152-2D3EEC4D9442}" name="Ga" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{D6BB033B-1B3C-4636-8CB7-FE5CC3FB0AFB}" name="Gdiff" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{997409DA-E747-410D-AFA7-2BE3F39DA595}" name="W" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{386EBF43-8572-4D48-82E1-CAE4D773C0BA}" name="D" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{E4252821-D32C-4387-9090-3606C2DEA559}" name="L" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{DB76B39E-5324-45E0-A84D-B9228BCAD22B}" name="Gf" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{D87DDE79-AFE9-4431-A152-2D3EEC4D9442}" name="Ga" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{D6BB033B-1B3C-4636-8CB7-FE5CC3FB0AFB}" name="Gdiff" dataDxfId="2">
       <calculatedColumnFormula>Table1313222324252627[[#This Row],[Gf]]-Table1313222324252627[[#This Row],[Ga]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E32C3238-E5A7-4BFE-904E-127C98827E93}" name="Pts" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{E32C3238-E5A7-4BFE-904E-127C98827E93}" name="Pts" dataDxfId="1">
       <calculatedColumnFormula>Table1313222324252627[[#This Row],[W]]*3 +Table1313222324252627[[#This Row],[D]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{25A29D01-00FE-4BB4-AEA2-C52BDD18564E}" name="standing" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{25A29D01-00FE-4BB4-AEA2-C52BDD18564E}" name="standing" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4659,15 +4661,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L169"/>
+  <dimension ref="A1:L180"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="L184" sqref="L184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7490,6 +7492,124 @@
       <c r="B169" s="13">
         <f>SUM(B165:B168)</f>
         <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D175" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E175" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F175" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B176" s="11">
+        <f>SUM(C176:F176)</f>
+        <v>4</v>
+      </c>
+      <c r="C176" s="11">
+        <v>1</v>
+      </c>
+      <c r="D176" s="11">
+        <v>2</v>
+      </c>
+      <c r="E176" s="11">
+        <v>1</v>
+      </c>
+      <c r="F176" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B177" s="11">
+        <f t="shared" ref="B177:B179" si="9">SUM(C177:F177)</f>
+        <v>5</v>
+      </c>
+      <c r="C177" s="11">
+        <v>0</v>
+      </c>
+      <c r="D177" s="11">
+        <v>1</v>
+      </c>
+      <c r="E177" s="11">
+        <v>2</v>
+      </c>
+      <c r="F177" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B178" s="11">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="C178" s="11">
+        <v>1</v>
+      </c>
+      <c r="D178" s="11">
+        <v>2</v>
+      </c>
+      <c r="E178" s="11">
+        <v>1</v>
+      </c>
+      <c r="F178" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B179" s="11">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="C179" s="11">
+        <v>0</v>
+      </c>
+      <c r="D179" s="11">
+        <v>1</v>
+      </c>
+      <c r="E179" s="11">
+        <v>3</v>
+      </c>
+      <c r="F179" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B180" s="13">
+        <f>SUM(B176:B179)</f>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -7514,7 +7634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6B9524-7474-4E0A-8662-F151FF23C2C5}">
   <dimension ref="A1:L148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+    <sheetView topLeftCell="A176" workbookViewId="0">
       <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
@@ -7628,7 +7748,7 @@
         <f>Table112[[#This Row],[Gf]]-Table112[[#This Row],[Ga]]</f>
         <v>1</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="15">
         <f>Table112[[#This Row],[W]]*3 +Table112[[#This Row],[D]]</f>
         <v>3</v>
       </c>
@@ -7666,7 +7786,7 @@
         <f>Table112[[#This Row],[Gf]]-Table112[[#This Row],[Ga]]</f>
         <v>1</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="15">
         <f>Table112[[#This Row],[W]]*3 +Table112[[#This Row],[D]]</f>
         <v>3</v>
       </c>
@@ -7710,40 +7830,40 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -7849,7 +7969,7 @@
         <f>Table1313[[#This Row],[Gf]]-Table1313[[#This Row],[Ga]]</f>
         <v>1</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="15">
         <f>Table1313[[#This Row],[W]]*3 +Table1313[[#This Row],[D]]</f>
         <v>4</v>
       </c>
@@ -7868,7 +7988,7 @@
         <f>Table1313[[#This Row],[W]]+Table1313[[#This Row],[D]]+Table1313[[#This Row],[L]]</f>
         <v>3</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="16">
         <v>1</v>
       </c>
       <c r="D19" s="4">
@@ -7877,7 +7997,7 @@
       <c r="E19" s="4">
         <v>1</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="16">
         <v>2</v>
       </c>
       <c r="G19" s="4">
@@ -7887,7 +8007,7 @@
         <f>Table1313[[#This Row],[Gf]]-Table1313[[#This Row],[Ga]]</f>
         <v>-2</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="15">
         <f>Table1313[[#This Row],[W]]*3 +Table1313[[#This Row],[D]]</f>
         <v>4</v>
       </c>
@@ -7909,13 +8029,13 @@
       <c r="D20" s="6">
         <v>0</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="16">
         <v>2</v>
       </c>
       <c r="F20" s="6">
         <v>4</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="16">
         <v>4</v>
       </c>
       <c r="H20" s="4">
@@ -7989,7 +8109,7 @@
       <c r="E25" s="11">
         <v>0</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="16">
         <v>1</v>
       </c>
     </row>
@@ -8004,7 +8124,7 @@
       <c r="C26" s="11">
         <v>0</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="16">
         <v>1</v>
       </c>
       <c r="E26" s="11">
@@ -8028,7 +8148,7 @@
       <c r="D27" s="11">
         <v>0</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="16">
         <v>1</v>
       </c>
       <c r="F27" s="11"/>
@@ -8092,7 +8212,7 @@
         <f>Table131322[[#This Row],[W]]+Table131322[[#This Row],[D]]+Table131322[[#This Row],[L]]</f>
         <v>3</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="16">
         <v>2</v>
       </c>
       <c r="D37" s="4">
@@ -8101,7 +8221,7 @@
       <c r="E37" s="4">
         <v>1</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="16">
         <v>6</v>
       </c>
       <c r="G37" s="4">
@@ -8133,20 +8253,20 @@
       <c r="D38" s="4">
         <v>1</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="16">
         <v>1</v>
       </c>
       <c r="F38" s="4">
         <v>2</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="16">
         <v>2</v>
       </c>
       <c r="H38" s="4">
         <f>Table131322[[#This Row],[Gf]]-Table131322[[#This Row],[Ga]]</f>
         <v>0</v>
       </c>
-      <c r="I38" s="16">
+      <c r="I38" s="15">
         <f>Table131322[[#This Row],[W]]*3 +Table131322[[#This Row],[D]]</f>
         <v>4</v>
       </c>
@@ -8184,7 +8304,7 @@
         <f>Table131322[[#This Row],[Gf]]-Table131322[[#This Row],[Ga]]</f>
         <v>-2</v>
       </c>
-      <c r="I39" s="16">
+      <c r="I39" s="15">
         <f>Table131322[[#This Row],[W]]*3 +Table131322[[#This Row],[D]]</f>
         <v>4</v>
       </c>
@@ -8259,7 +8379,7 @@
       <c r="C44" s="11">
         <v>0</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="16">
         <v>1</v>
       </c>
       <c r="E44" s="11">
@@ -8298,7 +8418,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="16">
         <v>1</v>
       </c>
       <c r="D46" s="11">
@@ -8394,13 +8514,13 @@
       <c r="C57" s="4">
         <v>1</v>
       </c>
-      <c r="D57" s="17">
+      <c r="D57" s="16">
         <v>2</v>
       </c>
       <c r="E57" s="4">
         <v>0</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F57" s="17">
         <v>3</v>
       </c>
       <c r="G57" s="4">
@@ -8429,23 +8549,23 @@
       <c r="C58" s="4">
         <v>1</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D58" s="16">
         <v>1</v>
       </c>
       <c r="E58" s="4">
         <v>1</v>
       </c>
-      <c r="F58" s="19">
+      <c r="F58" s="18">
         <v>6</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G58" s="17">
         <v>5</v>
       </c>
       <c r="H58" s="4">
         <f>Table13132223[[#This Row],[Gf]]-Table13132223[[#This Row],[Ga]]</f>
         <v>1</v>
       </c>
-      <c r="I58" s="16">
+      <c r="I58" s="15">
         <f>Table13132223[[#This Row],[W]]*3 +Table13132223[[#This Row],[D]]</f>
         <v>4</v>
       </c>
@@ -8483,7 +8603,7 @@
         <f>Table13132223[[#This Row],[Gf]]-Table13132223[[#This Row],[Ga]]</f>
         <v>-2</v>
       </c>
-      <c r="I59" s="16">
+      <c r="I59" s="15">
         <f>Table13132223[[#This Row],[W]]*3 +Table13132223[[#This Row],[D]]</f>
         <v>4</v>
       </c>
@@ -8555,7 +8675,7 @@
         <f>SUM(C64:F64)</f>
         <v>2</v>
       </c>
-      <c r="C64" s="17">
+      <c r="C64" s="16">
         <v>1</v>
       </c>
       <c r="D64" s="11">
@@ -8600,7 +8720,7 @@
       <c r="C66" s="11">
         <v>1</v>
       </c>
-      <c r="D66" s="17">
+      <c r="D66" s="16">
         <v>2</v>
       </c>
       <c r="E66" s="11">
@@ -8690,19 +8810,19 @@
         <f>Table1313222324[[#This Row],[W]]+Table1313222324[[#This Row],[D]]+Table1313222324[[#This Row],[L]]</f>
         <v>3</v>
       </c>
-      <c r="C77" s="18">
+      <c r="C77" s="17">
         <v>2</v>
       </c>
       <c r="D77" s="4">
         <v>0</v>
       </c>
-      <c r="E77" s="19">
-        <v>1</v>
-      </c>
-      <c r="F77" s="18">
+      <c r="E77" s="18">
+        <v>1</v>
+      </c>
+      <c r="F77" s="17">
         <v>7</v>
       </c>
-      <c r="G77" s="19">
+      <c r="G77" s="18">
         <v>5</v>
       </c>
       <c r="H77" s="4">
@@ -8725,26 +8845,26 @@
         <f>Table1313222324[[#This Row],[W]]+Table1313222324[[#This Row],[D]]+Table1313222324[[#This Row],[L]]</f>
         <v>3</v>
       </c>
-      <c r="C78" s="19">
+      <c r="C78" s="18">
         <v>1</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
       </c>
-      <c r="E78" s="18">
-        <v>1</v>
-      </c>
-      <c r="F78" s="19">
-        <v>3</v>
-      </c>
-      <c r="G78" s="18">
+      <c r="E78" s="17">
+        <v>1</v>
+      </c>
+      <c r="F78" s="18">
+        <v>3</v>
+      </c>
+      <c r="G78" s="17">
         <v>3</v>
       </c>
       <c r="H78" s="4">
         <f>Table1313222324[[#This Row],[Gf]]-Table1313222324[[#This Row],[Ga]]</f>
         <v>0</v>
       </c>
-      <c r="I78" s="16">
+      <c r="I78" s="15">
         <f>Table1313222324[[#This Row],[W]]*3 +Table1313222324[[#This Row],[D]]</f>
         <v>4</v>
       </c>
@@ -8782,7 +8902,7 @@
         <f>Table1313222324[[#This Row],[Gf]]-Table1313222324[[#This Row],[Ga]]</f>
         <v>-2</v>
       </c>
-      <c r="I79" s="16">
+      <c r="I79" s="15">
         <f>Table1313222324[[#This Row],[W]]*3 +Table1313222324[[#This Row],[D]]</f>
         <v>4</v>
       </c>
@@ -8857,7 +8977,7 @@
       <c r="C84" s="11">
         <v>1</v>
       </c>
-      <c r="D84" s="20">
+      <c r="D84" s="19">
         <v>2</v>
       </c>
       <c r="E84" s="11">
@@ -8896,7 +9016,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="C86" s="20">
+      <c r="C86" s="19">
         <v>2</v>
       </c>
       <c r="D86" s="11">
@@ -9043,7 +9163,7 @@
         <f>Table131322232425[[#This Row],[Gf]]-Table131322232425[[#This Row],[Ga]]</f>
         <v>0</v>
       </c>
-      <c r="I98" s="16">
+      <c r="I98" s="15">
         <f>Table131322232425[[#This Row],[W]]*3 +Table131322232425[[#This Row],[D]]</f>
         <v>4</v>
       </c>
@@ -9065,23 +9185,23 @@
       <c r="C99" s="4">
         <v>1</v>
       </c>
-      <c r="D99" s="17">
+      <c r="D99" s="16">
         <v>1</v>
       </c>
       <c r="E99" s="4">
         <v>1</v>
       </c>
-      <c r="F99" s="18">
+      <c r="F99" s="17">
         <v>5</v>
       </c>
-      <c r="G99" s="19">
+      <c r="G99" s="18">
         <v>4</v>
       </c>
       <c r="H99" s="4">
         <f>Table131322232425[[#This Row],[Gf]]-Table131322232425[[#This Row],[Ga]]</f>
         <v>1</v>
       </c>
-      <c r="I99" s="16">
+      <c r="I99" s="15">
         <f>Table131322232425[[#This Row],[W]]*3 +Table131322232425[[#This Row],[D]]</f>
         <v>4</v>
       </c>
@@ -9100,16 +9220,16 @@
       <c r="C100" s="4">
         <v>0</v>
       </c>
-      <c r="D100" s="17">
+      <c r="D100" s="16">
         <v>2</v>
       </c>
       <c r="E100" s="4">
         <v>1</v>
       </c>
-      <c r="F100" s="19">
-        <v>2</v>
-      </c>
-      <c r="G100" s="18">
+      <c r="F100" s="18">
+        <v>2</v>
+      </c>
+      <c r="G100" s="17">
         <v>5</v>
       </c>
       <c r="H100" s="4">
@@ -9180,7 +9300,7 @@
       <c r="D105" s="11">
         <v>0</v>
       </c>
-      <c r="E105" s="17">
+      <c r="E105" s="16">
         <v>1</v>
       </c>
       <c r="F105" s="11">
@@ -9225,7 +9345,7 @@
       <c r="E107" s="11">
         <v>1</v>
       </c>
-      <c r="F107" s="17">
+      <c r="F107" s="16">
         <v>1</v>
       </c>
     </row>
@@ -9342,7 +9462,7 @@
         <f>Table13132223242526[[#This Row],[Gf]]-Table13132223242526[[#This Row],[Ga]]</f>
         <v>0</v>
       </c>
-      <c r="I118" s="16">
+      <c r="I118" s="15">
         <f>Table13132223242526[[#This Row],[W]]*3 +Table13132223242526[[#This Row],[D]]</f>
         <v>4</v>
       </c>
@@ -9361,26 +9481,26 @@
         <f>Table13132223242526[[#This Row],[W]]+Table13132223242526[[#This Row],[D]]+Table13132223242526[[#This Row],[L]]</f>
         <v>3</v>
       </c>
-      <c r="C119" s="18">
+      <c r="C119" s="17">
         <v>1</v>
       </c>
       <c r="D119" s="4">
         <v>1</v>
       </c>
-      <c r="E119" s="19">
-        <v>1</v>
-      </c>
-      <c r="F119" s="18">
-        <v>3</v>
-      </c>
-      <c r="G119" s="19">
+      <c r="E119" s="18">
+        <v>1</v>
+      </c>
+      <c r="F119" s="17">
+        <v>3</v>
+      </c>
+      <c r="G119" s="18">
         <v>5</v>
       </c>
       <c r="H119" s="4">
         <f>Table13132223242526[[#This Row],[Gf]]-Table13132223242526[[#This Row],[Ga]]</f>
         <v>-2</v>
       </c>
-      <c r="I119" s="16">
+      <c r="I119" s="15">
         <f>Table13132223242526[[#This Row],[W]]*3 +Table13132223242526[[#This Row],[D]]</f>
         <v>4</v>
       </c>
@@ -9396,19 +9516,19 @@
         <f>Table13132223242526[[#This Row],[W]]+Table13132223242526[[#This Row],[D]]+Table13132223242526[[#This Row],[L]]</f>
         <v>3</v>
       </c>
-      <c r="C120" s="19">
+      <c r="C120" s="18">
         <v>1</v>
       </c>
       <c r="D120" s="4">
         <v>0</v>
       </c>
-      <c r="E120" s="18">
-        <v>2</v>
-      </c>
-      <c r="F120" s="19">
+      <c r="E120" s="17">
+        <v>2</v>
+      </c>
+      <c r="F120" s="18">
         <v>5</v>
       </c>
-      <c r="G120" s="18">
+      <c r="G120" s="17">
         <v>5</v>
       </c>
       <c r="H120" s="4">
@@ -9482,7 +9602,7 @@
       <c r="E125" s="11">
         <v>1</v>
       </c>
-      <c r="F125" s="17">
+      <c r="F125" s="16">
         <v>2</v>
       </c>
     </row>
@@ -9521,7 +9641,7 @@
       <c r="D127" s="11">
         <v>0</v>
       </c>
-      <c r="E127" s="17">
+      <c r="E127" s="16">
         <v>2</v>
       </c>
       <c r="F127" s="11">
@@ -9641,7 +9761,7 @@
         <f>Table1313222324252627[[#This Row],[Gf]]-Table1313222324252627[[#This Row],[Ga]]</f>
         <v>0</v>
       </c>
-      <c r="I138" s="16">
+      <c r="I138" s="15">
         <f>Table1313222324252627[[#This Row],[W]]*3 +Table1313222324252627[[#This Row],[D]]</f>
         <v>4</v>
       </c>
@@ -9663,13 +9783,13 @@
       <c r="C139" s="4">
         <v>1</v>
       </c>
-      <c r="D139" s="17">
+      <c r="D139" s="16">
         <v>1</v>
       </c>
       <c r="E139" s="4">
         <v>1</v>
       </c>
-      <c r="F139" s="17">
+      <c r="F139" s="16">
         <v>5</v>
       </c>
       <c r="G139" s="4">
@@ -9679,7 +9799,7 @@
         <f>Table1313222324252627[[#This Row],[Gf]]-Table1313222324252627[[#This Row],[Ga]]</f>
         <v>0</v>
       </c>
-      <c r="I139" s="16">
+      <c r="I139" s="15">
         <f>Table1313222324252627[[#This Row],[W]]*3 +Table1313222324252627[[#This Row],[D]]</f>
         <v>4</v>
       </c>
@@ -9698,7 +9818,7 @@
       <c r="C140" s="4">
         <v>0</v>
       </c>
-      <c r="D140" s="17">
+      <c r="D140" s="16">
         <v>2</v>
       </c>
       <c r="E140" s="4">
@@ -9778,7 +9898,7 @@
       <c r="D145" s="11">
         <v>0</v>
       </c>
-      <c r="E145" s="22">
+      <c r="E145" s="21">
         <v>2</v>
       </c>
       <c r="F145" s="11">
@@ -9823,7 +9943,7 @@
       <c r="E147" s="11">
         <v>2</v>
       </c>
-      <c r="F147" s="17">
+      <c r="F147" s="16">
         <v>2</v>
       </c>
     </row>
@@ -9835,10 +9955,6 @@
         <f>SUM(B144:B147)</f>
         <v>15</v>
       </c>
-      <c r="C148" s="15"/>
-      <c r="D148" s="15"/>
-      <c r="E148" s="15"/>
-      <c r="F148" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A143:F148" xr:uid="{EA6B9524-7474-4E0A-8662-F151FF23C2C5}"/>

--- a/xlsx/goal_tracking.xlsx
+++ b/xlsx/goal_tracking.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldi\Documents\GitHub\tiebreak_wc\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC745BF-889B-41C5-AFE0-7BEE4E90C1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE760F4-87AB-412B-B14F-4091A3EB0C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wc" sheetId="1" r:id="rId1"/>
     <sheet name="eu" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">eu!$A$143:$F$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">eu!$A$143:$E$148</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,12 +40,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="55">
   <si>
     <t>2022 FIFA World Cup - Group E</t>
-  </si>
-  <si>
-    <t>Before match day 3</t>
   </si>
   <si>
     <t>Team</t>
@@ -202,6 +199,12 @@
   </si>
   <si>
     <t>considering before matchday 3 standing</t>
+  </si>
+  <si>
+    <t>Before match day 3 (all teams on 0-0, +1 point)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Before match day 3 (all teams on 0-0, +1 point)</t>
   </si>
 </sst>
 </file>
@@ -4663,13 +4666,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="L184" sqref="L184"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4680,44 +4683,44 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
@@ -4726,7 +4729,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -4743,7 +4746,7 @@
       </c>
       <c r="I5" s="5">
         <f>Table1[[#This Row],[W]]*3 +Table1[[#This Row],[D]]</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" s="6">
         <v>1</v>
@@ -4751,7 +4754,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
@@ -4760,7 +4763,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -4777,7 +4780,7 @@
       </c>
       <c r="I6" s="5">
         <f>Table1[[#This Row],[W]]*3 +Table1[[#This Row],[D]]</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" s="6">
         <v>2</v>
@@ -4785,7 +4788,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4">
         <v>2</v>
@@ -4794,7 +4797,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -4811,7 +4814,7 @@
       </c>
       <c r="I7" s="5">
         <f>Table1[[#This Row],[W]]*3 +Table1[[#This Row],[D]]</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J7" s="6">
         <v>3</v>
@@ -4819,7 +4822,7 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="6">
         <v>2</v>
@@ -4828,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="6">
         <v>0</v>
@@ -4845,7 +4848,7 @@
       </c>
       <c r="I8" s="5">
         <f>Table1[[#This Row],[W]]*3 +Table1[[#This Row],[D]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="6">
         <v>4</v>
@@ -4853,49 +4856,49 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="J13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="4">
         <v>3</v>
@@ -4929,7 +4932,7 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>3</v>
@@ -4963,7 +4966,7 @@
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="4">
         <v>3</v>
@@ -4997,7 +5000,7 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="4">
         <v>3</v>
@@ -5032,27 +5035,27 @@
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="D20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="E20" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="11">
         <f>SUM(C21:F21)</f>
@@ -5073,7 +5076,7 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="11">
         <f t="shared" ref="B22:B24" si="0">SUM(C22:F22)</f>
@@ -5092,12 +5095,12 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" s="11">
         <f t="shared" si="0"/>
@@ -5118,7 +5121,7 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" s="11">
         <f t="shared" si="0"/>
@@ -5139,7 +5142,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="13">
         <f>SUM(B21:B24)</f>
@@ -5148,49 +5151,49 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="I30" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="J30" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" s="4">
         <v>3</v>
@@ -5224,7 +5227,7 @@
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B32" s="4">
         <v>3</v>
@@ -5256,12 +5259,12 @@
         <v>2</v>
       </c>
       <c r="L32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33" s="4">
         <v>3</v>
@@ -5295,7 +5298,7 @@
     </row>
     <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34" s="4">
         <v>3</v>
@@ -5330,27 +5333,27 @@
     <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="D37" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="E37" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="F37" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38" s="11">
         <f>SUM(C38:F38)</f>
@@ -5371,7 +5374,7 @@
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39" s="11">
         <f t="shared" ref="B39:B41" si="1">SUM(C39:F39)</f>
@@ -5392,7 +5395,7 @@
     </row>
     <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40" s="11">
         <f t="shared" si="1"/>
@@ -5413,7 +5416,7 @@
     </row>
     <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41" s="11">
         <f t="shared" si="1"/>
@@ -5434,7 +5437,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B42" s="13">
         <f>SUM(B38:B41)</f>
@@ -5443,49 +5446,49 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="F47" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="G47" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="H47" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="I47" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I47" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="J47" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48" s="4">
         <v>3</v>
@@ -5519,7 +5522,7 @@
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B49" s="4">
         <v>3</v>
@@ -5553,7 +5556,7 @@
     </row>
     <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B50" s="4">
         <v>3</v>
@@ -5585,12 +5588,12 @@
         <v>3</v>
       </c>
       <c r="L50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B51" s="4">
         <v>3</v>
@@ -5625,27 +5628,27 @@
     <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B54" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="D54" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="E54" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="F54" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B55" s="11">
         <f>SUM(C55:F55)</f>
@@ -5666,7 +5669,7 @@
     </row>
     <row r="56" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B56" s="11">
         <f t="shared" ref="B56:B58" si="2">SUM(C56:F56)</f>
@@ -5687,7 +5690,7 @@
     </row>
     <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B57" s="11">
         <f t="shared" si="2"/>
@@ -5708,7 +5711,7 @@
     </row>
     <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B58" s="11">
         <f t="shared" si="2"/>
@@ -5729,7 +5732,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B59" s="13">
         <f>SUM(B55:B58)</f>
@@ -5738,49 +5741,49 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="F64" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="G64" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="H64" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H64" s="4" t="s">
+      <c r="I64" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I64" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="J64" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B65" s="4">
         <v>3</v>
@@ -5814,7 +5817,7 @@
     </row>
     <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B66" s="4">
         <v>3</v>
@@ -5848,7 +5851,7 @@
     </row>
     <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B67" s="4">
         <v>3</v>
@@ -5882,7 +5885,7 @@
     </row>
     <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B68" s="4">
         <v>3</v>
@@ -5917,27 +5920,27 @@
     <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="71" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B71" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="D71" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="E71" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E71" s="10" t="s">
+      <c r="F71" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B72" s="11">
         <f>SUM(C72:F72)</f>
@@ -5958,7 +5961,7 @@
     </row>
     <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B73" s="11">
         <f t="shared" ref="B73:B75" si="3">SUM(C73:F73)</f>
@@ -5977,12 +5980,12 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B74" s="11">
         <f t="shared" si="3"/>
@@ -6003,7 +6006,7 @@
     </row>
     <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B75" s="11">
         <f t="shared" si="3"/>
@@ -6024,7 +6027,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B76" s="13">
         <f>SUM(B72:B75)</f>
@@ -6033,49 +6036,49 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="F83" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="G83" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="H83" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H83" s="4" t="s">
+      <c r="I83" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I83" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="J83" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B84" s="4">
         <v>3</v>
@@ -6109,7 +6112,7 @@
     </row>
     <row r="85" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B85" s="4">
         <v>3</v>
@@ -6143,7 +6146,7 @@
     </row>
     <row r="86" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B86" s="4">
         <v>3</v>
@@ -6177,7 +6180,7 @@
     </row>
     <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B87" s="4">
         <v>3</v>
@@ -6212,27 +6215,27 @@
     <row r="89" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B90" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="D90" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D90" s="10" t="s">
+      <c r="E90" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E90" s="10" t="s">
+      <c r="F90" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="F90" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B91" s="11">
         <f>SUM(C91:F91)</f>
@@ -6253,7 +6256,7 @@
     </row>
     <row r="92" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B92" s="11">
         <f t="shared" ref="B92:B94" si="4">SUM(C92:F92)</f>
@@ -6272,12 +6275,12 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B93" s="11">
         <f t="shared" si="4"/>
@@ -6298,7 +6301,7 @@
     </row>
     <row r="94" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B94" s="11">
         <f t="shared" si="4"/>
@@ -6319,7 +6322,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B95" s="13">
         <f>SUM(B91:B94)</f>
@@ -6328,49 +6331,49 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="F101" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F101" s="4" t="s">
+      <c r="G101" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G101" s="4" t="s">
+      <c r="H101" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H101" s="4" t="s">
+      <c r="I101" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I101" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="J101" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B102" s="4">
         <v>3</v>
@@ -6404,7 +6407,7 @@
     </row>
     <row r="103" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B103" s="4">
         <v>3</v>
@@ -6438,7 +6441,7 @@
     </row>
     <row r="104" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B104" s="4">
         <v>3</v>
@@ -6472,7 +6475,7 @@
     </row>
     <row r="105" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B105" s="4">
         <v>3</v>
@@ -6507,27 +6510,27 @@
     <row r="107" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="108" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B108" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="D108" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D108" s="10" t="s">
+      <c r="E108" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E108" s="10" t="s">
+      <c r="F108" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="F108" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B109" s="11">
         <f>SUM(C109:F109)</f>
@@ -6548,7 +6551,7 @@
     </row>
     <row r="110" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B110" s="11">
         <f t="shared" ref="B110:B112" si="5">SUM(C110:F110)</f>
@@ -6569,7 +6572,7 @@
     </row>
     <row r="111" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B111" s="11">
         <f t="shared" si="5"/>
@@ -6590,7 +6593,7 @@
     </row>
     <row r="112" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B112" s="11">
         <f t="shared" si="5"/>
@@ -6611,7 +6614,7 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B113" s="13">
         <f>SUM(B109:B112)</f>
@@ -6620,49 +6623,49 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D119" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E119" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E119" s="4" t="s">
+      <c r="F119" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F119" s="4" t="s">
+      <c r="G119" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G119" s="4" t="s">
+      <c r="H119" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H119" s="4" t="s">
+      <c r="I119" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I119" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="J119" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B120" s="4">
         <v>3</v>
@@ -6696,7 +6699,7 @@
     </row>
     <row r="121" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B121" s="4">
         <v>3</v>
@@ -6730,7 +6733,7 @@
     </row>
     <row r="122" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B122" s="4">
         <v>3</v>
@@ -6764,7 +6767,7 @@
     </row>
     <row r="123" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B123" s="4">
         <v>3</v>
@@ -6799,27 +6802,27 @@
     <row r="125" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="126" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B126" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C126" s="10" t="s">
+      <c r="D126" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D126" s="10" t="s">
+      <c r="E126" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E126" s="10" t="s">
+      <c r="F126" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="F126" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B127" s="11">
         <f>SUM(C127:F127)</f>
@@ -6840,7 +6843,7 @@
     </row>
     <row r="128" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B128" s="11">
         <f t="shared" ref="B128:B130" si="6">SUM(C128:F128)</f>
@@ -6861,7 +6864,7 @@
     </row>
     <row r="129" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B129" s="11">
         <f t="shared" si="6"/>
@@ -6882,7 +6885,7 @@
     </row>
     <row r="130" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B130" s="11">
         <f t="shared" si="6"/>
@@ -6903,7 +6906,7 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B131" s="13">
         <f>SUM(B127:B130)</f>
@@ -6912,49 +6915,49 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D138" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E138" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E138" s="4" t="s">
+      <c r="F138" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F138" s="4" t="s">
+      <c r="G138" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G138" s="4" t="s">
+      <c r="H138" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H138" s="4" t="s">
+      <c r="I138" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I138" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="J138" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B139" s="4">
         <v>3</v>
@@ -6988,7 +6991,7 @@
     </row>
     <row r="140" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B140" s="4">
         <v>3</v>
@@ -7022,7 +7025,7 @@
     </row>
     <row r="141" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B141" s="4">
         <v>3</v>
@@ -7056,7 +7059,7 @@
     </row>
     <row r="142" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B142" s="4">
         <v>3</v>
@@ -7091,27 +7094,27 @@
     <row r="144" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="145" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B145" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C145" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C145" s="10" t="s">
+      <c r="D145" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D145" s="10" t="s">
+      <c r="E145" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E145" s="10" t="s">
+      <c r="F145" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="F145" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B146" s="11">
         <f>SUM(C146:F146)</f>
@@ -7132,7 +7135,7 @@
     </row>
     <row r="147" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B147" s="11">
         <f t="shared" ref="B147:B149" si="7">SUM(C147:F147)</f>
@@ -7153,7 +7156,7 @@
     </row>
     <row r="148" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B148" s="11">
         <f t="shared" si="7"/>
@@ -7174,7 +7177,7 @@
     </row>
     <row r="149" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B149" s="11">
         <f t="shared" si="7"/>
@@ -7195,7 +7198,7 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B150" s="13">
         <f>SUM(B146:B149)</f>
@@ -7204,49 +7207,49 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D157" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E157" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E157" s="4" t="s">
+      <c r="F157" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F157" s="4" t="s">
+      <c r="G157" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G157" s="4" t="s">
+      <c r="H157" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H157" s="4" t="s">
+      <c r="I157" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I157" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="J157" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B158" s="4">
         <v>3</v>
@@ -7280,7 +7283,7 @@
     </row>
     <row r="159" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B159" s="4">
         <v>3</v>
@@ -7314,7 +7317,7 @@
     </row>
     <row r="160" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B160" s="4">
         <v>3</v>
@@ -7348,7 +7351,7 @@
     </row>
     <row r="161" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B161" s="4">
         <v>3</v>
@@ -7383,7 +7386,7 @@
     <row r="163" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="164" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B164" s="10" t="s">
         <v>17</v>
@@ -7398,58 +7401,57 @@
         <v>20</v>
       </c>
       <c r="F164" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B165" s="11">
-        <f>SUM(C165:F165)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C165" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D165" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E165" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165" s="11">
-        <v>0</v>
+        <f>SUM(B165:E165)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B166" s="11">
-        <f t="shared" ref="B166:B168" si="8">SUM(C166:F166)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C166" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D166" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E166" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F166" s="11">
-        <v>1</v>
+        <f>SUM(B166:E166)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B167" s="11">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C167" s="11">
         <v>1</v>
@@ -7458,50 +7460,51 @@
         <v>1</v>
       </c>
       <c r="E167" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167" s="11">
-        <v>0</v>
+        <f>SUM(B167:E167)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B168" s="11">
-        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C168" s="11">
+        <v>1</v>
+      </c>
+      <c r="D168" s="11">
+        <v>2</v>
+      </c>
+      <c r="E168" s="11">
+        <v>2</v>
+      </c>
+      <c r="F168" s="11">
+        <f>SUM(B168:E168)</f>
         <v>5</v>
-      </c>
-      <c r="C168" s="11">
-        <v>0</v>
-      </c>
-      <c r="D168" s="11">
-        <v>1</v>
-      </c>
-      <c r="E168" s="11">
-        <v>2</v>
-      </c>
-      <c r="F168" s="11">
-        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B169" s="13">
-        <f>SUM(B165:B168)</f>
+        <v>27</v>
+      </c>
+      <c r="F169" s="13">
+        <f>SUM(F165:F168)</f>
         <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B175" s="10" t="s">
         <v>17</v>
@@ -7516,99 +7519,99 @@
         <v>20</v>
       </c>
       <c r="F175" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B176" s="11">
-        <f>SUM(C176:F176)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C176" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D176" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E176" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176" s="11">
-        <v>0</v>
+        <f>SUM(B176:E176)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B177" s="11">
-        <f t="shared" ref="B177:B179" si="9">SUM(C177:F177)</f>
+        <v>0</v>
+      </c>
+      <c r="C177" s="11">
+        <v>1</v>
+      </c>
+      <c r="D177" s="11">
+        <v>2</v>
+      </c>
+      <c r="E177" s="11">
+        <v>2</v>
+      </c>
+      <c r="F177" s="11">
+        <f>SUM(B177:E177)</f>
         <v>5</v>
-      </c>
-      <c r="C177" s="11">
-        <v>0</v>
-      </c>
-      <c r="D177" s="11">
-        <v>1</v>
-      </c>
-      <c r="E177" s="11">
-        <v>2</v>
-      </c>
-      <c r="F177" s="11">
-        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B178" s="11">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C178" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D178" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E178" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178" s="11">
-        <v>0</v>
+        <f>SUM(B178:E178)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B179" s="11">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="C179" s="11">
+        <v>1</v>
+      </c>
+      <c r="D179" s="11">
+        <v>3</v>
+      </c>
+      <c r="E179" s="11">
+        <v>2</v>
+      </c>
+      <c r="F179" s="11">
+        <f>SUM(B179:E179)</f>
         <v>6</v>
-      </c>
-      <c r="C179" s="11">
-        <v>0</v>
-      </c>
-      <c r="D179" s="11">
-        <v>1</v>
-      </c>
-      <c r="E179" s="11">
-        <v>3</v>
-      </c>
-      <c r="F179" s="11">
-        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B180" s="13">
-        <f>SUM(B176:B179)</f>
+        <v>27</v>
+      </c>
+      <c r="F180" s="13">
+        <f>SUM(F176:F179)</f>
         <v>19</v>
       </c>
     </row>
@@ -7632,73 +7635,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6B9524-7474-4E0A-8662-F151FF23C2C5}">
-  <dimension ref="A1:L148"/>
+  <dimension ref="A1:L159"/>
   <sheetViews>
-    <sheetView topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="D153" sqref="D153"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="4">
         <f>Table112[[#This Row],[W]]+Table112[[#This Row],[D]]+Table112[[#This Row],[L]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -7715,7 +7718,7 @@
       </c>
       <c r="I5" s="5">
         <f>Table112[[#This Row],[W]]*3 +Table112[[#This Row],[D]]</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" s="6">
         <v>1</v>
@@ -7723,17 +7726,17 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="4">
         <f>Table112[[#This Row],[W]]+Table112[[#This Row],[D]]+Table112[[#This Row],[L]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -7750,28 +7753,28 @@
       </c>
       <c r="I6" s="15">
         <f>Table112[[#This Row],[W]]*3 +Table112[[#This Row],[D]]</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" s="6">
         <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="4">
         <f>Table112[[#This Row],[W]]+Table112[[#This Row],[D]]+Table112[[#This Row],[L]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -7788,7 +7791,7 @@
       </c>
       <c r="I7" s="15">
         <f>Table112[[#This Row],[W]]*3 +Table112[[#This Row],[D]]</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J7" s="6">
         <v>3</v>
@@ -7796,17 +7799,17 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="4">
         <f>Table112[[#This Row],[W]]+Table112[[#This Row],[D]]+Table112[[#This Row],[L]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
       </c>
       <c r="D8" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="6">
         <v>1</v>
@@ -7823,7 +7826,7 @@
       </c>
       <c r="I8" s="5">
         <f>Table112[[#This Row],[W]]*3 +Table112[[#This Row],[D]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="6">
         <v>4</v>
@@ -7867,49 +7870,49 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="H16" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="4">
         <f>Table1313[[#This Row],[W]]+Table1313[[#This Row],[D]]+Table1313[[#This Row],[L]]</f>
@@ -7944,7 +7947,7 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="4">
         <f>Table1313[[#This Row],[W]]+Table1313[[#This Row],[D]]+Table1313[[#This Row],[L]]</f>
@@ -7977,12 +7980,12 @@
         <v>2</v>
       </c>
       <c r="L18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="4">
         <f>Table1313[[#This Row],[W]]+Table1313[[#This Row],[D]]+Table1313[[#This Row],[L]]</f>
@@ -8017,7 +8020,7 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="4">
         <f>Table1313[[#This Row],[W]]+Table1313[[#This Row],[D]]+Table1313[[#This Row],[L]]</f>
@@ -8053,27 +8056,27 @@
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="D23" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="E23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="F23" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="11">
         <f>SUM(C24:F24)</f>
@@ -8094,7 +8097,7 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" s="11">
         <f t="shared" ref="B25:B27" si="0">SUM(C25:F25)</f>
@@ -8115,7 +8118,7 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="11">
         <f t="shared" si="0"/>
@@ -8136,7 +8139,7 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" s="11">
         <f t="shared" si="0"/>
@@ -8155,7 +8158,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="13">
         <f>SUM(B24:B27)</f>
@@ -8164,49 +8167,49 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="F36" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="H36" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="4">
         <f>Table131322[[#This Row],[W]]+Table131322[[#This Row],[D]]+Table131322[[#This Row],[L]]</f>
@@ -8241,7 +8244,7 @@
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="4">
         <f>Table131322[[#This Row],[W]]+Table131322[[#This Row],[D]]+Table131322[[#This Row],[L]]</f>
@@ -8274,12 +8277,12 @@
         <v>2</v>
       </c>
       <c r="L38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="4">
         <f>Table131322[[#This Row],[W]]+Table131322[[#This Row],[D]]+Table131322[[#This Row],[L]]</f>
@@ -8314,7 +8317,7 @@
     </row>
     <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B40" s="4">
         <f>Table131322[[#This Row],[W]]+Table131322[[#This Row],[D]]+Table131322[[#This Row],[L]]</f>
@@ -8350,27 +8353,27 @@
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="D43" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="E43" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="F43" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" s="11">
         <f>SUM(C44:F44)</f>
@@ -8391,7 +8394,7 @@
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B45" s="11">
         <f t="shared" ref="B45:B47" si="1">SUM(C45:F45)</f>
@@ -8412,7 +8415,7 @@
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B46" s="11">
         <f t="shared" si="1"/>
@@ -8433,7 +8436,7 @@
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B47" s="11">
         <f t="shared" si="1"/>
@@ -8454,7 +8457,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B48" s="13">
         <f>SUM(B44:B47)</f>
@@ -8463,49 +8466,49 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="F56" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="G56" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G56" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="H56" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B57" s="4">
         <f>Table13132223[[#This Row],[W]]+Table13132223[[#This Row],[D]]+Table13132223[[#This Row],[L]]</f>
@@ -8540,7 +8543,7 @@
     </row>
     <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B58" s="4">
         <f>Table13132223[[#This Row],[W]]+Table13132223[[#This Row],[D]]+Table13132223[[#This Row],[L]]</f>
@@ -8573,12 +8576,12 @@
         <v>2</v>
       </c>
       <c r="L58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B59" s="4">
         <f>Table13132223[[#This Row],[W]]+Table13132223[[#This Row],[D]]+Table13132223[[#This Row],[L]]</f>
@@ -8613,7 +8616,7 @@
     </row>
     <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B60" s="4">
         <f>Table13132223[[#This Row],[W]]+Table13132223[[#This Row],[D]]+Table13132223[[#This Row],[L]]</f>
@@ -8649,27 +8652,27 @@
     <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="63" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B63" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="D63" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="E63" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="F63" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B64" s="11">
         <f>SUM(C64:F64)</f>
@@ -8690,7 +8693,7 @@
     </row>
     <row r="65" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B65" s="11">
         <f t="shared" ref="B65:B67" si="2">SUM(C65:F65)</f>
@@ -8711,7 +8714,7 @@
     </row>
     <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B66" s="11">
         <f t="shared" si="2"/>
@@ -8732,7 +8735,7 @@
     </row>
     <row r="67" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B67" s="11">
         <f t="shared" si="2"/>
@@ -8753,7 +8756,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B68" s="13">
         <f>SUM(B64:B67)</f>
@@ -8762,49 +8765,49 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="F76" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="G76" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G76" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="H76" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B77" s="4">
         <f>Table1313222324[[#This Row],[W]]+Table1313222324[[#This Row],[D]]+Table1313222324[[#This Row],[L]]</f>
@@ -8839,7 +8842,7 @@
     </row>
     <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B78" s="4">
         <f>Table1313222324[[#This Row],[W]]+Table1313222324[[#This Row],[D]]+Table1313222324[[#This Row],[L]]</f>
@@ -8872,12 +8875,12 @@
         <v>2</v>
       </c>
       <c r="L78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B79" s="4">
         <f>Table1313222324[[#This Row],[W]]+Table1313222324[[#This Row],[D]]+Table1313222324[[#This Row],[L]]</f>
@@ -8912,7 +8915,7 @@
     </row>
     <row r="80" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B80" s="4">
         <f>Table1313222324[[#This Row],[W]]+Table1313222324[[#This Row],[D]]+Table1313222324[[#This Row],[L]]</f>
@@ -8948,27 +8951,27 @@
     <row r="82" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="83" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B83" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="D83" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="E83" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="F83" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="F83" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B84" s="11">
         <f>SUM(C84:F84)</f>
@@ -8989,7 +8992,7 @@
     </row>
     <row r="85" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B85" s="11">
         <f t="shared" ref="B85:B87" si="3">SUM(C85:F85)</f>
@@ -9010,7 +9013,7 @@
     </row>
     <row r="86" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B86" s="11">
         <f t="shared" si="3"/>
@@ -9031,7 +9034,7 @@
     </row>
     <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B87" s="11">
         <f t="shared" si="3"/>
@@ -9052,7 +9055,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B88" s="13">
         <f>SUM(B84:B87)</f>
@@ -9061,49 +9064,49 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E96" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="F96" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F96" s="4" t="s">
+      <c r="G96" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G96" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="H96" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B97" s="4">
         <f>Table131322232425[[#This Row],[W]]+Table131322232425[[#This Row],[D]]+Table131322232425[[#This Row],[L]]</f>
@@ -9138,7 +9141,7 @@
     </row>
     <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B98" s="4">
         <f>Table131322232425[[#This Row],[W]]+Table131322232425[[#This Row],[D]]+Table131322232425[[#This Row],[L]]</f>
@@ -9171,12 +9174,12 @@
         <v>2</v>
       </c>
       <c r="L98" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B99" s="4">
         <f>Table131322232425[[#This Row],[W]]+Table131322232425[[#This Row],[D]]+Table131322232425[[#This Row],[L]]</f>
@@ -9211,7 +9214,7 @@
     </row>
     <row r="100" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B100" s="4">
         <f>Table131322232425[[#This Row],[W]]+Table131322232425[[#This Row],[D]]+Table131322232425[[#This Row],[L]]</f>
@@ -9247,27 +9250,27 @@
     <row r="102" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="103" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B103" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="D103" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D103" s="10" t="s">
+      <c r="E103" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E103" s="10" t="s">
+      <c r="F103" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="F103" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B104" s="11">
         <f>SUM(C104:F104)</f>
@@ -9288,7 +9291,7 @@
     </row>
     <row r="105" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B105" s="11">
         <f t="shared" ref="B105:B107" si="4">SUM(C105:F105)</f>
@@ -9309,7 +9312,7 @@
     </row>
     <row r="106" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B106" s="11">
         <f t="shared" si="4"/>
@@ -9330,7 +9333,7 @@
     </row>
     <row r="107" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B107" s="11">
         <f t="shared" si="4"/>
@@ -9351,7 +9354,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B108" s="13">
         <f>SUM(B104:B107)</f>
@@ -9360,49 +9363,49 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D116" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E116" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E116" s="4" t="s">
+      <c r="F116" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F116" s="4" t="s">
+      <c r="G116" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G116" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="H116" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B117" s="4">
         <f>Table13132223242526[[#This Row],[W]]+Table13132223242526[[#This Row],[D]]+Table13132223242526[[#This Row],[L]]</f>
@@ -9437,7 +9440,7 @@
     </row>
     <row r="118" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B118" s="4">
         <f>Table13132223242526[[#This Row],[W]]+Table13132223242526[[#This Row],[D]]+Table13132223242526[[#This Row],[L]]</f>
@@ -9470,12 +9473,12 @@
         <v>2</v>
       </c>
       <c r="L118" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B119" s="4">
         <f>Table13132223242526[[#This Row],[W]]+Table13132223242526[[#This Row],[D]]+Table13132223242526[[#This Row],[L]]</f>
@@ -9510,7 +9513,7 @@
     </row>
     <row r="120" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B120" s="4">
         <f>Table13132223242526[[#This Row],[W]]+Table13132223242526[[#This Row],[D]]+Table13132223242526[[#This Row],[L]]</f>
@@ -9546,27 +9549,27 @@
     <row r="122" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="123" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B123" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C123" s="10" t="s">
+      <c r="D123" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D123" s="10" t="s">
+      <c r="E123" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E123" s="10" t="s">
+      <c r="F123" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="F123" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B124" s="11">
         <f>SUM(C124:F124)</f>
@@ -9587,7 +9590,7 @@
     </row>
     <row r="125" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B125" s="11">
         <f t="shared" ref="B125:B127" si="5">SUM(C125:F125)</f>
@@ -9608,7 +9611,7 @@
     </row>
     <row r="126" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B126" s="11">
         <f t="shared" si="5"/>
@@ -9629,7 +9632,7 @@
     </row>
     <row r="127" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B127" s="11">
         <f t="shared" si="5"/>
@@ -9650,7 +9653,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B128" s="13">
         <f>SUM(B124:B127)</f>
@@ -9659,49 +9662,49 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D136" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E136" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E136" s="4" t="s">
+      <c r="F136" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F136" s="4" t="s">
+      <c r="G136" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G136" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="H136" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B137" s="4">
         <f>Table1313222324252627[[#This Row],[W]]+Table1313222324252627[[#This Row],[D]]+Table1313222324252627[[#This Row],[L]]</f>
@@ -9736,7 +9739,7 @@
     </row>
     <row r="138" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B138" s="4">
         <f>Table1313222324252627[[#This Row],[W]]+Table1313222324252627[[#This Row],[D]]+Table1313222324252627[[#This Row],[L]]</f>
@@ -9769,12 +9772,12 @@
         <v>2</v>
       </c>
       <c r="L138" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B139" s="4">
         <f>Table1313222324252627[[#This Row],[W]]+Table1313222324252627[[#This Row],[D]]+Table1313222324252627[[#This Row],[L]]</f>
@@ -9809,7 +9812,7 @@
     </row>
     <row r="140" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B140" s="4">
         <f>Table1313222324252627[[#This Row],[W]]+Table1313222324252627[[#This Row],[D]]+Table1313222324252627[[#This Row],[L]]</f>
@@ -9845,7 +9848,7 @@
     <row r="142" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="143" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B143" s="10" t="s">
         <v>17</v>
@@ -9860,100 +9863,219 @@
         <v>20</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B144" s="11">
-        <f>SUM(C144:F144)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C144" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D144" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E144" s="11">
         <v>0</v>
       </c>
       <c r="F144" s="11">
-        <v>0</v>
+        <f>SUM(B144:E144)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B145" s="11">
-        <f>SUM(C145:F145)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C145" s="11">
         <v>0</v>
       </c>
-      <c r="D145" s="11">
-        <v>0</v>
-      </c>
-      <c r="E145" s="21">
+      <c r="D145" s="21">
+        <v>2</v>
+      </c>
+      <c r="E145" s="11">
         <v>2</v>
       </c>
       <c r="F145" s="11">
-        <v>2</v>
+        <f>SUM(B145:E145)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B146" s="11">
-        <f>SUM(C146:F146)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C146" s="11">
         <v>2</v>
       </c>
       <c r="D146" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E146" s="11">
         <v>0</v>
       </c>
       <c r="F146" s="11">
-        <v>0</v>
+        <f>SUM(B146:E146)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B147" s="11">
-        <f>SUM(C147:F147)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C147" s="11">
         <v>0</v>
       </c>
       <c r="D147" s="11">
-        <v>0</v>
-      </c>
-      <c r="E147" s="11">
-        <v>2</v>
-      </c>
-      <c r="F147" s="16">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="E147" s="16">
+        <v>2</v>
+      </c>
+      <c r="F147" s="11">
+        <f>SUM(B147:E147)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B148" s="13">
-        <f>SUM(B144:B147)</f>
+        <v>27</v>
+      </c>
+      <c r="F148" s="13">
+        <f>SUM(F144:F147)</f>
         <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="154" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D154" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E154" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F154" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B155" s="21">
+        <v>2</v>
+      </c>
+      <c r="C155" s="11">
+        <v>2</v>
+      </c>
+      <c r="D155" s="11">
+        <v>0</v>
+      </c>
+      <c r="E155" s="11">
+        <v>0</v>
+      </c>
+      <c r="F155" s="11">
+        <f>SUM(B155:E155)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B156" s="11">
+        <v>0</v>
+      </c>
+      <c r="C156" s="21">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+      <c r="E156" s="11">
+        <v>2</v>
+      </c>
+      <c r="F156" s="11">
+        <f>SUM(B156:E156)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B157" s="11">
+        <v>2</v>
+      </c>
+      <c r="C157" s="11">
+        <v>2</v>
+      </c>
+      <c r="D157" s="21">
+        <v>1</v>
+      </c>
+      <c r="E157" s="11">
+        <v>0</v>
+      </c>
+      <c r="F157" s="11">
+        <f>SUM(B157:E157)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B158" s="11">
+        <v>0</v>
+      </c>
+      <c r="C158" s="11">
+        <v>0</v>
+      </c>
+      <c r="D158" s="11">
+        <v>2</v>
+      </c>
+      <c r="E158" s="16">
+        <v>3</v>
+      </c>
+      <c r="F158" s="11">
+        <f>SUM(B158:E158)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F159" s="13">
+        <f>SUM(F155:F158)</f>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/goal_tracking.xlsx
+++ b/xlsx/goal_tracking.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldi\Documents\GitHub\tiebreak_wc\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE760F4-87AB-412B-B14F-4091A3EB0C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA99551-6F20-4652-9B8F-D8BAEB5BB593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="wc" sheetId="1" r:id="rId1"/>
-    <sheet name="eu" sheetId="2" r:id="rId2"/>
+    <sheet name="wc 2022 E" sheetId="1" r:id="rId1"/>
+    <sheet name="eu 2021 F" sheetId="2" r:id="rId2"/>
+    <sheet name="eu 2024 D" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">eu!$A$143:$E$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'eu 2021 F'!$A$143:$E$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'eu 2024 D'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="66">
   <si>
     <t>2022 FIFA World Cup - Group E</t>
   </si>
@@ -206,12 +208,45 @@
   <si>
     <t xml:space="preserve"> Before match day 3 (all teams on 0-0, +1 point)</t>
   </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>2024 FIFA Euro Cup - Group D</t>
+  </si>
+  <si>
+    <t>6’ Netherland – Austria 0-1 (Malen o.g.)</t>
+  </si>
+  <si>
+    <t>47’ Netherland – Austria 1-1 (Gapko)</t>
+  </si>
+  <si>
+    <t>56’ France – Poland 1-0 (Mbappe)</t>
+  </si>
+  <si>
+    <t>59’ Netherland – Austria 1-2 (Schmid)</t>
+  </si>
+  <si>
+    <t>75’ Netherland – Austria 2-2 (Deepay)</t>
+  </si>
+  <si>
+    <t>75’ France – Poland 1-1 (Lewandowski)</t>
+  </si>
+  <si>
+    <t>80’ Netherland – Austria 2-3 (Sabitzer)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,8 +276,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,8 +338,25 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -444,13 +503,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -515,13 +620,1544 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
+    <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
+    <cellStyle name="20% - Accent2" xfId="5" builtinId="34"/>
     <cellStyle name="20% - Accent6" xfId="2" builtinId="50"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="252">
+  <dxfs count="364">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -3924,478 +5560,702 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37DD9F5D-BB06-4F4A-A00B-282828D54D99}" name="Table1" displayName="Table1" ref="A4:J8" totalsRowShown="0" headerRowDxfId="251" dataDxfId="249" headerRowBorderDxfId="250" tableBorderDxfId="248">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37DD9F5D-BB06-4F4A-A00B-282828D54D99}" name="Table1" displayName="Table1" ref="A4:J8" totalsRowShown="0" headerRowDxfId="363" dataDxfId="361" headerRowBorderDxfId="362" tableBorderDxfId="360">
   <autoFilter ref="A4:J8" xr:uid="{BC795D6B-2F1C-47F6-8F18-33268A9CC9F1}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{E5515606-2037-4B6A-8617-CBCDF1229F01}" name="Team" dataDxfId="247"/>
-    <tableColumn id="2" xr3:uid="{10A68795-626B-42DC-B49A-FD75B99E01BE}" name="Pld" dataDxfId="246"/>
-    <tableColumn id="3" xr3:uid="{F7E8A3F1-00A8-4BBD-B466-3D98C675F780}" name="W" dataDxfId="245"/>
-    <tableColumn id="4" xr3:uid="{B873FC21-EFFE-4BE9-A0FD-A9A6CCC1136E}" name="D" dataDxfId="244"/>
-    <tableColumn id="5" xr3:uid="{D8085B16-9001-486C-BF61-7F8FACFCD9EA}" name="L" dataDxfId="243"/>
-    <tableColumn id="6" xr3:uid="{8FC55B80-E358-4E81-A5A5-25A059389447}" name="Gf" dataDxfId="242"/>
-    <tableColumn id="7" xr3:uid="{9E0CD136-A8D7-407B-97E4-282312DD8258}" name="Ga" dataDxfId="241"/>
-    <tableColumn id="8" xr3:uid="{EAC447C9-9771-48E1-92F7-A574EA0846A3}" name="Gol diff" dataDxfId="240">
+    <tableColumn id="1" xr3:uid="{E5515606-2037-4B6A-8617-CBCDF1229F01}" name="Team" dataDxfId="359"/>
+    <tableColumn id="2" xr3:uid="{10A68795-626B-42DC-B49A-FD75B99E01BE}" name="Pld" dataDxfId="358"/>
+    <tableColumn id="3" xr3:uid="{F7E8A3F1-00A8-4BBD-B466-3D98C675F780}" name="W" dataDxfId="357"/>
+    <tableColumn id="4" xr3:uid="{B873FC21-EFFE-4BE9-A0FD-A9A6CCC1136E}" name="D" dataDxfId="356"/>
+    <tableColumn id="5" xr3:uid="{D8085B16-9001-486C-BF61-7F8FACFCD9EA}" name="L" dataDxfId="355"/>
+    <tableColumn id="6" xr3:uid="{8FC55B80-E358-4E81-A5A5-25A059389447}" name="Gf" dataDxfId="354"/>
+    <tableColumn id="7" xr3:uid="{9E0CD136-A8D7-407B-97E4-282312DD8258}" name="Ga" dataDxfId="353"/>
+    <tableColumn id="8" xr3:uid="{EAC447C9-9771-48E1-92F7-A574EA0846A3}" name="Gol diff" dataDxfId="352">
       <calculatedColumnFormula>Table1[[#This Row],[Gf]]-Table1[[#This Row],[Ga]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{349AEB50-3040-4A46-A562-63EA28D841E5}" name="Pts" dataDxfId="239">
+    <tableColumn id="9" xr3:uid="{349AEB50-3040-4A46-A562-63EA28D841E5}" name="Pts" dataDxfId="351">
       <calculatedColumnFormula>Table1[[#This Row],[W]]*3 +Table1[[#This Row],[D]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{7093C39A-0F03-42F6-B889-8F402787A1DA}" name="standing" dataDxfId="238"/>
+    <tableColumn id="10" xr3:uid="{7093C39A-0F03-42F6-B889-8F402787A1DA}" name="standing" dataDxfId="350"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{C28DF6E5-3DEC-4A83-82EB-9A37FD4EB408}" name="Table134567891011" displayName="Table134567891011" ref="A157:J161" totalsRowShown="0" headerRowDxfId="125" dataDxfId="123" headerRowBorderDxfId="124" tableBorderDxfId="122">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{C28DF6E5-3DEC-4A83-82EB-9A37FD4EB408}" name="Table134567891011" displayName="Table134567891011" ref="A157:J161" totalsRowShown="0" headerRowDxfId="237" dataDxfId="235" headerRowBorderDxfId="236" tableBorderDxfId="234">
   <autoFilter ref="A157:J161" xr:uid="{51B33392-C805-4288-B1EC-5276D016038D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A158:J161">
     <sortCondition descending="1" ref="I138:I142"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4650D630-D419-4944-AA45-ACBCD35F4677}" name="Team" dataDxfId="121"/>
-    <tableColumn id="2" xr3:uid="{B374D251-ECC0-4E76-9F40-036C912535B0}" name="Pld" dataDxfId="120"/>
-    <tableColumn id="3" xr3:uid="{D4602AFC-0F9F-4ECA-933F-F9BEFE4A94AA}" name="W" dataDxfId="119"/>
-    <tableColumn id="4" xr3:uid="{948CDDA7-791B-48F7-91CA-7EAE2E1C1D4F}" name="D" dataDxfId="118"/>
-    <tableColumn id="5" xr3:uid="{DDD34473-689A-4E23-A89D-F522904C55B1}" name="L" dataDxfId="117"/>
-    <tableColumn id="6" xr3:uid="{1F7496ED-1AD7-4D71-9536-F028997BDE1C}" name="Gf" dataDxfId="116"/>
-    <tableColumn id="7" xr3:uid="{8D620ACC-8FA7-4E4A-A403-2B9E7E427B3C}" name="Ga" dataDxfId="115"/>
-    <tableColumn id="8" xr3:uid="{0FCB95CC-92C3-4B68-8F51-97F207159946}" name="Gol diff" dataDxfId="114">
+    <tableColumn id="1" xr3:uid="{4650D630-D419-4944-AA45-ACBCD35F4677}" name="Team" dataDxfId="233"/>
+    <tableColumn id="2" xr3:uid="{B374D251-ECC0-4E76-9F40-036C912535B0}" name="Pld" dataDxfId="232"/>
+    <tableColumn id="3" xr3:uid="{D4602AFC-0F9F-4ECA-933F-F9BEFE4A94AA}" name="W" dataDxfId="231"/>
+    <tableColumn id="4" xr3:uid="{948CDDA7-791B-48F7-91CA-7EAE2E1C1D4F}" name="D" dataDxfId="230"/>
+    <tableColumn id="5" xr3:uid="{DDD34473-689A-4E23-A89D-F522904C55B1}" name="L" dataDxfId="229"/>
+    <tableColumn id="6" xr3:uid="{1F7496ED-1AD7-4D71-9536-F028997BDE1C}" name="Gf" dataDxfId="228"/>
+    <tableColumn id="7" xr3:uid="{8D620ACC-8FA7-4E4A-A403-2B9E7E427B3C}" name="Ga" dataDxfId="227"/>
+    <tableColumn id="8" xr3:uid="{0FCB95CC-92C3-4B68-8F51-97F207159946}" name="Gol diff" dataDxfId="226">
       <calculatedColumnFormula>Table134567891011[[#This Row],[Gf]]-Table134567891011[[#This Row],[Ga]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E3908FA1-1905-47E7-B547-823FD0C9288E}" name="Pts" dataDxfId="113">
+    <tableColumn id="9" xr3:uid="{E3908FA1-1905-47E7-B547-823FD0C9288E}" name="Pts" dataDxfId="225">
       <calculatedColumnFormula>Table134567891011[[#This Row],[W]]*3+Table134567891011[[#This Row],[D]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{A76E9F0B-4892-4292-BE7A-CCE3604FD650}" name="standing" dataDxfId="112"/>
+    <tableColumn id="10" xr3:uid="{A76E9F0B-4892-4292-BE7A-CCE3604FD650}" name="standing" dataDxfId="224"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5DAC64F2-482A-4F60-B2E6-57E3462A63AB}" name="Table112" displayName="Table112" ref="A4:J8" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5DAC64F2-482A-4F60-B2E6-57E3462A63AB}" name="Table112" displayName="Table112" ref="A4:J8" totalsRowShown="0" headerRowDxfId="223" dataDxfId="221" headerRowBorderDxfId="222" tableBorderDxfId="220">
   <autoFilter ref="A4:J8" xr:uid="{BC795D6B-2F1C-47F6-8F18-33268A9CC9F1}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{1C1597CE-0872-426C-A38F-F6E20E5BDA9B}" name="Team" dataDxfId="107"/>
-    <tableColumn id="2" xr3:uid="{D989D56A-D480-4AB9-A837-0F4B8E79619B}" name="Pld" dataDxfId="106">
+    <tableColumn id="1" xr3:uid="{1C1597CE-0872-426C-A38F-F6E20E5BDA9B}" name="Team" dataDxfId="219"/>
+    <tableColumn id="2" xr3:uid="{D989D56A-D480-4AB9-A837-0F4B8E79619B}" name="Pld" dataDxfId="218">
       <calculatedColumnFormula>Table112[[#This Row],[W]]+Table112[[#This Row],[D]]+Table112[[#This Row],[L]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{4B94F231-7626-46CD-B777-3355F4CDD428}" name="W" dataDxfId="105"/>
-    <tableColumn id="4" xr3:uid="{63C5C51F-67B5-4D72-A3B3-FCBEE2E13676}" name="D" dataDxfId="104"/>
-    <tableColumn id="5" xr3:uid="{C5EA15B6-D163-4B3C-A274-04677DA8CDB6}" name="L" dataDxfId="103"/>
-    <tableColumn id="6" xr3:uid="{DF2E18D6-1895-417D-B191-7AA6291103A8}" name="Gf" dataDxfId="102"/>
-    <tableColumn id="7" xr3:uid="{1C19AB81-231F-4980-BFF9-57864953A42F}" name="Ga" dataDxfId="101"/>
-    <tableColumn id="8" xr3:uid="{8B5156C6-0B72-46D6-9FE7-A58C60C467F0}" name="Gol diff" dataDxfId="100">
+    <tableColumn id="3" xr3:uid="{4B94F231-7626-46CD-B777-3355F4CDD428}" name="W" dataDxfId="217"/>
+    <tableColumn id="4" xr3:uid="{63C5C51F-67B5-4D72-A3B3-FCBEE2E13676}" name="D" dataDxfId="216"/>
+    <tableColumn id="5" xr3:uid="{C5EA15B6-D163-4B3C-A274-04677DA8CDB6}" name="L" dataDxfId="215"/>
+    <tableColumn id="6" xr3:uid="{DF2E18D6-1895-417D-B191-7AA6291103A8}" name="Gf" dataDxfId="214"/>
+    <tableColumn id="7" xr3:uid="{1C19AB81-231F-4980-BFF9-57864953A42F}" name="Ga" dataDxfId="213"/>
+    <tableColumn id="8" xr3:uid="{8B5156C6-0B72-46D6-9FE7-A58C60C467F0}" name="Gol diff" dataDxfId="212">
       <calculatedColumnFormula>Table112[[#This Row],[Gf]]-Table112[[#This Row],[Ga]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{354089E8-7545-441C-A838-1A4DDCA0F667}" name="Pts" dataDxfId="99">
+    <tableColumn id="9" xr3:uid="{354089E8-7545-441C-A838-1A4DDCA0F667}" name="Pts" dataDxfId="211">
       <calculatedColumnFormula>Table112[[#This Row],[W]]*3 +Table112[[#This Row],[D]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{887BE387-0217-46D5-BC0E-6FB33448F771}" name="standing" dataDxfId="98"/>
+    <tableColumn id="10" xr3:uid="{887BE387-0217-46D5-BC0E-6FB33448F771}" name="standing" dataDxfId="210"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{42D67862-79ED-479F-8F79-FE739ACC47A6}" name="Table1313" displayName="Table1313" ref="A16:J20" totalsRowShown="0" headerRowDxfId="97" dataDxfId="95" headerRowBorderDxfId="96" tableBorderDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{42D67862-79ED-479F-8F79-FE739ACC47A6}" name="Table1313" displayName="Table1313" ref="A16:J20" totalsRowShown="0" headerRowDxfId="209" dataDxfId="207" headerRowBorderDxfId="208" tableBorderDxfId="206">
   <autoFilter ref="A16:J20" xr:uid="{F45FC70F-D0BA-437A-947E-C9142BE306D9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:J20">
     <sortCondition ref="J16:J20"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{680E05DB-6CD0-438F-A300-B3F86C962CC5}" name="Team" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{1BD107C3-331C-446B-A2EF-444F1A6439E9}" name="Pld" dataDxfId="92">
+    <tableColumn id="1" xr3:uid="{680E05DB-6CD0-438F-A300-B3F86C962CC5}" name="Team" dataDxfId="205"/>
+    <tableColumn id="2" xr3:uid="{1BD107C3-331C-446B-A2EF-444F1A6439E9}" name="Pld" dataDxfId="204">
       <calculatedColumnFormula>Table1313[[#This Row],[W]]+Table1313[[#This Row],[D]]+Table1313[[#This Row],[L]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{65B5B7EA-F2D9-4979-B16F-0CD75E7D02E7}" name="W" dataDxfId="91"/>
-    <tableColumn id="4" xr3:uid="{77882A3B-8990-43C7-A42B-869B8B842382}" name="D" dataDxfId="90"/>
-    <tableColumn id="5" xr3:uid="{64093928-E0CD-4E1D-8651-43388608C55D}" name="L" dataDxfId="89"/>
-    <tableColumn id="6" xr3:uid="{53F62282-2132-4A1F-97D1-50331A137421}" name="Gf" dataDxfId="88"/>
-    <tableColumn id="7" xr3:uid="{50ADC421-ED8D-41EE-B736-E96704190707}" name="Ga" dataDxfId="87"/>
-    <tableColumn id="8" xr3:uid="{BE4DEE6D-3A10-4F88-B2C8-81FF30BAFFCD}" name="Gdiff" dataDxfId="86">
+    <tableColumn id="3" xr3:uid="{65B5B7EA-F2D9-4979-B16F-0CD75E7D02E7}" name="W" dataDxfId="203"/>
+    <tableColumn id="4" xr3:uid="{77882A3B-8990-43C7-A42B-869B8B842382}" name="D" dataDxfId="202"/>
+    <tableColumn id="5" xr3:uid="{64093928-E0CD-4E1D-8651-43388608C55D}" name="L" dataDxfId="201"/>
+    <tableColumn id="6" xr3:uid="{53F62282-2132-4A1F-97D1-50331A137421}" name="Gf" dataDxfId="200"/>
+    <tableColumn id="7" xr3:uid="{50ADC421-ED8D-41EE-B736-E96704190707}" name="Ga" dataDxfId="199"/>
+    <tableColumn id="8" xr3:uid="{BE4DEE6D-3A10-4F88-B2C8-81FF30BAFFCD}" name="Gdiff" dataDxfId="198">
       <calculatedColumnFormula>Table1313[[#This Row],[Gf]]-Table1313[[#This Row],[Ga]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1C50E053-B86A-4F72-8204-F3939237E64C}" name="Pts" dataDxfId="85">
+    <tableColumn id="9" xr3:uid="{1C50E053-B86A-4F72-8204-F3939237E64C}" name="Pts" dataDxfId="197">
       <calculatedColumnFormula>Table1313[[#This Row],[W]]*3 +Table1313[[#This Row],[D]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{EDBE8A7B-0A76-42F5-842B-8B9E0179C4FA}" name="standing" dataDxfId="84"/>
+    <tableColumn id="10" xr3:uid="{EDBE8A7B-0A76-42F5-842B-8B9E0179C4FA}" name="standing" dataDxfId="196"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{F7FC4540-FC00-4812-9477-02B7EC1A2995}" name="Table131322" displayName="Table131322" ref="A36:J40" totalsRowShown="0" headerRowDxfId="83" dataDxfId="81" headerRowBorderDxfId="82" tableBorderDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{F7FC4540-FC00-4812-9477-02B7EC1A2995}" name="Table131322" displayName="Table131322" ref="A36:J40" totalsRowShown="0" headerRowDxfId="195" dataDxfId="193" headerRowBorderDxfId="194" tableBorderDxfId="192">
   <autoFilter ref="A36:J40" xr:uid="{F7FC4540-FC00-4812-9477-02B7EC1A2995}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A37:J40">
     <sortCondition descending="1" ref="I36:I40"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{43D37D6D-1802-41B4-BA61-5803452403C6}" name="Team" dataDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{8948A072-78E3-4BFA-B2FA-E460FEEABA21}" name="Pld" dataDxfId="78">
+    <tableColumn id="1" xr3:uid="{43D37D6D-1802-41B4-BA61-5803452403C6}" name="Team" dataDxfId="191"/>
+    <tableColumn id="2" xr3:uid="{8948A072-78E3-4BFA-B2FA-E460FEEABA21}" name="Pld" dataDxfId="190">
       <calculatedColumnFormula>Table131322[[#This Row],[W]]+Table131322[[#This Row],[D]]+Table131322[[#This Row],[L]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{18D78855-2E82-4F78-A2C1-6DC2691964ED}" name="W" dataDxfId="77"/>
-    <tableColumn id="4" xr3:uid="{F1433F4C-C36D-48AD-ADD2-F815342F598C}" name="D" dataDxfId="76"/>
-    <tableColumn id="5" xr3:uid="{220D8A94-11F4-4199-A185-F39754BC2353}" name="L" dataDxfId="75"/>
-    <tableColumn id="6" xr3:uid="{59266E75-A54D-4D03-997B-B797F91852E5}" name="Gf" dataDxfId="74"/>
-    <tableColumn id="7" xr3:uid="{7F91E1C0-204D-4D53-B9DE-B308187401F2}" name="Ga" dataDxfId="73"/>
-    <tableColumn id="8" xr3:uid="{12294049-750B-4C09-A3B3-73C2753AB000}" name="Gdiff" dataDxfId="72">
+    <tableColumn id="3" xr3:uid="{18D78855-2E82-4F78-A2C1-6DC2691964ED}" name="W" dataDxfId="189"/>
+    <tableColumn id="4" xr3:uid="{F1433F4C-C36D-48AD-ADD2-F815342F598C}" name="D" dataDxfId="188"/>
+    <tableColumn id="5" xr3:uid="{220D8A94-11F4-4199-A185-F39754BC2353}" name="L" dataDxfId="187"/>
+    <tableColumn id="6" xr3:uid="{59266E75-A54D-4D03-997B-B797F91852E5}" name="Gf" dataDxfId="186"/>
+    <tableColumn id="7" xr3:uid="{7F91E1C0-204D-4D53-B9DE-B308187401F2}" name="Ga" dataDxfId="185"/>
+    <tableColumn id="8" xr3:uid="{12294049-750B-4C09-A3B3-73C2753AB000}" name="Gdiff" dataDxfId="184">
       <calculatedColumnFormula>Table131322[[#This Row],[Gf]]-Table131322[[#This Row],[Ga]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{AF2429B7-023C-4C93-8C02-6E9B4FF08D25}" name="Pts" dataDxfId="71">
+    <tableColumn id="9" xr3:uid="{AF2429B7-023C-4C93-8C02-6E9B4FF08D25}" name="Pts" dataDxfId="183">
       <calculatedColumnFormula>Table131322[[#This Row],[W]]*3 +Table131322[[#This Row],[D]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{85C644BF-7C53-4A08-A7B8-B44D6D3AFEF6}" name="standing" dataDxfId="70"/>
+    <tableColumn id="10" xr3:uid="{85C644BF-7C53-4A08-A7B8-B44D6D3AFEF6}" name="standing" dataDxfId="182"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{22FF6538-CC86-418E-B1DE-3E36EFBA775E}" name="Table13132223" displayName="Table13132223" ref="A56:J60" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68" tableBorderDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{22FF6538-CC86-418E-B1DE-3E36EFBA775E}" name="Table13132223" displayName="Table13132223" ref="A56:J60" totalsRowShown="0" headerRowDxfId="181" dataDxfId="179" headerRowBorderDxfId="180" tableBorderDxfId="178">
   <autoFilter ref="A56:J60" xr:uid="{22FF6538-CC86-418E-B1DE-3E36EFBA775E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A57:J60">
     <sortCondition descending="1" ref="I56:I60"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{F6BB4EA8-A372-44CE-862F-170E0DBF86AD}" name="Team" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{31B5A2B8-AFA7-474B-A96D-D222A7AD65EE}" name="Pld" dataDxfId="64">
+    <tableColumn id="1" xr3:uid="{F6BB4EA8-A372-44CE-862F-170E0DBF86AD}" name="Team" dataDxfId="177"/>
+    <tableColumn id="2" xr3:uid="{31B5A2B8-AFA7-474B-A96D-D222A7AD65EE}" name="Pld" dataDxfId="176">
       <calculatedColumnFormula>Table13132223[[#This Row],[W]]+Table13132223[[#This Row],[D]]+Table13132223[[#This Row],[L]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8884AFE5-6E5B-453C-A987-20C52D5A02C9}" name="W" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{28FBA300-8692-453D-9E92-EBC45D96C0C0}" name="D" dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{909058A9-CCA9-487D-A799-6C96FE67D13E}" name="L" dataDxfId="61"/>
-    <tableColumn id="6" xr3:uid="{2249E664-4753-4ED5-8CDB-7612EBF6E63E}" name="Gf" dataDxfId="60"/>
-    <tableColumn id="7" xr3:uid="{37E06E47-9E49-4796-BF4E-D8886B34F9CF}" name="Ga" dataDxfId="59"/>
-    <tableColumn id="8" xr3:uid="{8A1209D2-9A3F-4A39-ABC8-D2FDB4C06340}" name="Gdiff" dataDxfId="58">
+    <tableColumn id="3" xr3:uid="{8884AFE5-6E5B-453C-A987-20C52D5A02C9}" name="W" dataDxfId="175"/>
+    <tableColumn id="4" xr3:uid="{28FBA300-8692-453D-9E92-EBC45D96C0C0}" name="D" dataDxfId="174"/>
+    <tableColumn id="5" xr3:uid="{909058A9-CCA9-487D-A799-6C96FE67D13E}" name="L" dataDxfId="173"/>
+    <tableColumn id="6" xr3:uid="{2249E664-4753-4ED5-8CDB-7612EBF6E63E}" name="Gf" dataDxfId="172"/>
+    <tableColumn id="7" xr3:uid="{37E06E47-9E49-4796-BF4E-D8886B34F9CF}" name="Ga" dataDxfId="171"/>
+    <tableColumn id="8" xr3:uid="{8A1209D2-9A3F-4A39-ABC8-D2FDB4C06340}" name="Gdiff" dataDxfId="170">
       <calculatedColumnFormula>Table13132223[[#This Row],[Gf]]-Table13132223[[#This Row],[Ga]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0F05A3D5-A8C1-41DF-893B-DDBF37ECE10F}" name="Pts" dataDxfId="57">
+    <tableColumn id="9" xr3:uid="{0F05A3D5-A8C1-41DF-893B-DDBF37ECE10F}" name="Pts" dataDxfId="169">
       <calculatedColumnFormula>Table13132223[[#This Row],[W]]*3 +Table13132223[[#This Row],[D]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{A6D6D8A3-678C-42C3-B57B-19022693F9D4}" name="standing" dataDxfId="56"/>
+    <tableColumn id="10" xr3:uid="{A6D6D8A3-678C-42C3-B57B-19022693F9D4}" name="standing" dataDxfId="168"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{29BF89AB-144B-4A0A-9387-A5F123012BAE}" name="Table1313222324" displayName="Table1313222324" ref="A76:J80" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54" tableBorderDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{29BF89AB-144B-4A0A-9387-A5F123012BAE}" name="Table1313222324" displayName="Table1313222324" ref="A76:J80" totalsRowShown="0" headerRowDxfId="167" dataDxfId="165" headerRowBorderDxfId="166" tableBorderDxfId="164">
   <autoFilter ref="A76:J80" xr:uid="{29BF89AB-144B-4A0A-9387-A5F123012BAE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A77:J80">
     <sortCondition descending="1" ref="I76:I80"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{8EA01C16-AF42-498A-994D-8496F6203CBC}" name="Team" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{4E5F4474-38D4-4A4E-9401-6F3B144FD616}" name="Pld" dataDxfId="50">
+    <tableColumn id="1" xr3:uid="{8EA01C16-AF42-498A-994D-8496F6203CBC}" name="Team" dataDxfId="163"/>
+    <tableColumn id="2" xr3:uid="{4E5F4474-38D4-4A4E-9401-6F3B144FD616}" name="Pld" dataDxfId="162">
       <calculatedColumnFormula>Table1313222324[[#This Row],[W]]+Table1313222324[[#This Row],[D]]+Table1313222324[[#This Row],[L]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{7642B2A0-1BD7-4435-BADC-1922F8CB68BB}" name="W" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{BBF9072F-9465-4854-A352-F6DA5F075E34}" name="D" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{B73EBBCC-7426-41D2-B6F5-078406CB95D1}" name="L" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{E0A61D53-4B25-4F3F-897B-46BC5963DFF1}" name="Gf" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{AEBA596B-4A39-4B12-B3E4-335AE00D9578}" name="Ga" dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{D9E7F5E3-BBB4-477E-8169-0B7632E87F46}" name="Gdiff" dataDxfId="44">
+    <tableColumn id="3" xr3:uid="{7642B2A0-1BD7-4435-BADC-1922F8CB68BB}" name="W" dataDxfId="161"/>
+    <tableColumn id="4" xr3:uid="{BBF9072F-9465-4854-A352-F6DA5F075E34}" name="D" dataDxfId="160"/>
+    <tableColumn id="5" xr3:uid="{B73EBBCC-7426-41D2-B6F5-078406CB95D1}" name="L" dataDxfId="159"/>
+    <tableColumn id="6" xr3:uid="{E0A61D53-4B25-4F3F-897B-46BC5963DFF1}" name="Gf" dataDxfId="158"/>
+    <tableColumn id="7" xr3:uid="{AEBA596B-4A39-4B12-B3E4-335AE00D9578}" name="Ga" dataDxfId="157"/>
+    <tableColumn id="8" xr3:uid="{D9E7F5E3-BBB4-477E-8169-0B7632E87F46}" name="Gdiff" dataDxfId="156">
       <calculatedColumnFormula>Table1313222324[[#This Row],[Gf]]-Table1313222324[[#This Row],[Ga]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{5767D4FF-341D-4BE8-A0B0-408235BD1244}" name="Pts" dataDxfId="43">
+    <tableColumn id="9" xr3:uid="{5767D4FF-341D-4BE8-A0B0-408235BD1244}" name="Pts" dataDxfId="155">
       <calculatedColumnFormula>Table1313222324[[#This Row],[W]]*3 +Table1313222324[[#This Row],[D]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{336D6720-DC09-483A-8B75-8F218FF55BC5}" name="standing" dataDxfId="42"/>
+    <tableColumn id="10" xr3:uid="{336D6720-DC09-483A-8B75-8F218FF55BC5}" name="standing" dataDxfId="154"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{FCD1AF56-6E6A-4078-93BD-0AF7A4861C58}" name="Table131322232425" displayName="Table131322232425" ref="A96:J100" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{FCD1AF56-6E6A-4078-93BD-0AF7A4861C58}" name="Table131322232425" displayName="Table131322232425" ref="A96:J100" totalsRowShown="0" headerRowDxfId="153" dataDxfId="151" headerRowBorderDxfId="152" tableBorderDxfId="150">
   <autoFilter ref="A96:J100" xr:uid="{FCD1AF56-6E6A-4078-93BD-0AF7A4861C58}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A97:J100">
     <sortCondition descending="1" ref="I96:I100"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{21568EB9-38AC-475F-AB46-A6491614F31A}" name="Team" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{01EB9FA4-70F8-42A0-93F3-266B102B166F}" name="Pld" dataDxfId="36">
+    <tableColumn id="1" xr3:uid="{21568EB9-38AC-475F-AB46-A6491614F31A}" name="Team" dataDxfId="149"/>
+    <tableColumn id="2" xr3:uid="{01EB9FA4-70F8-42A0-93F3-266B102B166F}" name="Pld" dataDxfId="148">
       <calculatedColumnFormula>Table131322232425[[#This Row],[W]]+Table131322232425[[#This Row],[D]]+Table131322232425[[#This Row],[L]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9AAF6D03-6B5A-4C75-886E-32239F2914F0}" name="W" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{2E03B5A1-F116-4168-90D3-D933562D740E}" name="D" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{E38E9870-9F72-46D9-A9FB-CE0D4A056ED3}" name="L" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{4044388C-D5EE-418E-8F68-C914DC2B60F4}" name="Gf" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{49F04251-3029-4E6B-8DCD-D9B10A050C06}" name="Ga" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{7CB5569B-CD86-4A93-B7AB-8ECE8BE51BFA}" name="Gdiff" dataDxfId="30">
+    <tableColumn id="3" xr3:uid="{9AAF6D03-6B5A-4C75-886E-32239F2914F0}" name="W" dataDxfId="147"/>
+    <tableColumn id="4" xr3:uid="{2E03B5A1-F116-4168-90D3-D933562D740E}" name="D" dataDxfId="146"/>
+    <tableColumn id="5" xr3:uid="{E38E9870-9F72-46D9-A9FB-CE0D4A056ED3}" name="L" dataDxfId="145"/>
+    <tableColumn id="6" xr3:uid="{4044388C-D5EE-418E-8F68-C914DC2B60F4}" name="Gf" dataDxfId="144"/>
+    <tableColumn id="7" xr3:uid="{49F04251-3029-4E6B-8DCD-D9B10A050C06}" name="Ga" dataDxfId="143"/>
+    <tableColumn id="8" xr3:uid="{7CB5569B-CD86-4A93-B7AB-8ECE8BE51BFA}" name="Gdiff" dataDxfId="142">
       <calculatedColumnFormula>Table131322232425[[#This Row],[Gf]]-Table131322232425[[#This Row],[Ga]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D968F557-8575-4604-A264-F61C6C597331}" name="Pts" dataDxfId="29">
+    <tableColumn id="9" xr3:uid="{D968F557-8575-4604-A264-F61C6C597331}" name="Pts" dataDxfId="141">
       <calculatedColumnFormula>Table131322232425[[#This Row],[W]]*3 +Table131322232425[[#This Row],[D]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{174A68FA-BF5D-4C92-B529-45E6DACC48A6}" name="standing" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{174A68FA-BF5D-4C92-B529-45E6DACC48A6}" name="standing" dataDxfId="140"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{A7593144-B244-422D-9189-96C0EA9952B7}" name="Table13132223242526" displayName="Table13132223242526" ref="A116:J120" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{A7593144-B244-422D-9189-96C0EA9952B7}" name="Table13132223242526" displayName="Table13132223242526" ref="A116:J120" totalsRowShown="0" headerRowDxfId="139" dataDxfId="137" headerRowBorderDxfId="138" tableBorderDxfId="136">
   <autoFilter ref="A116:J120" xr:uid="{A7593144-B244-422D-9189-96C0EA9952B7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A117:J120">
     <sortCondition ref="J116:J120"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{20612054-7301-4874-A04B-ED327FC79A22}" name="Team" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{7996FA84-8099-40A2-B67A-8A4DEA941519}" name="Pld" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{20612054-7301-4874-A04B-ED327FC79A22}" name="Team" dataDxfId="135"/>
+    <tableColumn id="2" xr3:uid="{7996FA84-8099-40A2-B67A-8A4DEA941519}" name="Pld" dataDxfId="134">
       <calculatedColumnFormula>Table13132223242526[[#This Row],[W]]+Table13132223242526[[#This Row],[D]]+Table13132223242526[[#This Row],[L]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E3D4A02F-3CAB-4384-88E2-6A372823F42C}" name="W" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{F9614837-2FF6-4AE4-A895-FA4CA73AD33F}" name="D" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{A8C5AAFE-986C-4626-8AB5-34FA9BF352DF}" name="L" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{17A19112-5172-4948-BE39-16E9143BF488}" name="Gf" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{A544A5C0-2026-4D7B-B45D-1D2B73D3DED7}" name="Ga" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{9F9DE7AD-C5F2-4CA7-AB17-BA3607411633}" name="Gdiff" dataDxfId="16">
+    <tableColumn id="3" xr3:uid="{E3D4A02F-3CAB-4384-88E2-6A372823F42C}" name="W" dataDxfId="133"/>
+    <tableColumn id="4" xr3:uid="{F9614837-2FF6-4AE4-A895-FA4CA73AD33F}" name="D" dataDxfId="132"/>
+    <tableColumn id="5" xr3:uid="{A8C5AAFE-986C-4626-8AB5-34FA9BF352DF}" name="L" dataDxfId="131"/>
+    <tableColumn id="6" xr3:uid="{17A19112-5172-4948-BE39-16E9143BF488}" name="Gf" dataDxfId="130"/>
+    <tableColumn id="7" xr3:uid="{A544A5C0-2026-4D7B-B45D-1D2B73D3DED7}" name="Ga" dataDxfId="129"/>
+    <tableColumn id="8" xr3:uid="{9F9DE7AD-C5F2-4CA7-AB17-BA3607411633}" name="Gdiff" dataDxfId="128">
       <calculatedColumnFormula>Table13132223242526[[#This Row],[Gf]]-Table13132223242526[[#This Row],[Ga]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B3718D41-3885-4A07-A722-9F75EDBBD6DE}" name="Pts" dataDxfId="15">
+    <tableColumn id="9" xr3:uid="{B3718D41-3885-4A07-A722-9F75EDBBD6DE}" name="Pts" dataDxfId="127">
       <calculatedColumnFormula>Table13132223242526[[#This Row],[W]]*3 +Table13132223242526[[#This Row],[D]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{DB14A884-A088-4F8E-B851-BEB5BDDE1E28}" name="standing" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{DB14A884-A088-4F8E-B851-BEB5BDDE1E28}" name="standing" dataDxfId="126"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{1EA6E568-C5D5-4C93-B6EB-4A9940A7F7F0}" name="Table1313222324252627" displayName="Table1313222324252627" ref="A136:J140" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{1EA6E568-C5D5-4C93-B6EB-4A9940A7F7F0}" name="Table1313222324252627" displayName="Table1313222324252627" ref="A136:J140" totalsRowShown="0" headerRowDxfId="125" dataDxfId="123" headerRowBorderDxfId="124" tableBorderDxfId="122">
   <autoFilter ref="A136:J140" xr:uid="{1EA6E568-C5D5-4C93-B6EB-4A9940A7F7F0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A137:J140">
     <sortCondition descending="1" ref="I136:I140"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D0893EB2-7319-40B5-B304-F0B25E44B2D2}" name="Team" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{C7E49AD9-256C-4443-81ED-46823797C0F2}" name="Pld" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{D0893EB2-7319-40B5-B304-F0B25E44B2D2}" name="Team" dataDxfId="121"/>
+    <tableColumn id="2" xr3:uid="{C7E49AD9-256C-4443-81ED-46823797C0F2}" name="Pld" dataDxfId="120">
       <calculatedColumnFormula>Table1313222324252627[[#This Row],[W]]+Table1313222324252627[[#This Row],[D]]+Table1313222324252627[[#This Row],[L]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{997409DA-E747-410D-AFA7-2BE3F39DA595}" name="W" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{386EBF43-8572-4D48-82E1-CAE4D773C0BA}" name="D" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{E4252821-D32C-4387-9090-3606C2DEA559}" name="L" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{DB76B39E-5324-45E0-A84D-B9228BCAD22B}" name="Gf" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{D87DDE79-AFE9-4431-A152-2D3EEC4D9442}" name="Ga" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{D6BB033B-1B3C-4636-8CB7-FE5CC3FB0AFB}" name="Gdiff" dataDxfId="2">
+    <tableColumn id="3" xr3:uid="{997409DA-E747-410D-AFA7-2BE3F39DA595}" name="W" dataDxfId="119"/>
+    <tableColumn id="4" xr3:uid="{386EBF43-8572-4D48-82E1-CAE4D773C0BA}" name="D" dataDxfId="118"/>
+    <tableColumn id="5" xr3:uid="{E4252821-D32C-4387-9090-3606C2DEA559}" name="L" dataDxfId="117"/>
+    <tableColumn id="6" xr3:uid="{DB76B39E-5324-45E0-A84D-B9228BCAD22B}" name="Gf" dataDxfId="116"/>
+    <tableColumn id="7" xr3:uid="{D87DDE79-AFE9-4431-A152-2D3EEC4D9442}" name="Ga" dataDxfId="115"/>
+    <tableColumn id="8" xr3:uid="{D6BB033B-1B3C-4636-8CB7-FE5CC3FB0AFB}" name="Gdiff" dataDxfId="114">
       <calculatedColumnFormula>Table1313222324252627[[#This Row],[Gf]]-Table1313222324252627[[#This Row],[Ga]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E32C3238-E5A7-4BFE-904E-127C98827E93}" name="Pts" dataDxfId="1">
+    <tableColumn id="9" xr3:uid="{E32C3238-E5A7-4BFE-904E-127C98827E93}" name="Pts" dataDxfId="113">
       <calculatedColumnFormula>Table1313222324252627[[#This Row],[W]]*3 +Table1313222324252627[[#This Row],[D]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{25A29D01-00FE-4BB4-AEA2-C52BDD18564E}" name="standing" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{25A29D01-00FE-4BB4-AEA2-C52BDD18564E}" name="standing" dataDxfId="112"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{2D7DE0A9-FE4E-4506-999E-FCDEA577B6F5}" name="Table11214" displayName="Table11214" ref="A4:J8" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108">
+  <autoFilter ref="A4:J8" xr:uid="{BC795D6B-2F1C-47F6-8F18-33268A9CC9F1}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:J8">
+    <sortCondition ref="J4:J8"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{D9D237E7-9C19-45DE-A7AD-7F19C7931281}" name="Team" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{C83B1292-A383-4B6D-9D88-59D44E7BF69C}" name="Pld" dataDxfId="106">
+      <calculatedColumnFormula>Table11214[[#This Row],[W]]+Table11214[[#This Row],[D]]+Table11214[[#This Row],[L]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{5A08317B-4C67-49B6-ADEB-5D903A31CB4F}" name="W" dataDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{3D956FAB-13F8-4ADD-B6BA-929CEA34A5FD}" name="D" dataDxfId="104"/>
+    <tableColumn id="5" xr3:uid="{A14FA02B-DD52-47F7-B8DA-D9D5AF03A038}" name="L" dataDxfId="103"/>
+    <tableColumn id="6" xr3:uid="{04D004FA-C4E9-4CCE-85A4-CF0E71449C11}" name="Gf" dataDxfId="102"/>
+    <tableColumn id="7" xr3:uid="{97B19C00-0CB7-48AC-8031-0B8B70241C28}" name="Ga" dataDxfId="101"/>
+    <tableColumn id="8" xr3:uid="{08EC2A55-1B5B-4B94-A61C-655284AF5BA8}" name="Gol diff" dataDxfId="100">
+      <calculatedColumnFormula>Table11214[[#This Row],[Gf]]-Table11214[[#This Row],[Ga]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{C33408EC-1010-48E4-B9E1-D9528A0D8D4A}" name="Pts" dataDxfId="99">
+      <calculatedColumnFormula>Table11214[[#This Row],[W]]*3 +Table11214[[#This Row],[D]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{A4EDEFF9-C958-41EF-A906-2CDB4986A1EC}" name="standing" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{213931E2-046B-4D50-B1BC-9EA32FBD7106}" name="Table13" displayName="Table13" ref="A13:J17" totalsRowShown="0" headerRowDxfId="237" dataDxfId="235" headerRowBorderDxfId="236" tableBorderDxfId="234">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{213931E2-046B-4D50-B1BC-9EA32FBD7106}" name="Table13" displayName="Table13" ref="A13:J17" totalsRowShown="0" headerRowDxfId="349" dataDxfId="347" headerRowBorderDxfId="348" tableBorderDxfId="346">
   <autoFilter ref="A13:J17" xr:uid="{F45FC70F-D0BA-437A-947E-C9142BE306D9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:J17">
     <sortCondition descending="1" ref="F13:F17"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{40609DCB-899A-490F-B919-F406994D67FF}" name="Team" dataDxfId="233"/>
-    <tableColumn id="2" xr3:uid="{86F70E68-869E-40CE-B55C-78702053B792}" name="Pld" dataDxfId="232"/>
-    <tableColumn id="3" xr3:uid="{8491058D-D181-4D58-BF55-64CC8008982F}" name="W" dataDxfId="231"/>
-    <tableColumn id="4" xr3:uid="{5657CFB3-3E43-475E-BC35-D56E6A3AE142}" name="D" dataDxfId="230"/>
-    <tableColumn id="5" xr3:uid="{31D07873-88A4-45C4-961F-6F24BC8BA25E}" name="L" dataDxfId="229"/>
-    <tableColumn id="6" xr3:uid="{620D0413-AE72-4EE7-BCBD-BD42D3964211}" name="Gf" dataDxfId="228"/>
-    <tableColumn id="7" xr3:uid="{3D4E7C3E-88F6-440B-9D6B-0A7569BE5458}" name="Ga" dataDxfId="227"/>
-    <tableColumn id="8" xr3:uid="{AD7BDB99-74A6-4145-9DD2-E89E84D1CABB}" name="Gol diff" dataDxfId="226">
+    <tableColumn id="1" xr3:uid="{40609DCB-899A-490F-B919-F406994D67FF}" name="Team" dataDxfId="345"/>
+    <tableColumn id="2" xr3:uid="{86F70E68-869E-40CE-B55C-78702053B792}" name="Pld" dataDxfId="344"/>
+    <tableColumn id="3" xr3:uid="{8491058D-D181-4D58-BF55-64CC8008982F}" name="W" dataDxfId="343"/>
+    <tableColumn id="4" xr3:uid="{5657CFB3-3E43-475E-BC35-D56E6A3AE142}" name="D" dataDxfId="342"/>
+    <tableColumn id="5" xr3:uid="{31D07873-88A4-45C4-961F-6F24BC8BA25E}" name="L" dataDxfId="341"/>
+    <tableColumn id="6" xr3:uid="{620D0413-AE72-4EE7-BCBD-BD42D3964211}" name="Gf" dataDxfId="340"/>
+    <tableColumn id="7" xr3:uid="{3D4E7C3E-88F6-440B-9D6B-0A7569BE5458}" name="Ga" dataDxfId="339"/>
+    <tableColumn id="8" xr3:uid="{AD7BDB99-74A6-4145-9DD2-E89E84D1CABB}" name="Gol diff" dataDxfId="338">
       <calculatedColumnFormula>Table13[[#This Row],[Gf]]-Table13[[#This Row],[Ga]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9F831F12-61E6-4DCE-8B57-7EA804884F55}" name="Pts" dataDxfId="225">
+    <tableColumn id="9" xr3:uid="{9F831F12-61E6-4DCE-8B57-7EA804884F55}" name="Pts" dataDxfId="337">
       <calculatedColumnFormula>Table13[[#This Row],[W]]*3+Table13[[#This Row],[D]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{DF1F272F-A38F-4439-A720-FEEDEC2B3D3E}" name="standing" dataDxfId="224"/>
+    <tableColumn id="10" xr3:uid="{DF1F272F-A38F-4439-A720-FEEDEC2B3D3E}" name="standing" dataDxfId="336"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{94058708-0385-4CCE-A116-71E88752B982}" name="Table1121428" displayName="Table1121428" ref="A22:J26" totalsRowShown="0" headerRowDxfId="97" dataDxfId="95" headerRowBorderDxfId="96" tableBorderDxfId="94">
+  <autoFilter ref="A22:J26" xr:uid="{94058708-0385-4CCE-A116-71E88752B982}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A23:J26">
+    <sortCondition descending="1" ref="I22:I26"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{83C68660-1D7C-439A-9A0C-B04CC7484654}" name="Team" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{31B46587-3351-4415-AC18-361DD577A199}" name="Pld" dataDxfId="92">
+      <calculatedColumnFormula>Table1121428[[#This Row],[W]]+Table1121428[[#This Row],[D]]+Table1121428[[#This Row],[L]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{F24100C8-37C1-4BEA-AEED-35E70B8473A8}" name="W" dataDxfId="91"/>
+    <tableColumn id="4" xr3:uid="{7C9535AC-FB93-4282-990C-57B1061C9446}" name="D" dataDxfId="90"/>
+    <tableColumn id="5" xr3:uid="{DCAD337C-FE2C-45F7-ADB0-F965F550399F}" name="L" dataDxfId="89"/>
+    <tableColumn id="6" xr3:uid="{042D9A39-9CDD-40C6-ABCA-DC2DB59103FF}" name="Gf" dataDxfId="88"/>
+    <tableColumn id="7" xr3:uid="{0A0BD0EE-EAE5-4D7C-A528-24734E903ECD}" name="Ga" dataDxfId="87"/>
+    <tableColumn id="8" xr3:uid="{BCA734AC-922E-48A8-8FC4-030E7A361D1B}" name="Gol diff" dataDxfId="86">
+      <calculatedColumnFormula>Table1121428[[#This Row],[Gf]]-Table1121428[[#This Row],[Ga]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{989723DE-76BE-4E19-98F2-4D49F2436363}" name="Pts" dataDxfId="85">
+      <calculatedColumnFormula>Table1121428[[#This Row],[W]]*3 +Table1121428[[#This Row],[D]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{0F4024F8-8339-4747-902D-688D187E77B8}" name="standing" dataDxfId="84"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{FA58C8F6-CC6F-4304-BC60-03ADD07AC997}" name="Table112142829" displayName="Table112142829" ref="A39:J43" totalsRowShown="0" headerRowDxfId="83" dataDxfId="81" headerRowBorderDxfId="82" tableBorderDxfId="80">
+  <autoFilter ref="A39:J43" xr:uid="{FA58C8F6-CC6F-4304-BC60-03ADD07AC997}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A40:J43">
+    <sortCondition ref="J39:J43"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{23504093-87BD-4543-8243-E7C625DE4B76}" name="Team" dataDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{0B61A591-1418-4FE3-9A5D-E3788605D2CE}" name="Pld" dataDxfId="78">
+      <calculatedColumnFormula>Table112142829[[#This Row],[W]]+Table112142829[[#This Row],[D]]+Table112142829[[#This Row],[L]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{855995CD-7B89-4850-B1E7-DB07A1D10A51}" name="W" dataDxfId="77"/>
+    <tableColumn id="4" xr3:uid="{AB9ECC5E-3082-4E6F-B6BE-2BA2D1BCC392}" name="D" dataDxfId="76"/>
+    <tableColumn id="5" xr3:uid="{6178D4AD-E367-4919-8938-0B7C1EADB6C5}" name="L" dataDxfId="75"/>
+    <tableColumn id="6" xr3:uid="{592546E7-FD55-4337-BEB2-82E0ECAE13B6}" name="Gf" dataDxfId="74"/>
+    <tableColumn id="7" xr3:uid="{39C3138E-7D94-49B1-A949-BFF2CA7ABF08}" name="Ga" dataDxfId="73"/>
+    <tableColumn id="8" xr3:uid="{B1AEC931-23B2-4DB2-81B0-74B386411410}" name="Gol diff" dataDxfId="72">
+      <calculatedColumnFormula>Table112142829[[#This Row],[Gf]]-Table112142829[[#This Row],[Ga]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{AAB8DCAD-FF71-4654-A48C-00C49CD0CBEC}" name="Pts" dataDxfId="71">
+      <calculatedColumnFormula>Table112142829[[#This Row],[W]]*3 +Table112142829[[#This Row],[D]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{B39447D6-942A-4E6A-A3E1-6EB5D9CC3D5C}" name="standing" dataDxfId="70"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{3336CFAD-EA67-4B3C-B483-85D8A35795D0}" name="Table11214282930" displayName="Table11214282930" ref="A55:J59" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68" tableBorderDxfId="66">
+  <autoFilter ref="A55:J59" xr:uid="{3336CFAD-EA67-4B3C-B483-85D8A35795D0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A56:J59">
+    <sortCondition descending="1" ref="I55:I59"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{D358DC52-CFE3-4F2E-8444-B2C5AB9C128A}" name="Team" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{B1B0AE7F-D46F-48A0-9329-21E6541225BF}" name="Pld" dataDxfId="64">
+      <calculatedColumnFormula>Table11214282930[[#This Row],[W]]+Table11214282930[[#This Row],[D]]+Table11214282930[[#This Row],[L]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{D63EF664-3FA3-4B5E-8E3E-3E9CB20F2DF3}" name="W" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{EF720EEC-79E5-4249-A193-C1534B982572}" name="D" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{4938D693-0774-4EA8-93B7-AADF9521DDC3}" name="L" dataDxfId="61"/>
+    <tableColumn id="6" xr3:uid="{AD162C9E-D007-48D6-B669-76DD21B69DCC}" name="Gf" dataDxfId="60"/>
+    <tableColumn id="7" xr3:uid="{D83B7C36-D4C6-4F93-83EC-3E6BBDA6E143}" name="Ga" dataDxfId="59"/>
+    <tableColumn id="8" xr3:uid="{618F02B9-8519-467A-A929-F41BEC12099A}" name="Gol diff" dataDxfId="58">
+      <calculatedColumnFormula>Table11214282930[[#This Row],[Gf]]-Table11214282930[[#This Row],[Ga]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{3E7F70B5-15D6-4941-BB46-5019F6D43DC9}" name="Pts" dataDxfId="57">
+      <calculatedColumnFormula>Table11214282930[[#This Row],[W]]*3 +Table11214282930[[#This Row],[D]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{263CC839-0DCF-4F27-918C-46E398274887}" name="standing" dataDxfId="56"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{58E7064A-AF6E-44B6-AA5E-7D8CBEC8DEE5}" name="Table1121428293031" displayName="Table1121428293031" ref="A71:J75" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54" tableBorderDxfId="52">
+  <autoFilter ref="A71:J75" xr:uid="{58E7064A-AF6E-44B6-AA5E-7D8CBEC8DEE5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A72:J75">
+    <sortCondition descending="1" ref="I71:I75"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{7F6E7D24-E23E-4D76-B391-9CB71A38A05F}" name="Team" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{DA7166B2-57AC-4814-AE5B-392757E6EB32}" name="Pld" dataDxfId="50">
+      <calculatedColumnFormula>Table1121428293031[[#This Row],[W]]+Table1121428293031[[#This Row],[D]]+Table1121428293031[[#This Row],[L]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{F3BE78EF-A927-492F-819B-00FC1BF2E563}" name="W" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{48D56A80-783B-424C-84BC-6B6478F0DE12}" name="D" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{7FFE2017-5D21-49B6-B07E-9FCA552CD507}" name="L" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{369C0D21-DB53-41B4-8E3F-A028BB4FA08B}" name="Gf" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{13871766-8A1D-40F1-8596-DA28D9A72024}" name="Ga" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{961A923C-81B9-4A22-81DA-8A7B64395D08}" name="Gol diff" dataDxfId="44">
+      <calculatedColumnFormula>Table1121428293031[[#This Row],[Gf]]-Table1121428293031[[#This Row],[Ga]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{8ACDB6FC-40BA-496F-9A53-756F0034A6B1}" name="Pts" dataDxfId="43">
+      <calculatedColumnFormula>Table1121428293031[[#This Row],[W]]*3 +Table1121428293031[[#This Row],[D]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{F550A53C-45C3-4E54-9E88-BD48A7EF11BD}" name="standing" dataDxfId="42"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{40691F15-6CE8-47B3-89D5-A70BE5EFD8E8}" name="Table112142829303132" displayName="Table112142829303132" ref="A87:J91" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38">
+  <autoFilter ref="A87:J91" xr:uid="{40691F15-6CE8-47B3-89D5-A70BE5EFD8E8}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A88:J91">
+    <sortCondition descending="1" ref="I87:I91"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{E3B209B5-AE9A-4753-A9CD-5FCAFADB2D24}" name="Team" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{118924E9-4C0A-4347-B5C7-10E0ACB0F2DF}" name="Pld" dataDxfId="36">
+      <calculatedColumnFormula>Table112142829303132[[#This Row],[W]]+Table112142829303132[[#This Row],[D]]+Table112142829303132[[#This Row],[L]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{9A1440B6-4358-4712-8937-7C2EA6CE3904}" name="W" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{140691E4-2D44-4DDE-8557-0077FC02CDC5}" name="D" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{B9E376C2-B439-4F41-95C7-B91B1F3CA638}" name="L" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{447FE98A-48B6-4471-8F71-7686FC7C34E2}" name="Gf" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{5E335501-FFB3-465D-BA06-44CCB0CD152E}" name="Ga" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{39AED20C-907A-4F87-A1E5-FB430EC98D2B}" name="Gol diff" dataDxfId="30">
+      <calculatedColumnFormula>Table112142829303132[[#This Row],[Gf]]-Table112142829303132[[#This Row],[Ga]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{BFF3D0D7-8FC4-41D6-927C-80369BFE3058}" name="Pts" dataDxfId="29">
+      <calculatedColumnFormula>Table112142829303132[[#This Row],[W]]*3 +Table112142829303132[[#This Row],[D]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{9D53DA72-2AD7-4AFF-B995-FF7DDDB57C74}" name="standing" dataDxfId="28"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{EF180A8F-AE28-4D2D-A1CE-B5777B4E5AEE}" name="Table11214282930313233" displayName="Table11214282930313233" ref="A103:J107" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24">
+  <autoFilter ref="A103:J107" xr:uid="{EF180A8F-AE28-4D2D-A1CE-B5777B4E5AEE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A104:J107">
+    <sortCondition ref="J103:J107"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{93AD38FE-A85D-4510-AE12-96D5A192836B}" name="Team" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{13B2C7B7-F7B1-4FF8-92B8-6D7FDEEA9A88}" name="Pld" dataDxfId="22">
+      <calculatedColumnFormula>Table11214282930313233[[#This Row],[W]]+Table11214282930313233[[#This Row],[D]]+Table11214282930313233[[#This Row],[L]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{6B8C3C16-475E-40E7-811B-71D79A82F0CD}" name="W" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{93449243-DF69-4CBF-A4CC-13B85728F376}" name="D" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{1AFE1741-CBA0-4E43-8DD9-1537B71A0BDE}" name="L" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{97D67988-A118-4225-AA9C-283AAA1492A5}" name="Gf" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{21164D5A-CC99-48E1-BB97-6EB136116054}" name="Ga" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{B4CDB796-6A23-4F3E-A9C6-35097428A0D6}" name="Gol diff" dataDxfId="16">
+      <calculatedColumnFormula>Table11214282930313233[[#This Row],[Gf]]-Table11214282930313233[[#This Row],[Ga]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{591AB8DF-EA40-4E46-91EE-6D69B9C08F1C}" name="Pts" dataDxfId="15">
+      <calculatedColumnFormula>Table11214282930313233[[#This Row],[W]]*3 +Table11214282930313233[[#This Row],[D]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{D6B53C9A-10E1-47C7-8949-B8355EB8E6E3}" name="standing" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{E48ABF01-232D-4FD4-A01D-E0589EDD8EBD}" name="Table1121428293031323334" displayName="Table1121428293031323334" ref="A119:J123" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+  <autoFilter ref="A119:J123" xr:uid="{E48ABF01-232D-4FD4-A01D-E0589EDD8EBD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A120:J123">
+    <sortCondition descending="1" ref="I119:I123"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{F0A23541-50F6-4560-A636-96F296F264D0}" name="Team" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{F41477C4-F590-4E3A-B8BE-5E35ACB10618}" name="Pld" dataDxfId="8">
+      <calculatedColumnFormula>Table1121428293031323334[[#This Row],[W]]+Table1121428293031323334[[#This Row],[D]]+Table1121428293031323334[[#This Row],[L]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{0933091E-EDE1-47D5-9EAC-F4FC541A3C45}" name="W" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{F03ECDCC-5AEF-4F70-BCF8-3E280C50565E}" name="D" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{58A94555-D085-4D5A-B504-C60D5BEBB310}" name="L" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{E3E7540D-E590-4C36-905E-94C5A28475C2}" name="Gf" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{E6D8F22F-4B26-46BC-8A58-614B1B9E42D7}" name="Ga" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{5BD3A341-EC63-4587-A5D9-9484EF0D3CFB}" name="Gol diff" dataDxfId="2">
+      <calculatedColumnFormula>Table1121428293031323334[[#This Row],[Gf]]-Table1121428293031323334[[#This Row],[Ga]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{F818D593-9F3B-4C38-A9EB-0DEE086D74DA}" name="Pts" dataDxfId="1">
+      <calculatedColumnFormula>Table1121428293031323334[[#This Row],[W]]*3 +Table1121428293031323334[[#This Row],[D]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{458BD434-F802-427B-BC28-55D45C26BE6F}" name="standing" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BA6B27BB-F728-4459-B034-787139599CC1}" name="Table134" displayName="Table134" ref="A30:J34" totalsRowShown="0" headerRowDxfId="223" dataDxfId="221" headerRowBorderDxfId="222" tableBorderDxfId="220">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BA6B27BB-F728-4459-B034-787139599CC1}" name="Table134" displayName="Table134" ref="A30:J34" totalsRowShown="0" headerRowDxfId="335" dataDxfId="333" headerRowBorderDxfId="334" tableBorderDxfId="332">
   <autoFilter ref="A30:J34" xr:uid="{D94111E6-929E-4302-873E-C2C002DDEE39}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A31:J34">
     <sortCondition descending="1" ref="I30:I34"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{AACA4D58-2859-4B86-9C55-90D3256ABCF5}" name="Team" dataDxfId="219"/>
-    <tableColumn id="2" xr3:uid="{5ACE9E2D-6DDF-4E73-9488-58881D4CDFA5}" name="Pld" dataDxfId="218"/>
-    <tableColumn id="3" xr3:uid="{03A1DB3D-BFB7-4348-B77E-79652BB04CDE}" name="W" dataDxfId="217"/>
-    <tableColumn id="4" xr3:uid="{FC5FCFEE-CE62-4D69-977F-810688FA8FBE}" name="D" dataDxfId="216"/>
-    <tableColumn id="5" xr3:uid="{59E1B49B-A2D7-427E-83E6-FFBD50419473}" name="L" dataDxfId="215"/>
-    <tableColumn id="6" xr3:uid="{2BFA0A07-5D65-4D47-AFA8-D8D899924011}" name="Gf" dataDxfId="214"/>
-    <tableColumn id="7" xr3:uid="{C4D01548-DACC-4187-9617-38946AB705C1}" name="Ga" dataDxfId="213"/>
-    <tableColumn id="8" xr3:uid="{9FF75BA3-F499-478C-B4A1-575137BE5F49}" name="Gol diff" dataDxfId="212">
+    <tableColumn id="1" xr3:uid="{AACA4D58-2859-4B86-9C55-90D3256ABCF5}" name="Team" dataDxfId="331"/>
+    <tableColumn id="2" xr3:uid="{5ACE9E2D-6DDF-4E73-9488-58881D4CDFA5}" name="Pld" dataDxfId="330"/>
+    <tableColumn id="3" xr3:uid="{03A1DB3D-BFB7-4348-B77E-79652BB04CDE}" name="W" dataDxfId="329"/>
+    <tableColumn id="4" xr3:uid="{FC5FCFEE-CE62-4D69-977F-810688FA8FBE}" name="D" dataDxfId="328"/>
+    <tableColumn id="5" xr3:uid="{59E1B49B-A2D7-427E-83E6-FFBD50419473}" name="L" dataDxfId="327"/>
+    <tableColumn id="6" xr3:uid="{2BFA0A07-5D65-4D47-AFA8-D8D899924011}" name="Gf" dataDxfId="326"/>
+    <tableColumn id="7" xr3:uid="{C4D01548-DACC-4187-9617-38946AB705C1}" name="Ga" dataDxfId="325"/>
+    <tableColumn id="8" xr3:uid="{9FF75BA3-F499-478C-B4A1-575137BE5F49}" name="Gol diff" dataDxfId="324">
       <calculatedColumnFormula>Table134[[#This Row],[Gf]]-Table134[[#This Row],[Ga]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{38926F34-D78F-4459-B400-637CF9D07A20}" name="Pts" dataDxfId="211">
+    <tableColumn id="9" xr3:uid="{38926F34-D78F-4459-B400-637CF9D07A20}" name="Pts" dataDxfId="323">
       <calculatedColumnFormula>Table134[[#This Row],[W]]*3+Table134[[#This Row],[D]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3CBE9B7E-AF05-4073-8983-D059B176CB3E}" name="standing" dataDxfId="210"/>
+    <tableColumn id="10" xr3:uid="{3CBE9B7E-AF05-4073-8983-D059B176CB3E}" name="standing" dataDxfId="322"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{992F3B31-AC27-4AD4-B319-866DA305739C}" name="Table1345" displayName="Table1345" ref="A47:J51" totalsRowShown="0" headerRowDxfId="209" dataDxfId="207" headerRowBorderDxfId="208" tableBorderDxfId="206">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{992F3B31-AC27-4AD4-B319-866DA305739C}" name="Table1345" displayName="Table1345" ref="A47:J51" totalsRowShown="0" headerRowDxfId="321" dataDxfId="319" headerRowBorderDxfId="320" tableBorderDxfId="318">
   <autoFilter ref="A47:J51" xr:uid="{8D9D481B-80FF-4FFC-9FEF-56D468DEA86E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A48:J51">
     <sortCondition ref="J47:J51"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{0809FFCB-7E03-4EF1-9142-AB5EB5A59A10}" name="Team" dataDxfId="205"/>
-    <tableColumn id="2" xr3:uid="{C7BB9E5B-3631-4CBC-9621-9CBDA80DEC79}" name="Pld" dataDxfId="204"/>
-    <tableColumn id="3" xr3:uid="{8A4FCD39-B750-4E35-9C90-06F2DBE74B27}" name="W" dataDxfId="203"/>
-    <tableColumn id="4" xr3:uid="{184B9BED-BB71-45D3-9C06-97DA23C518D5}" name="D" dataDxfId="202"/>
-    <tableColumn id="5" xr3:uid="{1F4C8ED6-E009-420E-A19B-A2AC11D8ABDF}" name="L" dataDxfId="201"/>
-    <tableColumn id="6" xr3:uid="{6297FC45-24C2-48EC-BE37-F61ABBF986D4}" name="Gf" dataDxfId="200"/>
-    <tableColumn id="7" xr3:uid="{172E6122-396C-4D18-9DF1-A45536BA00AE}" name="Ga" dataDxfId="199"/>
-    <tableColumn id="8" xr3:uid="{2F231F29-C84E-459C-94BC-CD72FCCC70D7}" name="Gol diff" dataDxfId="198">
+    <tableColumn id="1" xr3:uid="{0809FFCB-7E03-4EF1-9142-AB5EB5A59A10}" name="Team" dataDxfId="317"/>
+    <tableColumn id="2" xr3:uid="{C7BB9E5B-3631-4CBC-9621-9CBDA80DEC79}" name="Pld" dataDxfId="316"/>
+    <tableColumn id="3" xr3:uid="{8A4FCD39-B750-4E35-9C90-06F2DBE74B27}" name="W" dataDxfId="315"/>
+    <tableColumn id="4" xr3:uid="{184B9BED-BB71-45D3-9C06-97DA23C518D5}" name="D" dataDxfId="314"/>
+    <tableColumn id="5" xr3:uid="{1F4C8ED6-E009-420E-A19B-A2AC11D8ABDF}" name="L" dataDxfId="313"/>
+    <tableColumn id="6" xr3:uid="{6297FC45-24C2-48EC-BE37-F61ABBF986D4}" name="Gf" dataDxfId="312"/>
+    <tableColumn id="7" xr3:uid="{172E6122-396C-4D18-9DF1-A45536BA00AE}" name="Ga" dataDxfId="311"/>
+    <tableColumn id="8" xr3:uid="{2F231F29-C84E-459C-94BC-CD72FCCC70D7}" name="Gol diff" dataDxfId="310">
       <calculatedColumnFormula>Table1345[[#This Row],[Gf]]-Table1345[[#This Row],[Ga]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{CAA5F8B6-CE02-47F5-BA72-B6F315676857}" name="Pts" dataDxfId="197">
+    <tableColumn id="9" xr3:uid="{CAA5F8B6-CE02-47F5-BA72-B6F315676857}" name="Pts" dataDxfId="309">
       <calculatedColumnFormula>Table1345[[#This Row],[W]]*3+Table1345[[#This Row],[D]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{78725F90-2692-4B76-AA99-3FD5E4E4E249}" name="standing" dataDxfId="196"/>
+    <tableColumn id="10" xr3:uid="{78725F90-2692-4B76-AA99-3FD5E4E4E249}" name="standing" dataDxfId="308"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ED4CB53C-A3D1-4CF4-A163-AF8F49478C9E}" name="Table13456" displayName="Table13456" ref="A64:J68" totalsRowShown="0" headerRowDxfId="195" dataDxfId="193" headerRowBorderDxfId="194" tableBorderDxfId="192">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ED4CB53C-A3D1-4CF4-A163-AF8F49478C9E}" name="Table13456" displayName="Table13456" ref="A64:J68" totalsRowShown="0" headerRowDxfId="307" dataDxfId="305" headerRowBorderDxfId="306" tableBorderDxfId="304">
   <autoFilter ref="A64:J68" xr:uid="{85A02BED-98DD-4BFA-858D-898F632F9CC9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A65:J68">
     <sortCondition descending="1" ref="I64:I68"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{0E6EF2D5-407B-430C-99F7-918980E2D4A5}" name="Team" dataDxfId="191"/>
-    <tableColumn id="2" xr3:uid="{7A623A54-EABB-4093-9830-140F1F9F3010}" name="Pld" dataDxfId="190"/>
-    <tableColumn id="3" xr3:uid="{CCF1A964-79A2-4FAA-AB50-03C4B327F628}" name="W" dataDxfId="189"/>
-    <tableColumn id="4" xr3:uid="{5AA597C6-64E3-45FA-A23F-40C68EAB3292}" name="D" dataDxfId="188"/>
-    <tableColumn id="5" xr3:uid="{E2CFB5CC-E60C-49C0-B786-4275DD07A1DB}" name="L" dataDxfId="187"/>
-    <tableColumn id="6" xr3:uid="{4CE22E1E-8561-4C60-827D-D42728B39F5D}" name="Gf" dataDxfId="186"/>
-    <tableColumn id="7" xr3:uid="{E70B4381-D450-4D46-B53A-E4DB4E0BBCB4}" name="Ga" dataDxfId="185"/>
-    <tableColumn id="8" xr3:uid="{9241A45D-6A91-4B6D-82D7-7AEC2EEE0546}" name="Gol diff" dataDxfId="184">
+    <tableColumn id="1" xr3:uid="{0E6EF2D5-407B-430C-99F7-918980E2D4A5}" name="Team" dataDxfId="303"/>
+    <tableColumn id="2" xr3:uid="{7A623A54-EABB-4093-9830-140F1F9F3010}" name="Pld" dataDxfId="302"/>
+    <tableColumn id="3" xr3:uid="{CCF1A964-79A2-4FAA-AB50-03C4B327F628}" name="W" dataDxfId="301"/>
+    <tableColumn id="4" xr3:uid="{5AA597C6-64E3-45FA-A23F-40C68EAB3292}" name="D" dataDxfId="300"/>
+    <tableColumn id="5" xr3:uid="{E2CFB5CC-E60C-49C0-B786-4275DD07A1DB}" name="L" dataDxfId="299"/>
+    <tableColumn id="6" xr3:uid="{4CE22E1E-8561-4C60-827D-D42728B39F5D}" name="Gf" dataDxfId="298"/>
+    <tableColumn id="7" xr3:uid="{E70B4381-D450-4D46-B53A-E4DB4E0BBCB4}" name="Ga" dataDxfId="297"/>
+    <tableColumn id="8" xr3:uid="{9241A45D-6A91-4B6D-82D7-7AEC2EEE0546}" name="Gol diff" dataDxfId="296">
       <calculatedColumnFormula>Table13456[[#This Row],[Gf]]-Table13456[[#This Row],[Ga]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{6608B9AA-E974-4673-AECB-E5800D03469D}" name="Pts" dataDxfId="183">
+    <tableColumn id="9" xr3:uid="{6608B9AA-E974-4673-AECB-E5800D03469D}" name="Pts" dataDxfId="295">
       <calculatedColumnFormula>Table13456[[#This Row],[W]]*3+Table13456[[#This Row],[D]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{CFDA3926-B052-4A57-92C9-6D1729E41E9D}" name="standing" dataDxfId="182"/>
+    <tableColumn id="10" xr3:uid="{CFDA3926-B052-4A57-92C9-6D1729E41E9D}" name="standing" dataDxfId="294"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{274EA4A4-943F-4626-86DB-BBC6AA392DAA}" name="Table134567" displayName="Table134567" ref="A83:J87" totalsRowShown="0" headerRowDxfId="181" dataDxfId="179" headerRowBorderDxfId="180" tableBorderDxfId="178">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{274EA4A4-943F-4626-86DB-BBC6AA392DAA}" name="Table134567" displayName="Table134567" ref="A83:J87" totalsRowShown="0" headerRowDxfId="293" dataDxfId="291" headerRowBorderDxfId="292" tableBorderDxfId="290">
   <autoFilter ref="A83:J87" xr:uid="{65578200-1A94-44DB-BD8D-4043ECE21CCC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A84:J87">
     <sortCondition descending="1" ref="I83:I87"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{DC7ADC1B-3189-4199-AC6F-5A54B248F671}" name="Team" dataDxfId="177"/>
-    <tableColumn id="2" xr3:uid="{011E4CF5-70C9-464D-B9AA-62C4A2F91AB1}" name="Pld" dataDxfId="176"/>
-    <tableColumn id="3" xr3:uid="{48DD37B4-4CA5-47AF-8E3B-12F918326BB5}" name="W" dataDxfId="175"/>
-    <tableColumn id="4" xr3:uid="{6743486D-8A57-4E2F-B746-B5CB0B274549}" name="D" dataDxfId="174"/>
-    <tableColumn id="5" xr3:uid="{6699B371-E405-490D-A70E-C1B33AB41147}" name="L" dataDxfId="173"/>
-    <tableColumn id="6" xr3:uid="{19BB3956-F3F2-4908-AF3A-F142009A9409}" name="Gf" dataDxfId="172"/>
-    <tableColumn id="7" xr3:uid="{FB8BA8D0-8109-40F3-9331-889CC1510258}" name="Ga" dataDxfId="171"/>
-    <tableColumn id="8" xr3:uid="{242C6C10-5906-40D6-A146-D82F29C7A7ED}" name="Gol diff" dataDxfId="170">
+    <tableColumn id="1" xr3:uid="{DC7ADC1B-3189-4199-AC6F-5A54B248F671}" name="Team" dataDxfId="289"/>
+    <tableColumn id="2" xr3:uid="{011E4CF5-70C9-464D-B9AA-62C4A2F91AB1}" name="Pld" dataDxfId="288"/>
+    <tableColumn id="3" xr3:uid="{48DD37B4-4CA5-47AF-8E3B-12F918326BB5}" name="W" dataDxfId="287"/>
+    <tableColumn id="4" xr3:uid="{6743486D-8A57-4E2F-B746-B5CB0B274549}" name="D" dataDxfId="286"/>
+    <tableColumn id="5" xr3:uid="{6699B371-E405-490D-A70E-C1B33AB41147}" name="L" dataDxfId="285"/>
+    <tableColumn id="6" xr3:uid="{19BB3956-F3F2-4908-AF3A-F142009A9409}" name="Gf" dataDxfId="284"/>
+    <tableColumn id="7" xr3:uid="{FB8BA8D0-8109-40F3-9331-889CC1510258}" name="Ga" dataDxfId="283"/>
+    <tableColumn id="8" xr3:uid="{242C6C10-5906-40D6-A146-D82F29C7A7ED}" name="Gol diff" dataDxfId="282">
       <calculatedColumnFormula>Table134567[[#This Row],[Gf]]-Table134567[[#This Row],[Ga]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{BC606EBC-B9F3-4AB6-96E7-12A275A481E0}" name="Pts" dataDxfId="169">
+    <tableColumn id="9" xr3:uid="{BC606EBC-B9F3-4AB6-96E7-12A275A481E0}" name="Pts" dataDxfId="281">
       <calculatedColumnFormula>Table134567[[#This Row],[W]]*3+Table134567[[#This Row],[D]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{AC98B3FC-A240-42E6-BE10-AE24DF19D9D9}" name="standing" dataDxfId="168"/>
+    <tableColumn id="10" xr3:uid="{AC98B3FC-A240-42E6-BE10-AE24DF19D9D9}" name="standing" dataDxfId="280"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7A220181-563D-4AFC-84EE-D86B04BF5ABC}" name="Table1345678" displayName="Table1345678" ref="A101:J105" totalsRowShown="0" headerRowDxfId="167" dataDxfId="165" headerRowBorderDxfId="166" tableBorderDxfId="164">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7A220181-563D-4AFC-84EE-D86B04BF5ABC}" name="Table1345678" displayName="Table1345678" ref="A101:J105" totalsRowShown="0" headerRowDxfId="279" dataDxfId="277" headerRowBorderDxfId="278" tableBorderDxfId="276">
   <autoFilter ref="A101:J105" xr:uid="{1176C14F-7866-4163-B4B9-78F54400357D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A102:J105">
     <sortCondition descending="1" ref="I101:I105"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{A6B6DFF9-76A4-49D1-B70F-F6C073D49B01}" name="Team" dataDxfId="163"/>
-    <tableColumn id="2" xr3:uid="{19626A11-57B0-43CB-AB04-21BFF2C9B911}" name="Pld" dataDxfId="162"/>
-    <tableColumn id="3" xr3:uid="{4836A7D3-EE98-481F-B75E-F0784E25A81C}" name="W" dataDxfId="161"/>
-    <tableColumn id="4" xr3:uid="{6F80E711-160B-47F2-B39C-9713A741F98A}" name="D" dataDxfId="160"/>
-    <tableColumn id="5" xr3:uid="{A03521C3-D9DA-49C9-9AC6-14A9A5ADE3E5}" name="L" dataDxfId="159"/>
-    <tableColumn id="6" xr3:uid="{3090505B-54D3-41BE-8E18-324A0DBF2CB0}" name="Gf" dataDxfId="158"/>
-    <tableColumn id="7" xr3:uid="{D4015E11-21C0-463B-BB04-FBAB1219FB60}" name="Ga" dataDxfId="157"/>
-    <tableColumn id="8" xr3:uid="{339260C8-9237-446E-8695-7274D2315A3C}" name="Gol diff" dataDxfId="156">
+    <tableColumn id="1" xr3:uid="{A6B6DFF9-76A4-49D1-B70F-F6C073D49B01}" name="Team" dataDxfId="275"/>
+    <tableColumn id="2" xr3:uid="{19626A11-57B0-43CB-AB04-21BFF2C9B911}" name="Pld" dataDxfId="274"/>
+    <tableColumn id="3" xr3:uid="{4836A7D3-EE98-481F-B75E-F0784E25A81C}" name="W" dataDxfId="273"/>
+    <tableColumn id="4" xr3:uid="{6F80E711-160B-47F2-B39C-9713A741F98A}" name="D" dataDxfId="272"/>
+    <tableColumn id="5" xr3:uid="{A03521C3-D9DA-49C9-9AC6-14A9A5ADE3E5}" name="L" dataDxfId="271"/>
+    <tableColumn id="6" xr3:uid="{3090505B-54D3-41BE-8E18-324A0DBF2CB0}" name="Gf" dataDxfId="270"/>
+    <tableColumn id="7" xr3:uid="{D4015E11-21C0-463B-BB04-FBAB1219FB60}" name="Ga" dataDxfId="269"/>
+    <tableColumn id="8" xr3:uid="{339260C8-9237-446E-8695-7274D2315A3C}" name="Gol diff" dataDxfId="268">
       <calculatedColumnFormula>Table1345678[[#This Row],[Gf]]-Table1345678[[#This Row],[Ga]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{5ECC5703-806D-43DB-AD97-3C6DBD0B8B88}" name="Pts" dataDxfId="155">
+    <tableColumn id="9" xr3:uid="{5ECC5703-806D-43DB-AD97-3C6DBD0B8B88}" name="Pts" dataDxfId="267">
       <calculatedColumnFormula>Table1345678[[#This Row],[W]]*3+Table1345678[[#This Row],[D]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{C1844325-637D-4158-A627-12A5FCD48AF2}" name="standing" dataDxfId="154"/>
+    <tableColumn id="10" xr3:uid="{C1844325-637D-4158-A627-12A5FCD48AF2}" name="standing" dataDxfId="266"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{426AE4FE-D527-49C0-8EEB-AF0AECD02DB9}" name="Table13456789" displayName="Table13456789" ref="A119:J123" totalsRowShown="0" headerRowDxfId="153" dataDxfId="151" headerRowBorderDxfId="152" tableBorderDxfId="150">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{426AE4FE-D527-49C0-8EEB-AF0AECD02DB9}" name="Table13456789" displayName="Table13456789" ref="A119:J123" totalsRowShown="0" headerRowDxfId="265" dataDxfId="263" headerRowBorderDxfId="264" tableBorderDxfId="262">
   <autoFilter ref="A119:J123" xr:uid="{FD43E83C-6E6B-4285-8EE0-562E9B8ACF03}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A120:J123">
     <sortCondition descending="1" ref="I119:I123"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{0528957F-C3FA-47DD-8F67-6AA20EA377F4}" name="Team" dataDxfId="149"/>
-    <tableColumn id="2" xr3:uid="{49CF2CC8-169B-4649-BEA7-6A04B57383B5}" name="Pld" dataDxfId="148"/>
-    <tableColumn id="3" xr3:uid="{5CB04D0C-A801-47EF-9965-D7E5ABF97EBF}" name="W" dataDxfId="147"/>
-    <tableColumn id="4" xr3:uid="{B367C2CF-E9C1-4F55-8611-E2E1D47D8FE8}" name="D" dataDxfId="146"/>
-    <tableColumn id="5" xr3:uid="{9AB6D479-F7CE-4D48-87FA-7690E64FF19B}" name="L" dataDxfId="145"/>
-    <tableColumn id="6" xr3:uid="{642FFE7D-D006-472A-96A6-F4997D95B31E}" name="Gf" dataDxfId="144"/>
-    <tableColumn id="7" xr3:uid="{5E8B763E-A589-4DB3-B10F-D90FCD6D310A}" name="Ga" dataDxfId="143"/>
-    <tableColumn id="8" xr3:uid="{DDD2BF03-5755-4A02-AE9C-1C500C23F396}" name="Gol diff" dataDxfId="142">
+    <tableColumn id="1" xr3:uid="{0528957F-C3FA-47DD-8F67-6AA20EA377F4}" name="Team" dataDxfId="261"/>
+    <tableColumn id="2" xr3:uid="{49CF2CC8-169B-4649-BEA7-6A04B57383B5}" name="Pld" dataDxfId="260"/>
+    <tableColumn id="3" xr3:uid="{5CB04D0C-A801-47EF-9965-D7E5ABF97EBF}" name="W" dataDxfId="259"/>
+    <tableColumn id="4" xr3:uid="{B367C2CF-E9C1-4F55-8611-E2E1D47D8FE8}" name="D" dataDxfId="258"/>
+    <tableColumn id="5" xr3:uid="{9AB6D479-F7CE-4D48-87FA-7690E64FF19B}" name="L" dataDxfId="257"/>
+    <tableColumn id="6" xr3:uid="{642FFE7D-D006-472A-96A6-F4997D95B31E}" name="Gf" dataDxfId="256"/>
+    <tableColumn id="7" xr3:uid="{5E8B763E-A589-4DB3-B10F-D90FCD6D310A}" name="Ga" dataDxfId="255"/>
+    <tableColumn id="8" xr3:uid="{DDD2BF03-5755-4A02-AE9C-1C500C23F396}" name="Gol diff" dataDxfId="254">
       <calculatedColumnFormula>Table13456789[[#This Row],[Gf]]-Table13456789[[#This Row],[Ga]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{5A4F9FA1-1B88-43C9-BC0C-94DD1032EBC7}" name="Pts" dataDxfId="141">
+    <tableColumn id="9" xr3:uid="{5A4F9FA1-1B88-43C9-BC0C-94DD1032EBC7}" name="Pts" dataDxfId="253">
       <calculatedColumnFormula>Table13456789[[#This Row],[W]]*3+Table13456789[[#This Row],[D]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{ACEA6582-8291-43E2-A17C-C530DFA4E342}" name="standing" dataDxfId="140"/>
+    <tableColumn id="10" xr3:uid="{ACEA6582-8291-43E2-A17C-C530DFA4E342}" name="standing" dataDxfId="252"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1D97256C-FA52-4474-B96B-0C7989B74B6C}" name="Table1345678910" displayName="Table1345678910" ref="A138:J142" totalsRowShown="0" headerRowDxfId="139" dataDxfId="137" headerRowBorderDxfId="138" tableBorderDxfId="136">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1D97256C-FA52-4474-B96B-0C7989B74B6C}" name="Table1345678910" displayName="Table1345678910" ref="A138:J142" totalsRowShown="0" headerRowDxfId="251" dataDxfId="249" headerRowBorderDxfId="250" tableBorderDxfId="248">
   <autoFilter ref="A138:J142" xr:uid="{0DB1C75A-57C9-48C0-9706-0E77CA5619D4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A139:J142">
     <sortCondition descending="1" ref="I138:I142"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7BCB9264-2F90-4032-86B0-DB193E224E1B}" name="Team" dataDxfId="135"/>
-    <tableColumn id="2" xr3:uid="{2D0DD818-FBBD-4DB4-BA9B-7FA06915592F}" name="Pld" dataDxfId="134"/>
-    <tableColumn id="3" xr3:uid="{6AED3B7F-1B9D-4F2D-BB6B-8DFBDBD4D26A}" name="W" dataDxfId="133"/>
-    <tableColumn id="4" xr3:uid="{959ACFAF-0D81-43BB-9013-F9F7413C9787}" name="D" dataDxfId="132"/>
-    <tableColumn id="5" xr3:uid="{BAA9EEFF-43AD-4354-A1C0-9E19BB3DEC9C}" name="L" dataDxfId="131"/>
-    <tableColumn id="6" xr3:uid="{3D3E85EA-D0A6-4207-97C4-56220FC600A3}" name="Gf" dataDxfId="130"/>
-    <tableColumn id="7" xr3:uid="{1BCC0E71-9F98-4774-925E-83671D59E9D9}" name="Ga" dataDxfId="129"/>
-    <tableColumn id="8" xr3:uid="{AC8A64B9-EEB0-45B1-A6E7-D2AC712156D1}" name="Gol diff" dataDxfId="128">
+    <tableColumn id="1" xr3:uid="{7BCB9264-2F90-4032-86B0-DB193E224E1B}" name="Team" dataDxfId="247"/>
+    <tableColumn id="2" xr3:uid="{2D0DD818-FBBD-4DB4-BA9B-7FA06915592F}" name="Pld" dataDxfId="246"/>
+    <tableColumn id="3" xr3:uid="{6AED3B7F-1B9D-4F2D-BB6B-8DFBDBD4D26A}" name="W" dataDxfId="245"/>
+    <tableColumn id="4" xr3:uid="{959ACFAF-0D81-43BB-9013-F9F7413C9787}" name="D" dataDxfId="244"/>
+    <tableColumn id="5" xr3:uid="{BAA9EEFF-43AD-4354-A1C0-9E19BB3DEC9C}" name="L" dataDxfId="243"/>
+    <tableColumn id="6" xr3:uid="{3D3E85EA-D0A6-4207-97C4-56220FC600A3}" name="Gf" dataDxfId="242"/>
+    <tableColumn id="7" xr3:uid="{1BCC0E71-9F98-4774-925E-83671D59E9D9}" name="Ga" dataDxfId="241"/>
+    <tableColumn id="8" xr3:uid="{AC8A64B9-EEB0-45B1-A6E7-D2AC712156D1}" name="Gol diff" dataDxfId="240">
       <calculatedColumnFormula>Table1345678910[[#This Row],[Gf]]-Table1345678910[[#This Row],[Ga]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0FCD2C89-7D9E-4631-8300-E5AA7AD351AC}" name="Pts" dataDxfId="127">
+    <tableColumn id="9" xr3:uid="{0FCD2C89-7D9E-4631-8300-E5AA7AD351AC}" name="Pts" dataDxfId="239">
       <calculatedColumnFormula>Table1345678910[[#This Row],[W]]*3+Table1345678910[[#This Row],[D]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{62329440-1E66-4EBB-BC5B-7504B31DD99C}" name="standing" dataDxfId="126"/>
+    <tableColumn id="10" xr3:uid="{62329440-1E66-4EBB-BC5B-7504B31DD99C}" name="standing" dataDxfId="238"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4666,8 +6526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L180"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7637,8 +9497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6B9524-7474-4E0A-8662-F151FF23C2C5}">
   <dimension ref="A1:L159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="A154" sqref="A154:F159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10093,4 +11953,2461 @@
     <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09194404-D070-4D0E-AC1C-61CA04A11FAB}">
+  <dimension ref="A1:J130"/>
+  <sheetViews>
+    <sheetView topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="H131" sqref="H131"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="4">
+        <f>Table11214[[#This Row],[W]]+Table11214[[#This Row],[D]]+Table11214[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="22">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <f>Table11214[[#This Row],[Gf]]-Table11214[[#This Row],[Ga]]</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="15">
+        <f>Table11214[[#This Row],[W]]*3 +Table11214[[#This Row],[D]]</f>
+        <v>5</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="4">
+        <f>Table11214[[#This Row],[W]]+Table11214[[#This Row],[D]]+Table11214[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="23">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <f>Table11214[[#This Row],[Gf]]-Table11214[[#This Row],[Ga]]</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="15">
+        <f>Table11214[[#This Row],[W]]*3 +Table11214[[#This Row],[D]]</f>
+        <v>5</v>
+      </c>
+      <c r="J6" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="4">
+        <f>Table11214[[#This Row],[W]]+Table11214[[#This Row],[D]]+Table11214[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2</v>
+      </c>
+      <c r="H7" s="4">
+        <f>Table11214[[#This Row],[Gf]]-Table11214[[#This Row],[Ga]]</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <f>Table11214[[#This Row],[W]]*3 +Table11214[[#This Row],[D]]</f>
+        <v>4</v>
+      </c>
+      <c r="J7" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="4">
+        <f>Table11214[[#This Row],[W]]+Table11214[[#This Row],[D]]+Table11214[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2</v>
+      </c>
+      <c r="G8" s="6">
+        <v>5</v>
+      </c>
+      <c r="H8" s="4">
+        <f>Table11214[[#This Row],[Gf]]-Table11214[[#This Row],[Ga]]</f>
+        <v>-3</v>
+      </c>
+      <c r="I8" s="5">
+        <f>Table11214[[#This Row],[W]]*3 +Table11214[[#This Row],[D]]</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="21">
+        <v>1</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0</v>
+      </c>
+      <c r="F12" s="11">
+        <f>SUM(B12:E12)</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="11">
+        <v>0</v>
+      </c>
+      <c r="C13" s="21">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <f>SUM(B13:E13)</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="11">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0</v>
+      </c>
+      <c r="D14" s="21">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11">
+        <f>SUM(B14:E14)</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="11">
+        <v>0</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11">
+        <f>SUM(B15:E15)</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="13">
+        <f>SUM(F12:F15)</f>
+        <v>4</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="4">
+        <f>Table1121428[[#This Row],[W]]+Table1121428[[#This Row],[D]]+Table1121428[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C23" s="17">
+        <v>2</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="18">
+        <v>1</v>
+      </c>
+      <c r="F23" s="17">
+        <v>4</v>
+      </c>
+      <c r="G23" s="4">
+        <v>2</v>
+      </c>
+      <c r="H23" s="4">
+        <f>Table1121428[[#This Row],[Gf]]-Table1121428[[#This Row],[Ga]]</f>
+        <v>2</v>
+      </c>
+      <c r="I23" s="4">
+        <f>Table1121428[[#This Row],[W]]*3 +Table1121428[[#This Row],[D]]</f>
+        <v>6</v>
+      </c>
+      <c r="J23" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="4">
+        <f>Table1121428[[#This Row],[W]]+Table1121428[[#This Row],[D]]+Table1121428[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <f>Table1121428[[#This Row],[Gf]]-Table1121428[[#This Row],[Ga]]</f>
+        <v>1</v>
+      </c>
+      <c r="I24" s="4">
+        <f>Table1121428[[#This Row],[W]]*3 +Table1121428[[#This Row],[D]]</f>
+        <v>5</v>
+      </c>
+      <c r="J24" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="4">
+        <f>Table1121428[[#This Row],[W]]+Table1121428[[#This Row],[D]]+Table1121428[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C25" s="18">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="16">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2</v>
+      </c>
+      <c r="G25" s="16">
+        <v>2</v>
+      </c>
+      <c r="H25" s="4">
+        <f>Table1121428[[#This Row],[Gf]]-Table1121428[[#This Row],[Ga]]</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <f>Table1121428[[#This Row],[W]]*3 +Table1121428[[#This Row],[D]]</f>
+        <v>4</v>
+      </c>
+      <c r="J25" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="4">
+        <f>Table1121428[[#This Row],[W]]+Table1121428[[#This Row],[D]]+Table1121428[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>3</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2</v>
+      </c>
+      <c r="G26" s="4">
+        <v>5</v>
+      </c>
+      <c r="H26" s="4">
+        <f>Table1121428[[#This Row],[Gf]]-Table1121428[[#This Row],[Ga]]</f>
+        <v>-3</v>
+      </c>
+      <c r="I26" s="4">
+        <f>Table1121428[[#This Row],[W]]*3 +Table1121428[[#This Row],[D]]</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="27">
+        <v>1</v>
+      </c>
+      <c r="C29" s="27">
+        <v>0</v>
+      </c>
+      <c r="D29" s="19">
+        <v>1</v>
+      </c>
+      <c r="E29" s="27">
+        <v>0</v>
+      </c>
+      <c r="F29" s="27">
+        <f>SUM(B29:E29)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="27">
+        <v>0</v>
+      </c>
+      <c r="C30" s="27">
+        <v>1</v>
+      </c>
+      <c r="D30" s="27">
+        <v>0</v>
+      </c>
+      <c r="E30" s="27">
+        <v>0</v>
+      </c>
+      <c r="F30" s="27">
+        <f>SUM(B30:E30)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="19">
+        <v>1</v>
+      </c>
+      <c r="C31" s="27">
+        <v>0</v>
+      </c>
+      <c r="D31" s="27">
+        <v>1</v>
+      </c>
+      <c r="E31" s="27">
+        <v>0</v>
+      </c>
+      <c r="F31" s="27">
+        <f>SUM(B31:E31)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="27">
+        <v>0</v>
+      </c>
+      <c r="C32" s="27">
+        <v>0</v>
+      </c>
+      <c r="D32" s="27">
+        <v>0</v>
+      </c>
+      <c r="E32" s="27">
+        <v>1</v>
+      </c>
+      <c r="F32" s="27">
+        <f>SUM(B32:E32)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="13">
+        <f>SUM(F29:F32)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="4">
+        <f>Table112142829[[#This Row],[W]]+Table112142829[[#This Row],[D]]+Table112142829[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1</v>
+      </c>
+      <c r="D40" s="17">
+        <v>2</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="16">
+        <v>3</v>
+      </c>
+      <c r="G40" s="4">
+        <v>2</v>
+      </c>
+      <c r="H40" s="4">
+        <f>Table112142829[[#This Row],[Gf]]-Table112142829[[#This Row],[Ga]]</f>
+        <v>1</v>
+      </c>
+      <c r="I40" s="4">
+        <f>Table112142829[[#This Row],[W]]*3 +Table112142829[[#This Row],[D]]</f>
+        <v>5</v>
+      </c>
+      <c r="J40" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="4">
+        <f>Table112142829[[#This Row],[W]]+Table112142829[[#This Row],[D]]+Table112142829[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1</v>
+      </c>
+      <c r="D41" s="4">
+        <v>2</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4">
+        <f>Table112142829[[#This Row],[Gf]]-Table112142829[[#This Row],[Ga]]</f>
+        <v>1</v>
+      </c>
+      <c r="I41" s="4">
+        <f>Table112142829[[#This Row],[W]]*3 +Table112142829[[#This Row],[D]]</f>
+        <v>5</v>
+      </c>
+      <c r="J41" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="4">
+        <f>Table112142829[[#This Row],[W]]+Table112142829[[#This Row],[D]]+Table112142829[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C42" s="18">
+        <v>1</v>
+      </c>
+      <c r="D42" s="17">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
+      <c r="F42" s="4">
+        <v>4</v>
+      </c>
+      <c r="G42" s="16">
+        <v>3</v>
+      </c>
+      <c r="H42" s="4">
+        <f>Table112142829[[#This Row],[Gf]]-Table112142829[[#This Row],[Ga]]</f>
+        <v>1</v>
+      </c>
+      <c r="I42" s="4">
+        <f>Table112142829[[#This Row],[W]]*3 +Table112142829[[#This Row],[D]]</f>
+        <v>4</v>
+      </c>
+      <c r="J42" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="4">
+        <f>Table112142829[[#This Row],[W]]+Table112142829[[#This Row],[D]]+Table112142829[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C43" s="6">
+        <v>0</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4">
+        <v>3</v>
+      </c>
+      <c r="F43" s="4">
+        <v>2</v>
+      </c>
+      <c r="G43" s="4">
+        <v>5</v>
+      </c>
+      <c r="H43" s="4">
+        <f>Table112142829[[#This Row],[Gf]]-Table112142829[[#This Row],[Ga]]</f>
+        <v>-3</v>
+      </c>
+      <c r="I43" s="4">
+        <f>Table112142829[[#This Row],[W]]*3 +Table112142829[[#This Row],[D]]</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="16">
+        <v>2</v>
+      </c>
+      <c r="C46" s="27">
+        <v>0</v>
+      </c>
+      <c r="D46" s="27">
+        <v>1</v>
+      </c>
+      <c r="E46" s="27">
+        <v>0</v>
+      </c>
+      <c r="F46" s="27">
+        <f>SUM(B46:E46)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="27">
+        <v>0</v>
+      </c>
+      <c r="C47" s="27">
+        <v>1</v>
+      </c>
+      <c r="D47" s="27">
+        <v>0</v>
+      </c>
+      <c r="E47" s="27">
+        <v>0</v>
+      </c>
+      <c r="F47" s="27">
+        <f>SUM(B47:E47)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="27">
+        <v>1</v>
+      </c>
+      <c r="C48" s="27">
+        <v>0</v>
+      </c>
+      <c r="D48" s="16">
+        <v>2</v>
+      </c>
+      <c r="E48" s="27">
+        <v>0</v>
+      </c>
+      <c r="F48" s="27">
+        <f>SUM(B48:E48)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="27">
+        <v>0</v>
+      </c>
+      <c r="C49" s="27">
+        <v>0</v>
+      </c>
+      <c r="D49" s="27">
+        <v>0</v>
+      </c>
+      <c r="E49" s="27">
+        <v>1</v>
+      </c>
+      <c r="F49" s="27">
+        <f>SUM(B49:E49)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" s="13">
+        <f>SUM(F46:F49)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56" s="4">
+        <f>Table11214282930[[#This Row],[W]]+Table11214282930[[#This Row],[D]]+Table11214282930[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C56" s="17">
+        <v>2</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+      <c r="F56" s="17">
+        <v>2</v>
+      </c>
+      <c r="G56" s="4">
+        <v>0</v>
+      </c>
+      <c r="H56" s="4">
+        <f>Table11214282930[[#This Row],[Gf]]-Table11214282930[[#This Row],[Ga]]</f>
+        <v>2</v>
+      </c>
+      <c r="I56" s="4">
+        <f>Table11214282930[[#This Row],[W]]*3 +Table11214282930[[#This Row],[D]]</f>
+        <v>7</v>
+      </c>
+      <c r="J56" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4">
+        <f>Table11214282930[[#This Row],[W]]+Table11214282930[[#This Row],[D]]+Table11214282930[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C57" s="18">
+        <v>1</v>
+      </c>
+      <c r="D57" s="4">
+        <v>2</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="18">
+        <v>3</v>
+      </c>
+      <c r="G57" s="4">
+        <v>2</v>
+      </c>
+      <c r="H57" s="4">
+        <f>Table11214282930[[#This Row],[Gf]]-Table11214282930[[#This Row],[Ga]]</f>
+        <v>1</v>
+      </c>
+      <c r="I57" s="4">
+        <f>Table11214282930[[#This Row],[W]]*3 +Table11214282930[[#This Row],[D]]</f>
+        <v>5</v>
+      </c>
+      <c r="J57" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="4">
+        <f>Table11214282930[[#This Row],[W]]+Table11214282930[[#This Row],[D]]+Table11214282930[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C58" s="4">
+        <v>1</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1</v>
+      </c>
+      <c r="F58" s="4">
+        <v>4</v>
+      </c>
+      <c r="G58" s="4">
+        <v>3</v>
+      </c>
+      <c r="H58" s="4">
+        <f>Table11214282930[[#This Row],[Gf]]-Table11214282930[[#This Row],[Ga]]</f>
+        <v>1</v>
+      </c>
+      <c r="I58" s="4">
+        <f>Table11214282930[[#This Row],[W]]*3 +Table11214282930[[#This Row],[D]]</f>
+        <v>4</v>
+      </c>
+      <c r="J58" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="4">
+        <f>Table11214282930[[#This Row],[W]]+Table11214282930[[#This Row],[D]]+Table11214282930[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+      <c r="E59" s="4">
+        <v>3</v>
+      </c>
+      <c r="F59" s="4">
+        <v>2</v>
+      </c>
+      <c r="G59" s="16">
+        <v>6</v>
+      </c>
+      <c r="H59" s="4">
+        <f>Table11214282930[[#This Row],[Gf]]-Table11214282930[[#This Row],[Ga]]</f>
+        <v>-4</v>
+      </c>
+      <c r="I59" s="4">
+        <f>Table11214282930[[#This Row],[W]]*3 +Table11214282930[[#This Row],[D]]</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" s="27">
+        <v>2</v>
+      </c>
+      <c r="C62" s="27">
+        <v>1</v>
+      </c>
+      <c r="D62" s="27">
+        <v>1</v>
+      </c>
+      <c r="E62" s="27">
+        <v>0</v>
+      </c>
+      <c r="F62" s="27">
+        <f>SUM(B62:E62)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="27">
+        <v>1</v>
+      </c>
+      <c r="C63" s="27">
+        <v>1</v>
+      </c>
+      <c r="D63" s="27">
+        <v>0</v>
+      </c>
+      <c r="E63" s="27">
+        <v>0</v>
+      </c>
+      <c r="F63" s="27">
+        <f>SUM(B63:E63)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B64" s="27">
+        <v>1</v>
+      </c>
+      <c r="C64" s="27">
+        <v>0</v>
+      </c>
+      <c r="D64" s="27">
+        <v>2</v>
+      </c>
+      <c r="E64" s="27">
+        <v>0</v>
+      </c>
+      <c r="F64" s="27">
+        <f>SUM(B64:E64)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" s="27">
+        <v>0</v>
+      </c>
+      <c r="C65" s="27">
+        <v>0</v>
+      </c>
+      <c r="D65" s="27">
+        <v>0</v>
+      </c>
+      <c r="E65" s="27">
+        <v>1</v>
+      </c>
+      <c r="F65" s="27">
+        <f>SUM(B65:E65)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F66" s="13">
+        <f>SUM(F62:F65)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B72" s="4">
+        <f>Table1121428293031[[#This Row],[W]]+Table1121428293031[[#This Row],[D]]+Table1121428293031[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C72" s="4">
+        <v>2</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0</v>
+      </c>
+      <c r="F72" s="4">
+        <v>2</v>
+      </c>
+      <c r="G72" s="4">
+        <v>0</v>
+      </c>
+      <c r="H72" s="4">
+        <f>Table1121428293031[[#This Row],[Gf]]-Table1121428293031[[#This Row],[Ga]]</f>
+        <v>2</v>
+      </c>
+      <c r="I72" s="4">
+        <f>Table1121428293031[[#This Row],[W]]*3 +Table1121428293031[[#This Row],[D]]</f>
+        <v>7</v>
+      </c>
+      <c r="J72" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B73" s="4">
+        <f>Table1121428293031[[#This Row],[W]]+Table1121428293031[[#This Row],[D]]+Table1121428293031[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C73" s="17">
+        <v>2</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0</v>
+      </c>
+      <c r="E73" s="18">
+        <v>1</v>
+      </c>
+      <c r="F73" s="17">
+        <v>5</v>
+      </c>
+      <c r="G73" s="18">
+        <v>3</v>
+      </c>
+      <c r="H73" s="4">
+        <f>Table1121428293031[[#This Row],[Gf]]-Table1121428293031[[#This Row],[Ga]]</f>
+        <v>2</v>
+      </c>
+      <c r="I73" s="4">
+        <f>Table1121428293031[[#This Row],[W]]*3 +Table1121428293031[[#This Row],[D]]</f>
+        <v>6</v>
+      </c>
+      <c r="J73" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B74" s="4">
+        <f>Table1121428293031[[#This Row],[W]]+Table1121428293031[[#This Row],[D]]+Table1121428293031[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C74" s="18">
+        <v>1</v>
+      </c>
+      <c r="D74" s="4">
+        <v>1</v>
+      </c>
+      <c r="E74" s="17">
+        <v>1</v>
+      </c>
+      <c r="F74" s="18">
+        <v>3</v>
+      </c>
+      <c r="G74" s="17">
+        <v>3</v>
+      </c>
+      <c r="H74" s="4">
+        <f>Table1121428293031[[#This Row],[Gf]]-Table1121428293031[[#This Row],[Ga]]</f>
+        <v>0</v>
+      </c>
+      <c r="I74" s="4">
+        <f>Table1121428293031[[#This Row],[W]]*3 +Table1121428293031[[#This Row],[D]]</f>
+        <v>4</v>
+      </c>
+      <c r="J74" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B75" s="4">
+        <f>Table1121428293031[[#This Row],[W]]+Table1121428293031[[#This Row],[D]]+Table1121428293031[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C75" s="4">
+        <v>0</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0</v>
+      </c>
+      <c r="E75" s="4">
+        <v>3</v>
+      </c>
+      <c r="F75" s="4">
+        <v>2</v>
+      </c>
+      <c r="G75" s="4">
+        <v>6</v>
+      </c>
+      <c r="H75" s="4">
+        <f>Table1121428293031[[#This Row],[Gf]]-Table1121428293031[[#This Row],[Ga]]</f>
+        <v>-4</v>
+      </c>
+      <c r="I75" s="4">
+        <f>Table1121428293031[[#This Row],[W]]*3 +Table1121428293031[[#This Row],[D]]</f>
+        <v>0</v>
+      </c>
+      <c r="J75" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B78" s="27">
+        <v>2</v>
+      </c>
+      <c r="C78" s="27">
+        <v>1</v>
+      </c>
+      <c r="D78" s="16">
+        <v>2</v>
+      </c>
+      <c r="E78" s="27">
+        <v>0</v>
+      </c>
+      <c r="F78" s="27">
+        <f>SUM(B78:E78)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79" s="27">
+        <v>1</v>
+      </c>
+      <c r="C79" s="27">
+        <v>1</v>
+      </c>
+      <c r="D79" s="27">
+        <v>0</v>
+      </c>
+      <c r="E79" s="27">
+        <v>0</v>
+      </c>
+      <c r="F79" s="27">
+        <f>SUM(B79:E79)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B80" s="27">
+        <v>1</v>
+      </c>
+      <c r="C80" s="16">
+        <v>1</v>
+      </c>
+      <c r="D80" s="27">
+        <v>2</v>
+      </c>
+      <c r="E80" s="27">
+        <v>0</v>
+      </c>
+      <c r="F80" s="27">
+        <f>SUM(B80:E80)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B81" s="27">
+        <v>0</v>
+      </c>
+      <c r="C81" s="27">
+        <v>0</v>
+      </c>
+      <c r="D81" s="27">
+        <v>0</v>
+      </c>
+      <c r="E81" s="27">
+        <v>1</v>
+      </c>
+      <c r="F81" s="27">
+        <f>SUM(B81:E81)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F82" s="13">
+        <f>SUM(F78:F81)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B88" s="4">
+        <f>Table112142829303132[[#This Row],[W]]+Table112142829303132[[#This Row],[D]]+Table112142829303132[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C88" s="4">
+        <v>2</v>
+      </c>
+      <c r="D88" s="4">
+        <v>1</v>
+      </c>
+      <c r="E88" s="4">
+        <v>0</v>
+      </c>
+      <c r="F88" s="4">
+        <v>2</v>
+      </c>
+      <c r="G88" s="4">
+        <v>0</v>
+      </c>
+      <c r="H88" s="4">
+        <f>Table112142829303132[[#This Row],[Gf]]-Table112142829303132[[#This Row],[Ga]]</f>
+        <v>2</v>
+      </c>
+      <c r="I88" s="4">
+        <f>Table112142829303132[[#This Row],[W]]*3 +Table112142829303132[[#This Row],[D]]</f>
+        <v>7</v>
+      </c>
+      <c r="J88" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89" s="4">
+        <f>Table112142829303132[[#This Row],[W]]+Table112142829303132[[#This Row],[D]]+Table112142829303132[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C89" s="4">
+        <v>1</v>
+      </c>
+      <c r="D89" s="16">
+        <v>2</v>
+      </c>
+      <c r="E89" s="4">
+        <v>0</v>
+      </c>
+      <c r="F89" s="17">
+        <v>4</v>
+      </c>
+      <c r="G89" s="18">
+        <v>3</v>
+      </c>
+      <c r="H89" s="4">
+        <f>Table112142829303132[[#This Row],[Gf]]-Table112142829303132[[#This Row],[Ga]]</f>
+        <v>1</v>
+      </c>
+      <c r="I89" s="4">
+        <f>Table112142829303132[[#This Row],[W]]*3 +Table112142829303132[[#This Row],[D]]</f>
+        <v>5</v>
+      </c>
+      <c r="J89" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B90" s="4">
+        <f>Table112142829303132[[#This Row],[W]]+Table112142829303132[[#This Row],[D]]+Table112142829303132[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C90" s="4">
+        <v>1</v>
+      </c>
+      <c r="D90" s="16">
+        <v>1</v>
+      </c>
+      <c r="E90" s="4">
+        <v>1</v>
+      </c>
+      <c r="F90" s="18">
+        <v>5</v>
+      </c>
+      <c r="G90" s="17">
+        <v>4</v>
+      </c>
+      <c r="H90" s="4">
+        <f>Table112142829303132[[#This Row],[Gf]]-Table112142829303132[[#This Row],[Ga]]</f>
+        <v>1</v>
+      </c>
+      <c r="I90" s="4">
+        <f>Table112142829303132[[#This Row],[W]]*3 +Table112142829303132[[#This Row],[D]]</f>
+        <v>4</v>
+      </c>
+      <c r="J90" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B91" s="4">
+        <f>Table112142829303132[[#This Row],[W]]+Table112142829303132[[#This Row],[D]]+Table112142829303132[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C91" s="4">
+        <v>0</v>
+      </c>
+      <c r="D91" s="4">
+        <v>0</v>
+      </c>
+      <c r="E91" s="4">
+        <v>3</v>
+      </c>
+      <c r="F91" s="4">
+        <v>2</v>
+      </c>
+      <c r="G91" s="4">
+        <v>6</v>
+      </c>
+      <c r="H91" s="4">
+        <f>Table112142829303132[[#This Row],[Gf]]-Table112142829303132[[#This Row],[Ga]]</f>
+        <v>-4</v>
+      </c>
+      <c r="I91" s="4">
+        <f>Table112142829303132[[#This Row],[W]]*3 +Table112142829303132[[#This Row],[D]]</f>
+        <v>0</v>
+      </c>
+      <c r="J91" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="93" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B94" s="27">
+        <v>2</v>
+      </c>
+      <c r="C94" s="16">
+        <v>2</v>
+      </c>
+      <c r="D94" s="27">
+        <v>2</v>
+      </c>
+      <c r="E94" s="27">
+        <v>0</v>
+      </c>
+      <c r="F94" s="27">
+        <f>SUM(B94:E94)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B95" s="27">
+        <v>1</v>
+      </c>
+      <c r="C95" s="27">
+        <v>1</v>
+      </c>
+      <c r="D95" s="27">
+        <v>0</v>
+      </c>
+      <c r="E95" s="27">
+        <v>0</v>
+      </c>
+      <c r="F95" s="27">
+        <f>SUM(B95:E95)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B96" s="27">
+        <v>1</v>
+      </c>
+      <c r="C96" s="27">
+        <v>1</v>
+      </c>
+      <c r="D96" s="16">
+        <v>3</v>
+      </c>
+      <c r="E96" s="27">
+        <v>0</v>
+      </c>
+      <c r="F96" s="27">
+        <f>SUM(B96:E96)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B97" s="27">
+        <v>0</v>
+      </c>
+      <c r="C97" s="27">
+        <v>0</v>
+      </c>
+      <c r="D97" s="27">
+        <v>0</v>
+      </c>
+      <c r="E97" s="27">
+        <v>1</v>
+      </c>
+      <c r="F97" s="27">
+        <f>SUM(B97:E97)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F98" s="13">
+        <f>SUM(F94:F97)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B104" s="4">
+        <f>Table11214282930313233[[#This Row],[W]]+Table11214282930313233[[#This Row],[D]]+Table11214282930313233[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C104" s="4">
+        <v>1</v>
+      </c>
+      <c r="D104" s="18">
+        <v>2</v>
+      </c>
+      <c r="E104" s="4">
+        <v>0</v>
+      </c>
+      <c r="F104" s="4">
+        <v>4</v>
+      </c>
+      <c r="G104" s="18">
+        <v>3</v>
+      </c>
+      <c r="H104" s="4">
+        <f>Table11214282930313233[[#This Row],[Gf]]-Table11214282930313233[[#This Row],[Ga]]</f>
+        <v>1</v>
+      </c>
+      <c r="I104" s="4">
+        <f>Table11214282930313233[[#This Row],[W]]*3 +Table11214282930313233[[#This Row],[D]]</f>
+        <v>5</v>
+      </c>
+      <c r="J104" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B105" s="4">
+        <f>Table11214282930313233[[#This Row],[W]]+Table11214282930313233[[#This Row],[D]]+Table11214282930313233[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C105" s="4">
+        <v>1</v>
+      </c>
+      <c r="D105" s="17">
+        <v>2</v>
+      </c>
+      <c r="E105" s="4">
+        <v>0</v>
+      </c>
+      <c r="F105" s="4">
+        <v>2</v>
+      </c>
+      <c r="G105" s="17">
+        <v>1</v>
+      </c>
+      <c r="H105" s="4">
+        <f>Table11214282930313233[[#This Row],[Gf]]-Table11214282930313233[[#This Row],[Ga]]</f>
+        <v>1</v>
+      </c>
+      <c r="I105" s="4">
+        <f>Table11214282930313233[[#This Row],[W]]*3 +Table11214282930313233[[#This Row],[D]]</f>
+        <v>5</v>
+      </c>
+      <c r="J105" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B106" s="4">
+        <f>Table11214282930313233[[#This Row],[W]]+Table11214282930313233[[#This Row],[D]]+Table11214282930313233[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C106" s="4">
+        <v>1</v>
+      </c>
+      <c r="D106" s="4">
+        <v>1</v>
+      </c>
+      <c r="E106" s="4">
+        <v>1</v>
+      </c>
+      <c r="F106" s="4">
+        <v>5</v>
+      </c>
+      <c r="G106" s="4">
+        <v>4</v>
+      </c>
+      <c r="H106" s="4">
+        <f>Table11214282930313233[[#This Row],[Gf]]-Table11214282930313233[[#This Row],[Ga]]</f>
+        <v>1</v>
+      </c>
+      <c r="I106" s="4">
+        <f>Table11214282930313233[[#This Row],[W]]*3 +Table11214282930313233[[#This Row],[D]]</f>
+        <v>4</v>
+      </c>
+      <c r="J106" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B107" s="4">
+        <f>Table11214282930313233[[#This Row],[W]]+Table11214282930313233[[#This Row],[D]]+Table11214282930313233[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C107" s="4">
+        <v>0</v>
+      </c>
+      <c r="D107" s="16">
+        <v>1</v>
+      </c>
+      <c r="E107" s="4">
+        <v>2</v>
+      </c>
+      <c r="F107" s="16">
+        <v>3</v>
+      </c>
+      <c r="G107" s="4">
+        <v>6</v>
+      </c>
+      <c r="H107" s="4">
+        <f>Table11214282930313233[[#This Row],[Gf]]-Table11214282930313233[[#This Row],[Ga]]</f>
+        <v>-3</v>
+      </c>
+      <c r="I107" s="4">
+        <f>Table11214282930313233[[#This Row],[W]]*3 +Table11214282930313233[[#This Row],[D]]</f>
+        <v>1</v>
+      </c>
+      <c r="J107" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B110" s="16">
+        <v>3</v>
+      </c>
+      <c r="C110" s="27">
+        <v>2</v>
+      </c>
+      <c r="D110" s="27">
+        <v>2</v>
+      </c>
+      <c r="E110" s="27">
+        <v>0</v>
+      </c>
+      <c r="F110" s="27">
+        <f>SUM(B110:E110)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B111" s="27">
+        <v>1</v>
+      </c>
+      <c r="C111" s="16">
+        <v>2</v>
+      </c>
+      <c r="D111" s="27">
+        <v>0</v>
+      </c>
+      <c r="E111" s="27">
+        <v>0</v>
+      </c>
+      <c r="F111" s="27">
+        <f>SUM(B111:E111)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B112" s="27">
+        <v>1</v>
+      </c>
+      <c r="C112" s="27">
+        <v>1</v>
+      </c>
+      <c r="D112" s="27">
+        <v>3</v>
+      </c>
+      <c r="E112" s="27">
+        <v>0</v>
+      </c>
+      <c r="F112" s="27">
+        <f>SUM(B112:E112)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B113" s="27">
+        <v>0</v>
+      </c>
+      <c r="C113" s="27">
+        <v>0</v>
+      </c>
+      <c r="D113" s="27">
+        <v>0</v>
+      </c>
+      <c r="E113" s="27">
+        <v>1</v>
+      </c>
+      <c r="F113" s="27">
+        <f>SUM(B113:E113)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F114" s="13">
+        <f>SUM(F110:F113)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B120" s="4">
+        <f>Table1121428293031323334[[#This Row],[W]]+Table1121428293031323334[[#This Row],[D]]+Table1121428293031323334[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C120" s="17">
+        <v>2</v>
+      </c>
+      <c r="D120" s="4">
+        <v>0</v>
+      </c>
+      <c r="E120" s="18">
+        <v>1</v>
+      </c>
+      <c r="F120" s="17">
+        <v>6</v>
+      </c>
+      <c r="G120" s="18">
+        <v>4</v>
+      </c>
+      <c r="H120" s="4">
+        <f>Table1121428293031323334[[#This Row],[Gf]]-Table1121428293031323334[[#This Row],[Ga]]</f>
+        <v>2</v>
+      </c>
+      <c r="I120" s="4">
+        <f>Table1121428293031323334[[#This Row],[W]]*3 +Table1121428293031323334[[#This Row],[D]]</f>
+        <v>6</v>
+      </c>
+      <c r="J120" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B121" s="4">
+        <f>Table1121428293031323334[[#This Row],[W]]+Table1121428293031323334[[#This Row],[D]]+Table1121428293031323334[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C121" s="4">
+        <v>1</v>
+      </c>
+      <c r="D121" s="4">
+        <v>2</v>
+      </c>
+      <c r="E121" s="4">
+        <v>0</v>
+      </c>
+      <c r="F121" s="4">
+        <v>2</v>
+      </c>
+      <c r="G121" s="4">
+        <v>1</v>
+      </c>
+      <c r="H121" s="4">
+        <f>Table1121428293031323334[[#This Row],[Gf]]-Table1121428293031323334[[#This Row],[Ga]]</f>
+        <v>1</v>
+      </c>
+      <c r="I121" s="4">
+        <f>Table1121428293031323334[[#This Row],[W]]*3 +Table1121428293031323334[[#This Row],[D]]</f>
+        <v>5</v>
+      </c>
+      <c r="J121" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B122" s="4">
+        <f>Table1121428293031323334[[#This Row],[W]]+Table1121428293031323334[[#This Row],[D]]+Table1121428293031323334[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C122" s="18">
+        <v>1</v>
+      </c>
+      <c r="D122" s="4">
+        <v>1</v>
+      </c>
+      <c r="E122" s="17">
+        <v>1</v>
+      </c>
+      <c r="F122" s="18">
+        <v>4</v>
+      </c>
+      <c r="G122" s="17">
+        <v>4</v>
+      </c>
+      <c r="H122" s="4">
+        <f>Table1121428293031323334[[#This Row],[Gf]]-Table1121428293031323334[[#This Row],[Ga]]</f>
+        <v>0</v>
+      </c>
+      <c r="I122" s="4">
+        <f>Table1121428293031323334[[#This Row],[W]]*3 +Table1121428293031323334[[#This Row],[D]]</f>
+        <v>4</v>
+      </c>
+      <c r="J122" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B123" s="4">
+        <f>Table1121428293031323334[[#This Row],[W]]+Table1121428293031323334[[#This Row],[D]]+Table1121428293031323334[[#This Row],[L]]</f>
+        <v>3</v>
+      </c>
+      <c r="C123" s="4">
+        <v>0</v>
+      </c>
+      <c r="D123" s="4">
+        <v>1</v>
+      </c>
+      <c r="E123" s="4">
+        <v>2</v>
+      </c>
+      <c r="F123" s="4">
+        <v>3</v>
+      </c>
+      <c r="G123" s="4">
+        <v>6</v>
+      </c>
+      <c r="H123" s="4">
+        <f>Table1121428293031323334[[#This Row],[Gf]]-Table1121428293031323334[[#This Row],[Ga]]</f>
+        <v>-3</v>
+      </c>
+      <c r="I123" s="4">
+        <f>Table1121428293031323334[[#This Row],[W]]*3 +Table1121428293031323334[[#This Row],[D]]</f>
+        <v>1</v>
+      </c>
+      <c r="J123" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="125" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F125" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B126" s="27">
+        <v>3</v>
+      </c>
+      <c r="C126" s="27">
+        <v>2</v>
+      </c>
+      <c r="D126" s="16">
+        <v>3</v>
+      </c>
+      <c r="E126" s="27">
+        <v>0</v>
+      </c>
+      <c r="F126" s="27">
+        <f>SUM(B126:E126)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B127" s="27">
+        <v>1</v>
+      </c>
+      <c r="C127" s="27">
+        <v>2</v>
+      </c>
+      <c r="D127" s="27">
+        <v>0</v>
+      </c>
+      <c r="E127" s="27">
+        <v>0</v>
+      </c>
+      <c r="F127" s="27">
+        <f>SUM(B127:E127)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B128" s="16">
+        <v>2</v>
+      </c>
+      <c r="C128" s="27">
+        <v>1</v>
+      </c>
+      <c r="D128" s="27">
+        <v>3</v>
+      </c>
+      <c r="E128" s="27">
+        <v>0</v>
+      </c>
+      <c r="F128" s="27">
+        <f>SUM(B128:E128)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B129" s="27">
+        <v>0</v>
+      </c>
+      <c r="C129" s="27">
+        <v>0</v>
+      </c>
+      <c r="D129" s="27">
+        <v>0</v>
+      </c>
+      <c r="E129" s="27">
+        <v>1</v>
+      </c>
+      <c r="F129" s="27">
+        <f>SUM(B129:E129)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F130" s="13">
+        <f>SUM(F126:F129)</f>
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="8">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+  </tableParts>
+</worksheet>
 </file>